--- a/album_list.xlsx
+++ b/album_list.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Coding\Play\Rap_Lyrics\lyricsNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B5FCB5-1631-41E6-85AE-BFF960E836E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5E144-2482-4AF5-8DE5-BBCDADCF09A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="654">
   <si>
     <t>Artist</t>
   </si>
@@ -1305,6 +1305,699 @@
   </si>
   <si>
     <t>Queens</t>
+  </si>
+  <si>
+    <t>Megan Thee Stallion</t>
+  </si>
+  <si>
+    <t>Traumazine</t>
+  </si>
+  <si>
+    <t>Good News</t>
+  </si>
+  <si>
+    <t>City Girls</t>
+  </si>
+  <si>
+    <t>City on Lock</t>
+  </si>
+  <si>
+    <t>Girl Code</t>
+  </si>
+  <si>
+    <t>A Tribe Called Quest</t>
+  </si>
+  <si>
+    <t>We Got It from Here... Thank You 4 Your Service</t>
+  </si>
+  <si>
+    <t>People's Instinctive Travels and the Paths of Rhythm</t>
+  </si>
+  <si>
+    <t>The Low End Theory</t>
+  </si>
+  <si>
+    <t>Beats, Rhymes and Life</t>
+  </si>
+  <si>
+    <t>The Love Movement</t>
+  </si>
+  <si>
+    <t>Midnight Marauders</t>
+  </si>
+  <si>
+    <t>LL Cool J</t>
+  </si>
+  <si>
+    <t>Authentic</t>
+  </si>
+  <si>
+    <t>Radio</t>
+  </si>
+  <si>
+    <t>Bigger and Deffer</t>
+  </si>
+  <si>
+    <t>Walking with a Panther</t>
+  </si>
+  <si>
+    <t>Mama Said Knock You Out</t>
+  </si>
+  <si>
+    <t>14 Shots to the Dome</t>
+  </si>
+  <si>
+    <t>Mr. Smith</t>
+  </si>
+  <si>
+    <t>Phenomenon</t>
+  </si>
+  <si>
+    <t>G.O.A.T.</t>
+  </si>
+  <si>
+    <t>The DEFinition</t>
+  </si>
+  <si>
+    <t>Todd Smith</t>
+  </si>
+  <si>
+    <t>Exit 13</t>
+  </si>
+  <si>
+    <t>Run DMC</t>
+  </si>
+  <si>
+    <t>Crown Royal</t>
+  </si>
+  <si>
+    <t>Run-D.M.C.</t>
+  </si>
+  <si>
+    <t>King of Rock</t>
+  </si>
+  <si>
+    <t>Raising Hell</t>
+  </si>
+  <si>
+    <t>Tougher Than Leather</t>
+  </si>
+  <si>
+    <t>Back from Hell</t>
+  </si>
+  <si>
+    <t>Down with the King</t>
+  </si>
+  <si>
+    <t>Boogie Down Productions</t>
+  </si>
+  <si>
+    <t>Criminal Minded</t>
+  </si>
+  <si>
+    <t>By All Means Necessary</t>
+  </si>
+  <si>
+    <t>Ghetto Music: The Blueprint of Hip Hop</t>
+  </si>
+  <si>
+    <t>Edutainment</t>
+  </si>
+  <si>
+    <t>Sex and Violence</t>
+  </si>
+  <si>
+    <t>The Bronx</t>
+  </si>
+  <si>
+    <t>KRS-One</t>
+  </si>
+  <si>
+    <t>I M A M C R U 1 2</t>
+  </si>
+  <si>
+    <t>Return of the Boom Bap</t>
+  </si>
+  <si>
+    <t>I Got Next</t>
+  </si>
+  <si>
+    <t>The Sneak Attack</t>
+  </si>
+  <si>
+    <t>Spiritual Minded</t>
+  </si>
+  <si>
+    <t>Kristyles</t>
+  </si>
+  <si>
+    <t>Keep Right</t>
+  </si>
+  <si>
+    <t>Life</t>
+  </si>
+  <si>
+    <t>Adventures in Emceein</t>
+  </si>
+  <si>
+    <t>Maximum Strength</t>
+  </si>
+  <si>
+    <t>The BDP Album</t>
+  </si>
+  <si>
+    <t>Never Forget</t>
+  </si>
+  <si>
+    <t>Now Hear This</t>
+  </si>
+  <si>
+    <t>The World Is Mind</t>
+  </si>
+  <si>
+    <t>Street Light (First Edition)</t>
+  </si>
+  <si>
+    <t>Between Da Protests</t>
+  </si>
+  <si>
+    <t>Fat Joe</t>
+  </si>
+  <si>
+    <t>Represent</t>
+  </si>
+  <si>
+    <t>Jealous One's Envy</t>
+  </si>
+  <si>
+    <t>Don Cartagena</t>
+  </si>
+  <si>
+    <t>Jealous Ones Still Envy (J.O.S.E.)</t>
+  </si>
+  <si>
+    <t>Loyalty</t>
+  </si>
+  <si>
+    <t>All or Nothing</t>
+  </si>
+  <si>
+    <t>Me, Myself &amp; I</t>
+  </si>
+  <si>
+    <t>The Elephant in the Room</t>
+  </si>
+  <si>
+    <t>Jealous Ones Still Envy 2 (J.O.S.E. 2)</t>
+  </si>
+  <si>
+    <t>The Darkside Vol. 1</t>
+  </si>
+  <si>
+    <t>Queen Latifah</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>All Hail the Queen</t>
+  </si>
+  <si>
+    <t>Nature of a Sista'</t>
+  </si>
+  <si>
+    <t>Black Reign</t>
+  </si>
+  <si>
+    <t>Order in the Court</t>
+  </si>
+  <si>
+    <t>The Dana Owens Album</t>
+  </si>
+  <si>
+    <t>Trav'lin' Light</t>
+  </si>
+  <si>
+    <t>Joey Badass</t>
+  </si>
+  <si>
+    <t>B4.Da.$$</t>
+  </si>
+  <si>
+    <t>All-Amerikkkan Badass</t>
+  </si>
+  <si>
+    <t>Summer Knights</t>
+  </si>
+  <si>
+    <t>The Notorious B.I.G</t>
+  </si>
+  <si>
+    <t>Life After Death</t>
+  </si>
+  <si>
+    <t>Ready to Die</t>
+  </si>
+  <si>
+    <t>Born Again</t>
+  </si>
+  <si>
+    <t>Cam'ron</t>
+  </si>
+  <si>
+    <t>Purple Haze 2</t>
+  </si>
+  <si>
+    <t>Confessions of Fire</t>
+  </si>
+  <si>
+    <t>S.D.E.</t>
+  </si>
+  <si>
+    <t>Come Home with Me</t>
+  </si>
+  <si>
+    <t>Purple Haze</t>
+  </si>
+  <si>
+    <t>Killa Season</t>
+  </si>
+  <si>
+    <t>Crime Pays</t>
+  </si>
+  <si>
+    <t>Manhattan</t>
+  </si>
+  <si>
+    <t>Mobb Deep</t>
+  </si>
+  <si>
+    <t>The Infamous Mobb Deep</t>
+  </si>
+  <si>
+    <t>Juvenile Hell</t>
+  </si>
+  <si>
+    <t>The Infamous</t>
+  </si>
+  <si>
+    <t>Hell on Earth</t>
+  </si>
+  <si>
+    <t>Murda Muzik</t>
+  </si>
+  <si>
+    <t>Infamy</t>
+  </si>
+  <si>
+    <t>Amerikaz Nightmare</t>
+  </si>
+  <si>
+    <t>Blood Money</t>
+  </si>
+  <si>
+    <t>Lil' Kim</t>
+  </si>
+  <si>
+    <t>Hard Core</t>
+  </si>
+  <si>
+    <t>The Notorious K.I.M.</t>
+  </si>
+  <si>
+    <t>La Bella Mafia</t>
+  </si>
+  <si>
+    <t>The Naked Truth</t>
+  </si>
+  <si>
+    <t>Cardi B</t>
+  </si>
+  <si>
+    <t>Gangsta Bitch Music, Vol. 1</t>
+  </si>
+  <si>
+    <t>Gangsta Bitch Music, Vol. 2</t>
+  </si>
+  <si>
+    <t>Invasion of Privacy</t>
+  </si>
+  <si>
+    <t>Nicki Minaj</t>
+  </si>
+  <si>
+    <t>Pink Friday 2</t>
+  </si>
+  <si>
+    <t>Pink Friday</t>
+  </si>
+  <si>
+    <t>Pink Friday: Roman Reloaded</t>
+  </si>
+  <si>
+    <t>The Pinkprint</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Beam Me Up Scotty</t>
+  </si>
+  <si>
+    <t>Beastie Boys</t>
+  </si>
+  <si>
+    <t>Hot Sauce Committee Part Two</t>
+  </si>
+  <si>
+    <t>Licensed to Ill</t>
+  </si>
+  <si>
+    <t>Paul's Boutique</t>
+  </si>
+  <si>
+    <t>Check Your Head</t>
+  </si>
+  <si>
+    <t>Ill Communication</t>
+  </si>
+  <si>
+    <t>Hello Nasty</t>
+  </si>
+  <si>
+    <t>To the 5 Boroughs</t>
+  </si>
+  <si>
+    <t>The Mix-Up</t>
+  </si>
+  <si>
+    <t>Remy Ma</t>
+  </si>
+  <si>
+    <t>There's Something About Remy: Based on a True Story</t>
+  </si>
+  <si>
+    <t>Animal Ambition</t>
+  </si>
+  <si>
+    <t>Get Rich or Die Tryin'</t>
+  </si>
+  <si>
+    <t>The Massacre</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
+    <t>Before I Self Destruct</t>
+  </si>
+  <si>
+    <t>50 Cent</t>
+  </si>
+  <si>
+    <t>Extinction Level Event 2: The Wrath of God</t>
+  </si>
+  <si>
+    <t>Busta Rhymes</t>
+  </si>
+  <si>
+    <t>The Coming</t>
+  </si>
+  <si>
+    <t>When Disaster Strikes…</t>
+  </si>
+  <si>
+    <t>Extinction Level Event: The Final World Front</t>
+  </si>
+  <si>
+    <t>Anarchy</t>
+  </si>
+  <si>
+    <t>Genesis</t>
+  </si>
+  <si>
+    <t>It Ain't Safe No More…</t>
+  </si>
+  <si>
+    <t>The Big Bang</t>
+  </si>
+  <si>
+    <t>Back on My B.S.</t>
+  </si>
+  <si>
+    <t>Year of the Dragon</t>
+  </si>
+  <si>
+    <t>Grandmaster Flash and the Furious Five</t>
+  </si>
+  <si>
+    <t>On the Strength</t>
+  </si>
+  <si>
+    <t>The Message</t>
+  </si>
+  <si>
+    <t>DMX</t>
+  </si>
+  <si>
+    <t>Exodus</t>
+  </si>
+  <si>
+    <t>Yonkers</t>
+  </si>
+  <si>
+    <t>It's Dark and Hell Is Hot</t>
+  </si>
+  <si>
+    <t>Flesh of My Flesh, Blood of My Blood</t>
+  </si>
+  <si>
+    <t>... And Then There Was X</t>
+  </si>
+  <si>
+    <t>The Great Depression</t>
+  </si>
+  <si>
+    <t>Grand Champ</t>
+  </si>
+  <si>
+    <t>Year of the Dog... Again</t>
+  </si>
+  <si>
+    <t>Undisputed</t>
+  </si>
+  <si>
+    <t>Young M.A</t>
+  </si>
+  <si>
+    <t>Herstory in the Making</t>
+  </si>
+  <si>
+    <t>Off the Yak</t>
+  </si>
+  <si>
+    <t>M.A The Mixtape</t>
+  </si>
+  <si>
+    <t>Sleep Walkin'</t>
+  </si>
+  <si>
+    <t>Don't Sweat the Technique</t>
+  </si>
+  <si>
+    <t>Eric B. &amp; Rakim</t>
+  </si>
+  <si>
+    <t>Paid in Full</t>
+  </si>
+  <si>
+    <t>Follow the Leader</t>
+  </si>
+  <si>
+    <t>Let the Rhythm Hit 'Em</t>
+  </si>
+  <si>
+    <t>Long Island</t>
+  </si>
+  <si>
+    <t>De La Soul</t>
+  </si>
+  <si>
+    <t>3 Feet High and Rising</t>
+  </si>
+  <si>
+    <t>De La Soul Is Dead</t>
+  </si>
+  <si>
+    <t>Buhloone Mindstate</t>
+  </si>
+  <si>
+    <t>Stakes Is High</t>
+  </si>
+  <si>
+    <t>Art Official Intelligence: Mosaic Thump</t>
+  </si>
+  <si>
+    <t>AOI: Bionix</t>
+  </si>
+  <si>
+    <t>The Grind Date</t>
+  </si>
+  <si>
+    <t>Plug 1 &amp; Plug 2 Present... First Serve</t>
+  </si>
+  <si>
+    <t>And the Anonymous Nobody…</t>
+  </si>
+  <si>
+    <t>Public Enemy</t>
+  </si>
+  <si>
+    <t>Nothing Is Quick in the Desert</t>
+  </si>
+  <si>
+    <t>Yo! Bum Rush the Show</t>
+  </si>
+  <si>
+    <t>It Takes a Nation of Millions to Hold Us Back</t>
+  </si>
+  <si>
+    <t>Fear of a Black Planet</t>
+  </si>
+  <si>
+    <t>Apocalypse 91... The Enemy Strikes Black</t>
+  </si>
+  <si>
+    <t>Muse Sick-n-Hour Mess Age</t>
+  </si>
+  <si>
+    <t>There's a Poison Goin' On</t>
+  </si>
+  <si>
+    <t>Revolverlution</t>
+  </si>
+  <si>
+    <t>New Whirl Odor</t>
+  </si>
+  <si>
+    <t>How You Sell Soul to a Soulless People Who Sold Their Soul?</t>
+  </si>
+  <si>
+    <t>Most of My Heroes Still Don't Appear on No Stamp</t>
+  </si>
+  <si>
+    <t>The Evil Empire of Everything</t>
+  </si>
+  <si>
+    <t>Man Plans God Laughs</t>
+  </si>
+  <si>
+    <t>Big Daddy Kane</t>
+  </si>
+  <si>
+    <t>Veteranz' Day</t>
+  </si>
+  <si>
+    <t>Long Live the Kane</t>
+  </si>
+  <si>
+    <t>It's a Big Daddy Thing</t>
+  </si>
+  <si>
+    <t>Taste of Chocolate</t>
+  </si>
+  <si>
+    <t>Prince of Darkness</t>
+  </si>
+  <si>
+    <t>Looks Like a Job For…</t>
+  </si>
+  <si>
+    <t>Daddy's Home</t>
+  </si>
+  <si>
+    <t>MF Doom</t>
+  </si>
+  <si>
+    <t>Born Like This</t>
+  </si>
+  <si>
+    <t>Operation: Doomsday</t>
+  </si>
+  <si>
+    <t>King Geedorah</t>
+  </si>
+  <si>
+    <t>Take Me to Your Leader</t>
+  </si>
+  <si>
+    <t>Vaudeville Villain</t>
+  </si>
+  <si>
+    <t>Viktor Vaughn</t>
+  </si>
+  <si>
+    <t>VV:2</t>
+  </si>
+  <si>
+    <t>Mm..Food</t>
+  </si>
+  <si>
+    <t>Kurtis Blow</t>
+  </si>
+  <si>
+    <t>Deuce</t>
+  </si>
+  <si>
+    <t>Tough</t>
+  </si>
+  <si>
+    <t>The Best Rapper on the Scene</t>
+  </si>
+  <si>
+    <t>Ego Trip</t>
+  </si>
+  <si>
+    <t>America</t>
+  </si>
+  <si>
+    <t>Kingdom Blow</t>
+  </si>
+  <si>
+    <t>Back by Popular Demand</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Lupe Fiasco</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Kid Cudi</t>
+  </si>
+  <si>
+    <t>Eminem</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Brother Ali</t>
+  </si>
+  <si>
+    <t>Nelly</t>
+  </si>
+  <si>
+    <t>Tech N9ne</t>
+  </si>
+  <si>
+    <t>Chance the Rapper</t>
+  </si>
+  <si>
+    <t>Chief Keef</t>
   </si>
 </sst>
 </file>
@@ -1697,10 +2390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19CDE-E3DD-497E-8468-EF613F78BA90}">
-  <dimension ref="A1:E342"/>
+  <dimension ref="A1:E544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="H243" sqref="H243"/>
+    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
+      <selection activeCell="E534" sqref="E534"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7515,6 +8208,3308 @@
         <v>268</v>
       </c>
     </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>423</v>
+      </c>
+      <c r="B343" t="s">
+        <v>425</v>
+      </c>
+      <c r="C343" t="s">
+        <v>278</v>
+      </c>
+      <c r="D343" t="s">
+        <v>279</v>
+      </c>
+      <c r="E343" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>423</v>
+      </c>
+      <c r="B344" t="s">
+        <v>424</v>
+      </c>
+      <c r="C344" t="s">
+        <v>278</v>
+      </c>
+      <c r="D344" t="s">
+        <v>279</v>
+      </c>
+      <c r="E344" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>426</v>
+      </c>
+      <c r="B345" t="s">
+        <v>428</v>
+      </c>
+      <c r="C345" t="s">
+        <v>274</v>
+      </c>
+      <c r="D345" t="s">
+        <v>275</v>
+      </c>
+      <c r="E345" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>426</v>
+      </c>
+      <c r="B346" t="s">
+        <v>427</v>
+      </c>
+      <c r="C346" t="s">
+        <v>274</v>
+      </c>
+      <c r="D346" t="s">
+        <v>275</v>
+      </c>
+      <c r="E346" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>429</v>
+      </c>
+      <c r="B347" t="s">
+        <v>431</v>
+      </c>
+      <c r="C347" t="s">
+        <v>422</v>
+      </c>
+      <c r="D347" t="s">
+        <v>340</v>
+      </c>
+      <c r="E347" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>429</v>
+      </c>
+      <c r="B348" t="s">
+        <v>432</v>
+      </c>
+      <c r="C348" t="s">
+        <v>422</v>
+      </c>
+      <c r="D348" t="s">
+        <v>340</v>
+      </c>
+      <c r="E348" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>429</v>
+      </c>
+      <c r="B349" t="s">
+        <v>435</v>
+      </c>
+      <c r="C349" t="s">
+        <v>422</v>
+      </c>
+      <c r="D349" t="s">
+        <v>340</v>
+      </c>
+      <c r="E349" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>429</v>
+      </c>
+      <c r="B350" t="s">
+        <v>433</v>
+      </c>
+      <c r="C350" t="s">
+        <v>422</v>
+      </c>
+      <c r="D350" t="s">
+        <v>340</v>
+      </c>
+      <c r="E350" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>429</v>
+      </c>
+      <c r="B351" t="s">
+        <v>434</v>
+      </c>
+      <c r="C351" t="s">
+        <v>422</v>
+      </c>
+      <c r="D351" t="s">
+        <v>340</v>
+      </c>
+      <c r="E351" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>429</v>
+      </c>
+      <c r="B352" t="s">
+        <v>430</v>
+      </c>
+      <c r="C352" t="s">
+        <v>422</v>
+      </c>
+      <c r="D352" t="s">
+        <v>340</v>
+      </c>
+      <c r="E352" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>436</v>
+      </c>
+      <c r="B353" t="s">
+        <v>438</v>
+      </c>
+      <c r="C353" t="s">
+        <v>422</v>
+      </c>
+      <c r="D353" t="s">
+        <v>340</v>
+      </c>
+      <c r="E353" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>436</v>
+      </c>
+      <c r="B354" t="s">
+        <v>439</v>
+      </c>
+      <c r="C354" t="s">
+        <v>422</v>
+      </c>
+      <c r="D354" t="s">
+        <v>340</v>
+      </c>
+      <c r="E354" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>436</v>
+      </c>
+      <c r="B355" t="s">
+        <v>440</v>
+      </c>
+      <c r="C355" t="s">
+        <v>422</v>
+      </c>
+      <c r="D355" t="s">
+        <v>340</v>
+      </c>
+      <c r="E355" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>436</v>
+      </c>
+      <c r="B356" t="s">
+        <v>441</v>
+      </c>
+      <c r="C356" t="s">
+        <v>422</v>
+      </c>
+      <c r="D356" t="s">
+        <v>340</v>
+      </c>
+      <c r="E356" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>436</v>
+      </c>
+      <c r="B357" t="s">
+        <v>442</v>
+      </c>
+      <c r="C357" t="s">
+        <v>422</v>
+      </c>
+      <c r="D357" t="s">
+        <v>340</v>
+      </c>
+      <c r="E357" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>436</v>
+      </c>
+      <c r="B358" t="s">
+        <v>443</v>
+      </c>
+      <c r="C358" t="s">
+        <v>422</v>
+      </c>
+      <c r="D358" t="s">
+        <v>340</v>
+      </c>
+      <c r="E358" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>436</v>
+      </c>
+      <c r="B359" t="s">
+        <v>444</v>
+      </c>
+      <c r="C359" t="s">
+        <v>422</v>
+      </c>
+      <c r="D359" t="s">
+        <v>340</v>
+      </c>
+      <c r="E359" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>436</v>
+      </c>
+      <c r="B360" t="s">
+        <v>445</v>
+      </c>
+      <c r="C360" t="s">
+        <v>422</v>
+      </c>
+      <c r="D360" t="s">
+        <v>340</v>
+      </c>
+      <c r="E360" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>436</v>
+      </c>
+      <c r="B361" s="3">
+        <v>10</v>
+      </c>
+      <c r="C361" t="s">
+        <v>422</v>
+      </c>
+      <c r="D361" t="s">
+        <v>340</v>
+      </c>
+      <c r="E361" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>436</v>
+      </c>
+      <c r="B362" t="s">
+        <v>446</v>
+      </c>
+      <c r="C362" t="s">
+        <v>422</v>
+      </c>
+      <c r="D362" t="s">
+        <v>340</v>
+      </c>
+      <c r="E362" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>436</v>
+      </c>
+      <c r="B363" t="s">
+        <v>447</v>
+      </c>
+      <c r="C363" t="s">
+        <v>422</v>
+      </c>
+      <c r="D363" t="s">
+        <v>340</v>
+      </c>
+      <c r="E363" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>436</v>
+      </c>
+      <c r="B364" t="s">
+        <v>448</v>
+      </c>
+      <c r="C364" t="s">
+        <v>422</v>
+      </c>
+      <c r="D364" t="s">
+        <v>340</v>
+      </c>
+      <c r="E364" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>436</v>
+      </c>
+      <c r="B365" t="s">
+        <v>437</v>
+      </c>
+      <c r="C365" t="s">
+        <v>422</v>
+      </c>
+      <c r="D365" t="s">
+        <v>340</v>
+      </c>
+      <c r="E365" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>449</v>
+      </c>
+      <c r="B366" t="s">
+        <v>451</v>
+      </c>
+      <c r="C366" t="s">
+        <v>422</v>
+      </c>
+      <c r="D366" t="s">
+        <v>340</v>
+      </c>
+      <c r="E366" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>449</v>
+      </c>
+      <c r="B367" t="s">
+        <v>452</v>
+      </c>
+      <c r="C367" t="s">
+        <v>422</v>
+      </c>
+      <c r="D367" t="s">
+        <v>340</v>
+      </c>
+      <c r="E367" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>449</v>
+      </c>
+      <c r="B368" t="s">
+        <v>453</v>
+      </c>
+      <c r="C368" t="s">
+        <v>422</v>
+      </c>
+      <c r="D368" t="s">
+        <v>340</v>
+      </c>
+      <c r="E368" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>449</v>
+      </c>
+      <c r="B369" t="s">
+        <v>454</v>
+      </c>
+      <c r="C369" t="s">
+        <v>422</v>
+      </c>
+      <c r="D369" t="s">
+        <v>340</v>
+      </c>
+      <c r="E369" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>449</v>
+      </c>
+      <c r="B370" t="s">
+        <v>455</v>
+      </c>
+      <c r="C370" t="s">
+        <v>422</v>
+      </c>
+      <c r="D370" t="s">
+        <v>340</v>
+      </c>
+      <c r="E370" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>449</v>
+      </c>
+      <c r="B371" t="s">
+        <v>456</v>
+      </c>
+      <c r="C371" t="s">
+        <v>422</v>
+      </c>
+      <c r="D371" t="s">
+        <v>340</v>
+      </c>
+      <c r="E371" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>449</v>
+      </c>
+      <c r="B372" t="s">
+        <v>450</v>
+      </c>
+      <c r="C372" t="s">
+        <v>422</v>
+      </c>
+      <c r="D372" t="s">
+        <v>340</v>
+      </c>
+      <c r="E372" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>457</v>
+      </c>
+      <c r="B373" t="s">
+        <v>458</v>
+      </c>
+      <c r="C373" t="s">
+        <v>463</v>
+      </c>
+      <c r="D373" t="s">
+        <v>340</v>
+      </c>
+      <c r="E373" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>457</v>
+      </c>
+      <c r="B374" t="s">
+        <v>459</v>
+      </c>
+      <c r="C374" t="s">
+        <v>463</v>
+      </c>
+      <c r="D374" t="s">
+        <v>340</v>
+      </c>
+      <c r="E374" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>457</v>
+      </c>
+      <c r="B375" t="s">
+        <v>460</v>
+      </c>
+      <c r="C375" t="s">
+        <v>463</v>
+      </c>
+      <c r="D375" t="s">
+        <v>340</v>
+      </c>
+      <c r="E375" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>457</v>
+      </c>
+      <c r="B376" t="s">
+        <v>461</v>
+      </c>
+      <c r="C376" t="s">
+        <v>463</v>
+      </c>
+      <c r="D376" t="s">
+        <v>340</v>
+      </c>
+      <c r="E376" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>457</v>
+      </c>
+      <c r="B377" t="s">
+        <v>462</v>
+      </c>
+      <c r="C377" t="s">
+        <v>463</v>
+      </c>
+      <c r="D377" t="s">
+        <v>340</v>
+      </c>
+      <c r="E377" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>464</v>
+      </c>
+      <c r="B378" t="s">
+        <v>466</v>
+      </c>
+      <c r="C378" t="s">
+        <v>463</v>
+      </c>
+      <c r="D378" t="s">
+        <v>340</v>
+      </c>
+      <c r="E378" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>464</v>
+      </c>
+      <c r="B379" t="s">
+        <v>464</v>
+      </c>
+      <c r="C379" t="s">
+        <v>463</v>
+      </c>
+      <c r="D379" t="s">
+        <v>340</v>
+      </c>
+      <c r="E379" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>464</v>
+      </c>
+      <c r="B380" t="s">
+        <v>467</v>
+      </c>
+      <c r="C380" t="s">
+        <v>463</v>
+      </c>
+      <c r="D380" t="s">
+        <v>340</v>
+      </c>
+      <c r="E380" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>464</v>
+      </c>
+      <c r="B381" t="s">
+        <v>468</v>
+      </c>
+      <c r="C381" t="s">
+        <v>463</v>
+      </c>
+      <c r="D381" t="s">
+        <v>340</v>
+      </c>
+      <c r="E381" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>464</v>
+      </c>
+      <c r="B382" t="s">
+        <v>469</v>
+      </c>
+      <c r="C382" t="s">
+        <v>463</v>
+      </c>
+      <c r="D382" t="s">
+        <v>340</v>
+      </c>
+      <c r="E382" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>464</v>
+      </c>
+      <c r="B383" t="s">
+        <v>470</v>
+      </c>
+      <c r="C383" t="s">
+        <v>463</v>
+      </c>
+      <c r="D383" t="s">
+        <v>340</v>
+      </c>
+      <c r="E383" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>464</v>
+      </c>
+      <c r="B384" t="s">
+        <v>471</v>
+      </c>
+      <c r="C384" t="s">
+        <v>463</v>
+      </c>
+      <c r="D384" t="s">
+        <v>340</v>
+      </c>
+      <c r="E384" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>464</v>
+      </c>
+      <c r="B385" t="s">
+        <v>472</v>
+      </c>
+      <c r="C385" t="s">
+        <v>463</v>
+      </c>
+      <c r="D385" t="s">
+        <v>340</v>
+      </c>
+      <c r="E385" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>464</v>
+      </c>
+      <c r="B386" t="s">
+        <v>473</v>
+      </c>
+      <c r="C386" t="s">
+        <v>463</v>
+      </c>
+      <c r="D386" t="s">
+        <v>340</v>
+      </c>
+      <c r="E386" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>464</v>
+      </c>
+      <c r="B387" t="s">
+        <v>474</v>
+      </c>
+      <c r="C387" t="s">
+        <v>463</v>
+      </c>
+      <c r="D387" t="s">
+        <v>340</v>
+      </c>
+      <c r="E387" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>464</v>
+      </c>
+      <c r="B388" t="s">
+        <v>475</v>
+      </c>
+      <c r="C388" t="s">
+        <v>463</v>
+      </c>
+      <c r="D388" t="s">
+        <v>340</v>
+      </c>
+      <c r="E388" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>464</v>
+      </c>
+      <c r="B389" t="s">
+        <v>476</v>
+      </c>
+      <c r="C389" t="s">
+        <v>463</v>
+      </c>
+      <c r="D389" t="s">
+        <v>340</v>
+      </c>
+      <c r="E389" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>464</v>
+      </c>
+      <c r="B390" t="s">
+        <v>477</v>
+      </c>
+      <c r="C390" t="s">
+        <v>463</v>
+      </c>
+      <c r="D390" t="s">
+        <v>340</v>
+      </c>
+      <c r="E390" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>464</v>
+      </c>
+      <c r="B391" t="s">
+        <v>478</v>
+      </c>
+      <c r="C391" t="s">
+        <v>463</v>
+      </c>
+      <c r="D391" t="s">
+        <v>340</v>
+      </c>
+      <c r="E391" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>464</v>
+      </c>
+      <c r="B392" t="s">
+        <v>479</v>
+      </c>
+      <c r="C392" t="s">
+        <v>463</v>
+      </c>
+      <c r="D392" t="s">
+        <v>340</v>
+      </c>
+      <c r="E392" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>464</v>
+      </c>
+      <c r="B393" t="s">
+        <v>480</v>
+      </c>
+      <c r="C393" t="s">
+        <v>463</v>
+      </c>
+      <c r="D393" t="s">
+        <v>340</v>
+      </c>
+      <c r="E393" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>464</v>
+      </c>
+      <c r="B394" t="s">
+        <v>465</v>
+      </c>
+      <c r="C394" t="s">
+        <v>463</v>
+      </c>
+      <c r="D394" t="s">
+        <v>340</v>
+      </c>
+      <c r="E394" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>481</v>
+      </c>
+      <c r="B395" t="s">
+        <v>482</v>
+      </c>
+      <c r="C395" t="s">
+        <v>463</v>
+      </c>
+      <c r="D395" t="s">
+        <v>340</v>
+      </c>
+      <c r="E395" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>481</v>
+      </c>
+      <c r="B396" t="s">
+        <v>483</v>
+      </c>
+      <c r="C396" t="s">
+        <v>463</v>
+      </c>
+      <c r="D396" t="s">
+        <v>340</v>
+      </c>
+      <c r="E396" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>481</v>
+      </c>
+      <c r="B397" t="s">
+        <v>484</v>
+      </c>
+      <c r="C397" t="s">
+        <v>463</v>
+      </c>
+      <c r="D397" t="s">
+        <v>340</v>
+      </c>
+      <c r="E397" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>481</v>
+      </c>
+      <c r="B398" t="s">
+        <v>485</v>
+      </c>
+      <c r="C398" t="s">
+        <v>463</v>
+      </c>
+      <c r="D398" t="s">
+        <v>340</v>
+      </c>
+      <c r="E398" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>481</v>
+      </c>
+      <c r="B399" t="s">
+        <v>486</v>
+      </c>
+      <c r="C399" t="s">
+        <v>463</v>
+      </c>
+      <c r="D399" t="s">
+        <v>340</v>
+      </c>
+      <c r="E399" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>481</v>
+      </c>
+      <c r="B400" t="s">
+        <v>487</v>
+      </c>
+      <c r="C400" t="s">
+        <v>463</v>
+      </c>
+      <c r="D400" t="s">
+        <v>340</v>
+      </c>
+      <c r="E400" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>481</v>
+      </c>
+      <c r="B401" t="s">
+        <v>488</v>
+      </c>
+      <c r="C401" t="s">
+        <v>463</v>
+      </c>
+      <c r="D401" t="s">
+        <v>340</v>
+      </c>
+      <c r="E401" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>481</v>
+      </c>
+      <c r="B402" t="s">
+        <v>489</v>
+      </c>
+      <c r="C402" t="s">
+        <v>463</v>
+      </c>
+      <c r="D402" t="s">
+        <v>340</v>
+      </c>
+      <c r="E402" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>481</v>
+      </c>
+      <c r="B403" t="s">
+        <v>490</v>
+      </c>
+      <c r="C403" t="s">
+        <v>463</v>
+      </c>
+      <c r="D403" t="s">
+        <v>340</v>
+      </c>
+      <c r="E403" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>481</v>
+      </c>
+      <c r="B404" t="s">
+        <v>491</v>
+      </c>
+      <c r="C404" t="s">
+        <v>463</v>
+      </c>
+      <c r="D404" t="s">
+        <v>340</v>
+      </c>
+      <c r="E404" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A405" t="s">
+        <v>492</v>
+      </c>
+      <c r="B405" t="s">
+        <v>494</v>
+      </c>
+      <c r="C405" t="s">
+        <v>361</v>
+      </c>
+      <c r="D405" t="s">
+        <v>362</v>
+      </c>
+      <c r="E405" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A406" t="s">
+        <v>492</v>
+      </c>
+      <c r="B406" t="s">
+        <v>495</v>
+      </c>
+      <c r="C406" t="s">
+        <v>361</v>
+      </c>
+      <c r="D406" t="s">
+        <v>362</v>
+      </c>
+      <c r="E406" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A407" t="s">
+        <v>492</v>
+      </c>
+      <c r="B407" t="s">
+        <v>496</v>
+      </c>
+      <c r="C407" t="s">
+        <v>361</v>
+      </c>
+      <c r="D407" t="s">
+        <v>362</v>
+      </c>
+      <c r="E407" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A408" t="s">
+        <v>492</v>
+      </c>
+      <c r="B408" t="s">
+        <v>497</v>
+      </c>
+      <c r="C408" t="s">
+        <v>361</v>
+      </c>
+      <c r="D408" t="s">
+        <v>362</v>
+      </c>
+      <c r="E408" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A409" t="s">
+        <v>492</v>
+      </c>
+      <c r="B409" t="s">
+        <v>498</v>
+      </c>
+      <c r="C409" t="s">
+        <v>361</v>
+      </c>
+      <c r="D409" t="s">
+        <v>362</v>
+      </c>
+      <c r="E409" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A410" t="s">
+        <v>492</v>
+      </c>
+      <c r="B410" t="s">
+        <v>499</v>
+      </c>
+      <c r="C410" t="s">
+        <v>361</v>
+      </c>
+      <c r="D410" t="s">
+        <v>362</v>
+      </c>
+      <c r="E410" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A411" t="s">
+        <v>492</v>
+      </c>
+      <c r="B411" t="s">
+        <v>493</v>
+      </c>
+      <c r="C411" t="s">
+        <v>361</v>
+      </c>
+      <c r="D411" t="s">
+        <v>362</v>
+      </c>
+      <c r="E411" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A412" t="s">
+        <v>500</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C412" t="s">
+        <v>350</v>
+      </c>
+      <c r="D412" t="s">
+        <v>340</v>
+      </c>
+      <c r="E412" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A413" t="s">
+        <v>500</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C413" t="s">
+        <v>350</v>
+      </c>
+      <c r="D413" t="s">
+        <v>340</v>
+      </c>
+      <c r="E413" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A414" t="s">
+        <v>500</v>
+      </c>
+      <c r="B414" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C414" t="s">
+        <v>350</v>
+      </c>
+      <c r="D414" t="s">
+        <v>340</v>
+      </c>
+      <c r="E414" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A415" t="s">
+        <v>500</v>
+      </c>
+      <c r="B415" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C415" t="s">
+        <v>350</v>
+      </c>
+      <c r="D415" t="s">
+        <v>340</v>
+      </c>
+      <c r="E415" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A416" t="s">
+        <v>500</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C416" t="s">
+        <v>350</v>
+      </c>
+      <c r="D416" t="s">
+        <v>340</v>
+      </c>
+      <c r="E416" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A417" t="s">
+        <v>504</v>
+      </c>
+      <c r="B417" t="s">
+        <v>506</v>
+      </c>
+      <c r="C417" t="s">
+        <v>350</v>
+      </c>
+      <c r="D417" t="s">
+        <v>340</v>
+      </c>
+      <c r="E417" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A418" t="s">
+        <v>504</v>
+      </c>
+      <c r="B418" t="s">
+        <v>505</v>
+      </c>
+      <c r="C418" t="s">
+        <v>350</v>
+      </c>
+      <c r="D418" t="s">
+        <v>340</v>
+      </c>
+      <c r="E418" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A419" t="s">
+        <v>504</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C419" t="s">
+        <v>350</v>
+      </c>
+      <c r="D419" t="s">
+        <v>340</v>
+      </c>
+      <c r="E419" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A420" t="s">
+        <v>508</v>
+      </c>
+      <c r="B420" t="s">
+        <v>510</v>
+      </c>
+      <c r="C420" t="s">
+        <v>516</v>
+      </c>
+      <c r="D420" t="s">
+        <v>340</v>
+      </c>
+      <c r="E420" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A421" t="s">
+        <v>508</v>
+      </c>
+      <c r="B421" t="s">
+        <v>511</v>
+      </c>
+      <c r="C421" t="s">
+        <v>516</v>
+      </c>
+      <c r="D421" t="s">
+        <v>340</v>
+      </c>
+      <c r="E421" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A422" t="s">
+        <v>508</v>
+      </c>
+      <c r="B422" t="s">
+        <v>512</v>
+      </c>
+      <c r="C422" t="s">
+        <v>516</v>
+      </c>
+      <c r="D422" t="s">
+        <v>340</v>
+      </c>
+      <c r="E422" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A423" t="s">
+        <v>508</v>
+      </c>
+      <c r="B423" t="s">
+        <v>513</v>
+      </c>
+      <c r="C423" t="s">
+        <v>516</v>
+      </c>
+      <c r="D423" t="s">
+        <v>340</v>
+      </c>
+      <c r="E423" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A424" t="s">
+        <v>508</v>
+      </c>
+      <c r="B424" t="s">
+        <v>514</v>
+      </c>
+      <c r="C424" t="s">
+        <v>516</v>
+      </c>
+      <c r="D424" t="s">
+        <v>340</v>
+      </c>
+      <c r="E424" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A425" t="s">
+        <v>508</v>
+      </c>
+      <c r="B425" t="s">
+        <v>515</v>
+      </c>
+      <c r="C425" t="s">
+        <v>516</v>
+      </c>
+      <c r="D425" t="s">
+        <v>340</v>
+      </c>
+      <c r="E425" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A426" t="s">
+        <v>508</v>
+      </c>
+      <c r="B426" t="s">
+        <v>509</v>
+      </c>
+      <c r="C426" t="s">
+        <v>516</v>
+      </c>
+      <c r="D426" t="s">
+        <v>340</v>
+      </c>
+      <c r="E426" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A427" t="s">
+        <v>517</v>
+      </c>
+      <c r="B427" t="s">
+        <v>519</v>
+      </c>
+      <c r="C427" t="s">
+        <v>422</v>
+      </c>
+      <c r="D427" t="s">
+        <v>340</v>
+      </c>
+      <c r="E427" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A428" t="s">
+        <v>517</v>
+      </c>
+      <c r="B428" t="s">
+        <v>520</v>
+      </c>
+      <c r="C428" t="s">
+        <v>422</v>
+      </c>
+      <c r="D428" t="s">
+        <v>340</v>
+      </c>
+      <c r="E428" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A429" t="s">
+        <v>517</v>
+      </c>
+      <c r="B429" t="s">
+        <v>521</v>
+      </c>
+      <c r="C429" t="s">
+        <v>422</v>
+      </c>
+      <c r="D429" t="s">
+        <v>340</v>
+      </c>
+      <c r="E429" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A430" t="s">
+        <v>517</v>
+      </c>
+      <c r="B430" t="s">
+        <v>522</v>
+      </c>
+      <c r="C430" t="s">
+        <v>422</v>
+      </c>
+      <c r="D430" t="s">
+        <v>340</v>
+      </c>
+      <c r="E430" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A431" t="s">
+        <v>517</v>
+      </c>
+      <c r="B431" t="s">
+        <v>523</v>
+      </c>
+      <c r="C431" t="s">
+        <v>422</v>
+      </c>
+      <c r="D431" t="s">
+        <v>340</v>
+      </c>
+      <c r="E431" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A432" t="s">
+        <v>517</v>
+      </c>
+      <c r="B432" t="s">
+        <v>524</v>
+      </c>
+      <c r="C432" t="s">
+        <v>422</v>
+      </c>
+      <c r="D432" t="s">
+        <v>340</v>
+      </c>
+      <c r="E432" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A433" t="s">
+        <v>517</v>
+      </c>
+      <c r="B433" t="s">
+        <v>525</v>
+      </c>
+      <c r="C433" t="s">
+        <v>422</v>
+      </c>
+      <c r="D433" t="s">
+        <v>340</v>
+      </c>
+      <c r="E433" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A434" t="s">
+        <v>517</v>
+      </c>
+      <c r="B434" t="s">
+        <v>518</v>
+      </c>
+      <c r="C434" t="s">
+        <v>422</v>
+      </c>
+      <c r="D434" t="s">
+        <v>340</v>
+      </c>
+      <c r="E434" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A435" t="s">
+        <v>526</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C435" t="s">
+        <v>350</v>
+      </c>
+      <c r="D435" t="s">
+        <v>340</v>
+      </c>
+      <c r="E435" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A436" t="s">
+        <v>526</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C436" t="s">
+        <v>350</v>
+      </c>
+      <c r="D436" t="s">
+        <v>340</v>
+      </c>
+      <c r="E436" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A437" t="s">
+        <v>526</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C437" t="s">
+        <v>350</v>
+      </c>
+      <c r="D437" t="s">
+        <v>340</v>
+      </c>
+      <c r="E437" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A438" t="s">
+        <v>526</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C438" t="s">
+        <v>350</v>
+      </c>
+      <c r="D438" t="s">
+        <v>340</v>
+      </c>
+      <c r="E438" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A439" t="s">
+        <v>526</v>
+      </c>
+      <c r="B439" s="3">
+        <v>9</v>
+      </c>
+      <c r="C439" t="s">
+        <v>350</v>
+      </c>
+      <c r="D439" t="s">
+        <v>340</v>
+      </c>
+      <c r="E439" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A440" t="s">
+        <v>531</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C440" t="s">
+        <v>463</v>
+      </c>
+      <c r="D440" t="s">
+        <v>340</v>
+      </c>
+      <c r="E440" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A441" t="s">
+        <v>531</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C441" t="s">
+        <v>463</v>
+      </c>
+      <c r="D441" t="s">
+        <v>340</v>
+      </c>
+      <c r="E441" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A442" t="s">
+        <v>531</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C442" t="s">
+        <v>463</v>
+      </c>
+      <c r="D442" t="s">
+        <v>340</v>
+      </c>
+      <c r="E442" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A443" t="s">
+        <v>535</v>
+      </c>
+      <c r="B443" t="s">
+        <v>537</v>
+      </c>
+      <c r="C443" t="s">
+        <v>422</v>
+      </c>
+      <c r="D443" t="s">
+        <v>340</v>
+      </c>
+      <c r="E443" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A444" t="s">
+        <v>535</v>
+      </c>
+      <c r="B444" t="s">
+        <v>538</v>
+      </c>
+      <c r="C444" t="s">
+        <v>422</v>
+      </c>
+      <c r="D444" t="s">
+        <v>340</v>
+      </c>
+      <c r="E444" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A445" t="s">
+        <v>535</v>
+      </c>
+      <c r="B445" t="s">
+        <v>539</v>
+      </c>
+      <c r="C445" t="s">
+        <v>422</v>
+      </c>
+      <c r="D445" t="s">
+        <v>340</v>
+      </c>
+      <c r="E445" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A446" t="s">
+        <v>535</v>
+      </c>
+      <c r="B446" t="s">
+        <v>540</v>
+      </c>
+      <c r="C446" t="s">
+        <v>422</v>
+      </c>
+      <c r="D446" t="s">
+        <v>340</v>
+      </c>
+      <c r="E446" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A447" t="s">
+        <v>535</v>
+      </c>
+      <c r="B447" t="s">
+        <v>536</v>
+      </c>
+      <c r="C447" t="s">
+        <v>422</v>
+      </c>
+      <c r="D447" t="s">
+        <v>340</v>
+      </c>
+      <c r="E447" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A448" t="s">
+        <v>535</v>
+      </c>
+      <c r="B448" t="s">
+        <v>541</v>
+      </c>
+      <c r="C448" t="s">
+        <v>422</v>
+      </c>
+      <c r="D448" t="s">
+        <v>340</v>
+      </c>
+      <c r="E448" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A449" t="s">
+        <v>542</v>
+      </c>
+      <c r="B449" t="s">
+        <v>544</v>
+      </c>
+      <c r="C449" t="s">
+        <v>516</v>
+      </c>
+      <c r="D449" t="s">
+        <v>340</v>
+      </c>
+      <c r="E449" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A450" t="s">
+        <v>542</v>
+      </c>
+      <c r="B450" t="s">
+        <v>545</v>
+      </c>
+      <c r="C450" t="s">
+        <v>516</v>
+      </c>
+      <c r="D450" t="s">
+        <v>340</v>
+      </c>
+      <c r="E450" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A451" t="s">
+        <v>542</v>
+      </c>
+      <c r="B451" t="s">
+        <v>546</v>
+      </c>
+      <c r="C451" t="s">
+        <v>516</v>
+      </c>
+      <c r="D451" t="s">
+        <v>340</v>
+      </c>
+      <c r="E451" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A452" t="s">
+        <v>542</v>
+      </c>
+      <c r="B452" t="s">
+        <v>547</v>
+      </c>
+      <c r="C452" t="s">
+        <v>516</v>
+      </c>
+      <c r="D452" t="s">
+        <v>340</v>
+      </c>
+      <c r="E452" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A453" t="s">
+        <v>542</v>
+      </c>
+      <c r="B453" t="s">
+        <v>548</v>
+      </c>
+      <c r="C453" t="s">
+        <v>516</v>
+      </c>
+      <c r="D453" t="s">
+        <v>340</v>
+      </c>
+      <c r="E453" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A454" t="s">
+        <v>542</v>
+      </c>
+      <c r="B454" t="s">
+        <v>549</v>
+      </c>
+      <c r="C454" t="s">
+        <v>516</v>
+      </c>
+      <c r="D454" t="s">
+        <v>340</v>
+      </c>
+      <c r="E454" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A455" t="s">
+        <v>542</v>
+      </c>
+      <c r="B455" t="s">
+        <v>550</v>
+      </c>
+      <c r="C455" t="s">
+        <v>516</v>
+      </c>
+      <c r="D455" t="s">
+        <v>340</v>
+      </c>
+      <c r="E455" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A456" t="s">
+        <v>542</v>
+      </c>
+      <c r="B456" t="s">
+        <v>543</v>
+      </c>
+      <c r="C456" t="s">
+        <v>516</v>
+      </c>
+      <c r="D456" t="s">
+        <v>340</v>
+      </c>
+      <c r="E456" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A457" t="s">
+        <v>551</v>
+      </c>
+      <c r="B457" t="s">
+        <v>552</v>
+      </c>
+      <c r="C457" t="s">
+        <v>463</v>
+      </c>
+      <c r="D457" t="s">
+        <v>340</v>
+      </c>
+      <c r="E457" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A458" t="s">
+        <v>558</v>
+      </c>
+      <c r="B458" t="s">
+        <v>554</v>
+      </c>
+      <c r="C458" t="s">
+        <v>422</v>
+      </c>
+      <c r="D458" t="s">
+        <v>340</v>
+      </c>
+      <c r="E458" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A459" t="s">
+        <v>558</v>
+      </c>
+      <c r="B459" t="s">
+        <v>555</v>
+      </c>
+      <c r="C459" t="s">
+        <v>422</v>
+      </c>
+      <c r="D459" t="s">
+        <v>340</v>
+      </c>
+      <c r="E459" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A460" t="s">
+        <v>558</v>
+      </c>
+      <c r="B460" t="s">
+        <v>556</v>
+      </c>
+      <c r="C460" t="s">
+        <v>422</v>
+      </c>
+      <c r="D460" t="s">
+        <v>340</v>
+      </c>
+      <c r="E460" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A461" t="s">
+        <v>558</v>
+      </c>
+      <c r="B461" t="s">
+        <v>557</v>
+      </c>
+      <c r="C461" t="s">
+        <v>422</v>
+      </c>
+      <c r="D461" t="s">
+        <v>340</v>
+      </c>
+      <c r="E461" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A462" t="s">
+        <v>558</v>
+      </c>
+      <c r="B462" t="s">
+        <v>553</v>
+      </c>
+      <c r="C462" t="s">
+        <v>422</v>
+      </c>
+      <c r="D462" t="s">
+        <v>340</v>
+      </c>
+      <c r="E462" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A463" t="s">
+        <v>560</v>
+      </c>
+      <c r="B463" t="s">
+        <v>561</v>
+      </c>
+      <c r="C463" t="s">
+        <v>350</v>
+      </c>
+      <c r="D463" t="s">
+        <v>340</v>
+      </c>
+      <c r="E463" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A464" t="s">
+        <v>560</v>
+      </c>
+      <c r="B464" t="s">
+        <v>562</v>
+      </c>
+      <c r="C464" t="s">
+        <v>350</v>
+      </c>
+      <c r="D464" t="s">
+        <v>340</v>
+      </c>
+      <c r="E464" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A465" t="s">
+        <v>560</v>
+      </c>
+      <c r="B465" t="s">
+        <v>563</v>
+      </c>
+      <c r="C465" t="s">
+        <v>350</v>
+      </c>
+      <c r="D465" t="s">
+        <v>340</v>
+      </c>
+      <c r="E465" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A466" t="s">
+        <v>560</v>
+      </c>
+      <c r="B466" t="s">
+        <v>564</v>
+      </c>
+      <c r="C466" t="s">
+        <v>350</v>
+      </c>
+      <c r="D466" t="s">
+        <v>340</v>
+      </c>
+      <c r="E466" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A467" t="s">
+        <v>560</v>
+      </c>
+      <c r="B467" t="s">
+        <v>565</v>
+      </c>
+      <c r="C467" t="s">
+        <v>350</v>
+      </c>
+      <c r="D467" t="s">
+        <v>340</v>
+      </c>
+      <c r="E467" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A468" t="s">
+        <v>560</v>
+      </c>
+      <c r="B468" t="s">
+        <v>566</v>
+      </c>
+      <c r="C468" t="s">
+        <v>350</v>
+      </c>
+      <c r="D468" t="s">
+        <v>340</v>
+      </c>
+      <c r="E468" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A469" t="s">
+        <v>560</v>
+      </c>
+      <c r="B469" t="s">
+        <v>567</v>
+      </c>
+      <c r="C469" t="s">
+        <v>350</v>
+      </c>
+      <c r="D469" t="s">
+        <v>340</v>
+      </c>
+      <c r="E469" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A470" t="s">
+        <v>560</v>
+      </c>
+      <c r="B470" t="s">
+        <v>568</v>
+      </c>
+      <c r="C470" t="s">
+        <v>350</v>
+      </c>
+      <c r="D470" t="s">
+        <v>340</v>
+      </c>
+      <c r="E470" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A471" t="s">
+        <v>560</v>
+      </c>
+      <c r="B471" t="s">
+        <v>569</v>
+      </c>
+      <c r="C471" t="s">
+        <v>350</v>
+      </c>
+      <c r="D471" t="s">
+        <v>340</v>
+      </c>
+      <c r="E471" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A472" t="s">
+        <v>560</v>
+      </c>
+      <c r="B472" t="s">
+        <v>559</v>
+      </c>
+      <c r="C472" t="s">
+        <v>350</v>
+      </c>
+      <c r="D472" t="s">
+        <v>340</v>
+      </c>
+      <c r="E472" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A473" t="s">
+        <v>570</v>
+      </c>
+      <c r="B473" t="s">
+        <v>572</v>
+      </c>
+      <c r="C473" t="s">
+        <v>463</v>
+      </c>
+      <c r="D473" t="s">
+        <v>340</v>
+      </c>
+      <c r="E473" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A474" t="s">
+        <v>570</v>
+      </c>
+      <c r="B474" t="s">
+        <v>571</v>
+      </c>
+      <c r="C474" t="s">
+        <v>463</v>
+      </c>
+      <c r="D474" t="s">
+        <v>340</v>
+      </c>
+      <c r="E474" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A475" t="s">
+        <v>573</v>
+      </c>
+      <c r="B475" t="s">
+        <v>576</v>
+      </c>
+      <c r="C475" t="s">
+        <v>575</v>
+      </c>
+      <c r="D475" t="s">
+        <v>340</v>
+      </c>
+      <c r="E475" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A476" t="s">
+        <v>573</v>
+      </c>
+      <c r="B476" t="s">
+        <v>577</v>
+      </c>
+      <c r="C476" t="s">
+        <v>575</v>
+      </c>
+      <c r="D476" t="s">
+        <v>340</v>
+      </c>
+      <c r="E476" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A477" t="s">
+        <v>573</v>
+      </c>
+      <c r="B477" t="s">
+        <v>578</v>
+      </c>
+      <c r="C477" t="s">
+        <v>575</v>
+      </c>
+      <c r="D477" t="s">
+        <v>340</v>
+      </c>
+      <c r="E477" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A478" t="s">
+        <v>573</v>
+      </c>
+      <c r="B478" t="s">
+        <v>579</v>
+      </c>
+      <c r="C478" t="s">
+        <v>575</v>
+      </c>
+      <c r="D478" t="s">
+        <v>340</v>
+      </c>
+      <c r="E478" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A479" t="s">
+        <v>573</v>
+      </c>
+      <c r="B479" t="s">
+        <v>580</v>
+      </c>
+      <c r="C479" t="s">
+        <v>575</v>
+      </c>
+      <c r="D479" t="s">
+        <v>340</v>
+      </c>
+      <c r="E479" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A480" t="s">
+        <v>573</v>
+      </c>
+      <c r="B480" t="s">
+        <v>581</v>
+      </c>
+      <c r="C480" t="s">
+        <v>575</v>
+      </c>
+      <c r="D480" t="s">
+        <v>340</v>
+      </c>
+      <c r="E480" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A481" t="s">
+        <v>573</v>
+      </c>
+      <c r="B481" t="s">
+        <v>582</v>
+      </c>
+      <c r="C481" t="s">
+        <v>575</v>
+      </c>
+      <c r="D481" t="s">
+        <v>340</v>
+      </c>
+      <c r="E481" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A482" t="s">
+        <v>573</v>
+      </c>
+      <c r="B482" t="s">
+        <v>574</v>
+      </c>
+      <c r="C482" t="s">
+        <v>575</v>
+      </c>
+      <c r="D482" t="s">
+        <v>340</v>
+      </c>
+      <c r="E482" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A483" t="s">
+        <v>583</v>
+      </c>
+      <c r="B483" t="s">
+        <v>584</v>
+      </c>
+      <c r="C483" t="s">
+        <v>350</v>
+      </c>
+      <c r="D483" t="s">
+        <v>340</v>
+      </c>
+      <c r="E483" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A484" t="s">
+        <v>583</v>
+      </c>
+      <c r="B484" t="s">
+        <v>585</v>
+      </c>
+      <c r="C484" t="s">
+        <v>350</v>
+      </c>
+      <c r="D484" t="s">
+        <v>340</v>
+      </c>
+      <c r="E484" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A485" t="s">
+        <v>583</v>
+      </c>
+      <c r="B485" t="s">
+        <v>586</v>
+      </c>
+      <c r="C485" t="s">
+        <v>350</v>
+      </c>
+      <c r="D485" t="s">
+        <v>340</v>
+      </c>
+      <c r="E485" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A486" t="s">
+        <v>583</v>
+      </c>
+      <c r="B486" t="s">
+        <v>587</v>
+      </c>
+      <c r="C486" t="s">
+        <v>350</v>
+      </c>
+      <c r="D486" t="s">
+        <v>340</v>
+      </c>
+      <c r="E486" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A487" t="s">
+        <v>589</v>
+      </c>
+      <c r="B487" t="s">
+        <v>590</v>
+      </c>
+      <c r="C487" t="s">
+        <v>593</v>
+      </c>
+      <c r="D487" t="s">
+        <v>340</v>
+      </c>
+      <c r="E487" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A488" t="s">
+        <v>589</v>
+      </c>
+      <c r="B488" t="s">
+        <v>591</v>
+      </c>
+      <c r="C488" t="s">
+        <v>593</v>
+      </c>
+      <c r="D488" t="s">
+        <v>340</v>
+      </c>
+      <c r="E488" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A489" t="s">
+        <v>589</v>
+      </c>
+      <c r="B489" t="s">
+        <v>592</v>
+      </c>
+      <c r="C489" t="s">
+        <v>593</v>
+      </c>
+      <c r="D489" t="s">
+        <v>340</v>
+      </c>
+      <c r="E489" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A490" t="s">
+        <v>589</v>
+      </c>
+      <c r="B490" t="s">
+        <v>588</v>
+      </c>
+      <c r="C490" t="s">
+        <v>593</v>
+      </c>
+      <c r="D490" t="s">
+        <v>340</v>
+      </c>
+      <c r="E490" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A491" t="s">
+        <v>594</v>
+      </c>
+      <c r="B491" t="s">
+        <v>595</v>
+      </c>
+      <c r="C491" t="s">
+        <v>593</v>
+      </c>
+      <c r="D491" t="s">
+        <v>340</v>
+      </c>
+      <c r="E491" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A492" t="s">
+        <v>594</v>
+      </c>
+      <c r="B492" t="s">
+        <v>596</v>
+      </c>
+      <c r="C492" t="s">
+        <v>593</v>
+      </c>
+      <c r="D492" t="s">
+        <v>340</v>
+      </c>
+      <c r="E492" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A493" t="s">
+        <v>594</v>
+      </c>
+      <c r="B493" t="s">
+        <v>597</v>
+      </c>
+      <c r="C493" t="s">
+        <v>593</v>
+      </c>
+      <c r="D493" t="s">
+        <v>340</v>
+      </c>
+      <c r="E493" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A494" t="s">
+        <v>594</v>
+      </c>
+      <c r="B494" t="s">
+        <v>598</v>
+      </c>
+      <c r="C494" t="s">
+        <v>593</v>
+      </c>
+      <c r="D494" t="s">
+        <v>340</v>
+      </c>
+      <c r="E494" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A495" t="s">
+        <v>594</v>
+      </c>
+      <c r="B495" t="s">
+        <v>599</v>
+      </c>
+      <c r="C495" t="s">
+        <v>593</v>
+      </c>
+      <c r="D495" t="s">
+        <v>340</v>
+      </c>
+      <c r="E495" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A496" t="s">
+        <v>594</v>
+      </c>
+      <c r="B496" t="s">
+        <v>600</v>
+      </c>
+      <c r="C496" t="s">
+        <v>593</v>
+      </c>
+      <c r="D496" t="s">
+        <v>340</v>
+      </c>
+      <c r="E496" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A497" t="s">
+        <v>594</v>
+      </c>
+      <c r="B497" t="s">
+        <v>601</v>
+      </c>
+      <c r="C497" t="s">
+        <v>593</v>
+      </c>
+      <c r="D497" t="s">
+        <v>340</v>
+      </c>
+      <c r="E497" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A498" t="s">
+        <v>594</v>
+      </c>
+      <c r="B498" t="s">
+        <v>602</v>
+      </c>
+      <c r="C498" t="s">
+        <v>593</v>
+      </c>
+      <c r="D498" t="s">
+        <v>340</v>
+      </c>
+      <c r="E498" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A499" t="s">
+        <v>594</v>
+      </c>
+      <c r="B499" t="s">
+        <v>603</v>
+      </c>
+      <c r="C499" t="s">
+        <v>593</v>
+      </c>
+      <c r="D499" t="s">
+        <v>340</v>
+      </c>
+      <c r="E499" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A500" t="s">
+        <v>604</v>
+      </c>
+      <c r="B500" t="s">
+        <v>606</v>
+      </c>
+      <c r="C500" t="s">
+        <v>593</v>
+      </c>
+      <c r="D500" t="s">
+        <v>340</v>
+      </c>
+      <c r="E500" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A501" t="s">
+        <v>604</v>
+      </c>
+      <c r="B501" t="s">
+        <v>607</v>
+      </c>
+      <c r="C501" t="s">
+        <v>593</v>
+      </c>
+      <c r="D501" t="s">
+        <v>340</v>
+      </c>
+      <c r="E501" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A502" t="s">
+        <v>604</v>
+      </c>
+      <c r="B502" t="s">
+        <v>608</v>
+      </c>
+      <c r="C502" t="s">
+        <v>593</v>
+      </c>
+      <c r="D502" t="s">
+        <v>340</v>
+      </c>
+      <c r="E502" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A503" t="s">
+        <v>604</v>
+      </c>
+      <c r="B503" t="s">
+        <v>609</v>
+      </c>
+      <c r="C503" t="s">
+        <v>593</v>
+      </c>
+      <c r="D503" t="s">
+        <v>340</v>
+      </c>
+      <c r="E503" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A504" t="s">
+        <v>604</v>
+      </c>
+      <c r="B504" t="s">
+        <v>610</v>
+      </c>
+      <c r="C504" t="s">
+        <v>593</v>
+      </c>
+      <c r="D504" t="s">
+        <v>340</v>
+      </c>
+      <c r="E504" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A505" t="s">
+        <v>604</v>
+      </c>
+      <c r="B505" t="s">
+        <v>611</v>
+      </c>
+      <c r="C505" t="s">
+        <v>593</v>
+      </c>
+      <c r="D505" t="s">
+        <v>340</v>
+      </c>
+      <c r="E505" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A506" t="s">
+        <v>604</v>
+      </c>
+      <c r="B506" t="s">
+        <v>612</v>
+      </c>
+      <c r="C506" t="s">
+        <v>593</v>
+      </c>
+      <c r="D506" t="s">
+        <v>340</v>
+      </c>
+      <c r="E506" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A507" t="s">
+        <v>604</v>
+      </c>
+      <c r="B507" t="s">
+        <v>613</v>
+      </c>
+      <c r="C507" t="s">
+        <v>593</v>
+      </c>
+      <c r="D507" t="s">
+        <v>340</v>
+      </c>
+      <c r="E507" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A508" t="s">
+        <v>604</v>
+      </c>
+      <c r="B508" t="s">
+        <v>614</v>
+      </c>
+      <c r="C508" t="s">
+        <v>593</v>
+      </c>
+      <c r="D508" t="s">
+        <v>340</v>
+      </c>
+      <c r="E508" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A509" t="s">
+        <v>604</v>
+      </c>
+      <c r="B509" t="s">
+        <v>615</v>
+      </c>
+      <c r="C509" t="s">
+        <v>593</v>
+      </c>
+      <c r="D509" t="s">
+        <v>340</v>
+      </c>
+      <c r="E509" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A510" t="s">
+        <v>604</v>
+      </c>
+      <c r="B510" t="s">
+        <v>616</v>
+      </c>
+      <c r="C510" t="s">
+        <v>593</v>
+      </c>
+      <c r="D510" t="s">
+        <v>340</v>
+      </c>
+      <c r="E510" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A511" t="s">
+        <v>604</v>
+      </c>
+      <c r="B511" t="s">
+        <v>617</v>
+      </c>
+      <c r="C511" t="s">
+        <v>593</v>
+      </c>
+      <c r="D511" t="s">
+        <v>340</v>
+      </c>
+      <c r="E511" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A512" t="s">
+        <v>604</v>
+      </c>
+      <c r="B512" t="s">
+        <v>605</v>
+      </c>
+      <c r="C512" t="s">
+        <v>593</v>
+      </c>
+      <c r="D512" t="s">
+        <v>340</v>
+      </c>
+      <c r="E512" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A513" t="s">
+        <v>618</v>
+      </c>
+      <c r="B513" t="s">
+        <v>620</v>
+      </c>
+      <c r="C513" t="s">
+        <v>350</v>
+      </c>
+      <c r="D513" t="s">
+        <v>340</v>
+      </c>
+      <c r="E513" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A514" t="s">
+        <v>618</v>
+      </c>
+      <c r="B514" t="s">
+        <v>621</v>
+      </c>
+      <c r="C514" t="s">
+        <v>350</v>
+      </c>
+      <c r="D514" t="s">
+        <v>340</v>
+      </c>
+      <c r="E514" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A515" t="s">
+        <v>618</v>
+      </c>
+      <c r="B515" t="s">
+        <v>622</v>
+      </c>
+      <c r="C515" t="s">
+        <v>350</v>
+      </c>
+      <c r="D515" t="s">
+        <v>340</v>
+      </c>
+      <c r="E515" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A516" t="s">
+        <v>618</v>
+      </c>
+      <c r="B516" t="s">
+        <v>623</v>
+      </c>
+      <c r="C516" t="s">
+        <v>350</v>
+      </c>
+      <c r="D516" t="s">
+        <v>340</v>
+      </c>
+      <c r="E516" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A517" t="s">
+        <v>618</v>
+      </c>
+      <c r="B517" t="s">
+        <v>624</v>
+      </c>
+      <c r="C517" t="s">
+        <v>350</v>
+      </c>
+      <c r="D517" t="s">
+        <v>340</v>
+      </c>
+      <c r="E517" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A518" t="s">
+        <v>618</v>
+      </c>
+      <c r="B518" t="s">
+        <v>625</v>
+      </c>
+      <c r="C518" t="s">
+        <v>350</v>
+      </c>
+      <c r="D518" t="s">
+        <v>340</v>
+      </c>
+      <c r="E518" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A519" t="s">
+        <v>618</v>
+      </c>
+      <c r="B519" t="s">
+        <v>619</v>
+      </c>
+      <c r="C519" t="s">
+        <v>350</v>
+      </c>
+      <c r="D519" t="s">
+        <v>340</v>
+      </c>
+      <c r="E519" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A520" t="s">
+        <v>626</v>
+      </c>
+      <c r="B520" t="s">
+        <v>628</v>
+      </c>
+      <c r="C520" t="s">
+        <v>593</v>
+      </c>
+      <c r="D520" t="s">
+        <v>340</v>
+      </c>
+      <c r="E520" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A521" t="s">
+        <v>629</v>
+      </c>
+      <c r="B521" t="s">
+        <v>630</v>
+      </c>
+      <c r="C521" t="s">
+        <v>593</v>
+      </c>
+      <c r="D521" t="s">
+        <v>340</v>
+      </c>
+      <c r="E521" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A522" t="s">
+        <v>632</v>
+      </c>
+      <c r="B522" t="s">
+        <v>631</v>
+      </c>
+      <c r="C522" t="s">
+        <v>593</v>
+      </c>
+      <c r="D522" t="s">
+        <v>340</v>
+      </c>
+      <c r="E522" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A523" t="s">
+        <v>632</v>
+      </c>
+      <c r="B523" t="s">
+        <v>633</v>
+      </c>
+      <c r="C523" t="s">
+        <v>593</v>
+      </c>
+      <c r="D523" t="s">
+        <v>340</v>
+      </c>
+      <c r="E523" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A524" t="s">
+        <v>626</v>
+      </c>
+      <c r="B524" t="s">
+        <v>634</v>
+      </c>
+      <c r="C524" t="s">
+        <v>593</v>
+      </c>
+      <c r="D524" t="s">
+        <v>340</v>
+      </c>
+      <c r="E524" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A525" t="s">
+        <v>626</v>
+      </c>
+      <c r="B525" t="s">
+        <v>627</v>
+      </c>
+      <c r="C525" t="s">
+        <v>593</v>
+      </c>
+      <c r="D525" t="s">
+        <v>340</v>
+      </c>
+      <c r="E525" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A526" t="s">
+        <v>635</v>
+      </c>
+      <c r="B526" t="s">
+        <v>635</v>
+      </c>
+      <c r="C526" t="s">
+        <v>516</v>
+      </c>
+      <c r="D526" t="s">
+        <v>340</v>
+      </c>
+      <c r="E526" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A527" t="s">
+        <v>635</v>
+      </c>
+      <c r="B527" t="s">
+        <v>636</v>
+      </c>
+      <c r="C527" t="s">
+        <v>516</v>
+      </c>
+      <c r="D527" t="s">
+        <v>340</v>
+      </c>
+      <c r="E527" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A528" t="s">
+        <v>635</v>
+      </c>
+      <c r="B528" t="s">
+        <v>637</v>
+      </c>
+      <c r="C528" t="s">
+        <v>516</v>
+      </c>
+      <c r="D528" t="s">
+        <v>340</v>
+      </c>
+      <c r="E528" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A529" t="s">
+        <v>635</v>
+      </c>
+      <c r="B529" t="s">
+        <v>638</v>
+      </c>
+      <c r="C529" t="s">
+        <v>516</v>
+      </c>
+      <c r="D529" t="s">
+        <v>340</v>
+      </c>
+      <c r="E529" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A530" t="s">
+        <v>635</v>
+      </c>
+      <c r="B530" t="s">
+        <v>639</v>
+      </c>
+      <c r="C530" t="s">
+        <v>516</v>
+      </c>
+      <c r="D530" t="s">
+        <v>340</v>
+      </c>
+      <c r="E530" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A531" t="s">
+        <v>635</v>
+      </c>
+      <c r="B531" t="s">
+        <v>640</v>
+      </c>
+      <c r="C531" t="s">
+        <v>516</v>
+      </c>
+      <c r="D531" t="s">
+        <v>340</v>
+      </c>
+      <c r="E531" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A532" t="s">
+        <v>635</v>
+      </c>
+      <c r="B532" t="s">
+        <v>641</v>
+      </c>
+      <c r="C532" t="s">
+        <v>516</v>
+      </c>
+      <c r="D532" t="s">
+        <v>340</v>
+      </c>
+      <c r="E532" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A533" t="s">
+        <v>635</v>
+      </c>
+      <c r="B533" t="s">
+        <v>642</v>
+      </c>
+      <c r="C533" t="s">
+        <v>516</v>
+      </c>
+      <c r="D533" t="s">
+        <v>340</v>
+      </c>
+      <c r="E533" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A534" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A535" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A536" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A537" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A538" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A539" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A540" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A541" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A542" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A543" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A544" t="s">
+        <v>653</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/album_list.xlsx
+++ b/album_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Coding\Play\Rap_Lyrics\lyricsNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C5E144-2482-4AF5-8DE5-BBCDADCF09A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115D4CA-FFE2-4E38-97F3-3AED5EC15C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="1058">
   <si>
     <t>Artist</t>
   </si>
@@ -1998,6 +1998,1218 @@
   </si>
   <si>
     <t>Chief Keef</t>
+  </si>
+  <si>
+    <t>The College Dropout</t>
+  </si>
+  <si>
+    <t>Late Registration</t>
+  </si>
+  <si>
+    <t>Graduation</t>
+  </si>
+  <si>
+    <t>808s &amp; Heartbreak</t>
+  </si>
+  <si>
+    <t>My Beautiful Dark Twisted Fantasy</t>
+  </si>
+  <si>
+    <t>Yeezus</t>
+  </si>
+  <si>
+    <t>The Life of Pablo</t>
+  </si>
+  <si>
+    <t>Ye</t>
+  </si>
+  <si>
+    <t>Jesus Is King</t>
+  </si>
+  <si>
+    <t>Donda</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Midwest</t>
+  </si>
+  <si>
+    <t>Drill Music in Zion</t>
+  </si>
+  <si>
+    <t>Lupe Fiasco's Food &amp; Liquor</t>
+  </si>
+  <si>
+    <t>Lupe Fiasco's The Cool</t>
+  </si>
+  <si>
+    <t>Lasers</t>
+  </si>
+  <si>
+    <t>Food &amp; Liquor II: The Great American Rap Album Pt. 1</t>
+  </si>
+  <si>
+    <t>Tetsuo &amp; Youth</t>
+  </si>
+  <si>
+    <t>Drogas Light</t>
+  </si>
+  <si>
+    <t>Drogas Wave</t>
+  </si>
+  <si>
+    <t>A Beautiful Revolution (Pt. 2)</t>
+  </si>
+  <si>
+    <t>Can I Borrow a Dollar?</t>
+  </si>
+  <si>
+    <t>Resurrection</t>
+  </si>
+  <si>
+    <t>One Day It'll All Make Sense</t>
+  </si>
+  <si>
+    <t>Electric Circus</t>
+  </si>
+  <si>
+    <t>Like Water for Chocolate</t>
+  </si>
+  <si>
+    <t>Be</t>
+  </si>
+  <si>
+    <t>Finding Forever</t>
+  </si>
+  <si>
+    <t>Universal Mind Control</t>
+  </si>
+  <si>
+    <t>The Dreamer/The Believer</t>
+  </si>
+  <si>
+    <t>Nobody's Smiling</t>
+  </si>
+  <si>
+    <t>Black America Again</t>
+  </si>
+  <si>
+    <t>Let Love</t>
+  </si>
+  <si>
+    <t>A Beautiful Revolution (Pt. 1)</t>
+  </si>
+  <si>
+    <t>Man on the Moon: The End of Day</t>
+  </si>
+  <si>
+    <t>Man on the Moon II: The Legend of Mr. Rager</t>
+  </si>
+  <si>
+    <t>Indicud</t>
+  </si>
+  <si>
+    <t>Satellite Flight: The Journey to Mother Moon</t>
+  </si>
+  <si>
+    <t>Speedin' Bullet 2 Heaven</t>
+  </si>
+  <si>
+    <t>Passion, Pain &amp; Demon Slayin'</t>
+  </si>
+  <si>
+    <t>Man on the Moon III: The Chosen</t>
+  </si>
+  <si>
+    <t>Entergalactic</t>
+  </si>
+  <si>
+    <t>Cleveland</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Infinite</t>
+  </si>
+  <si>
+    <t>The Slim Shady LP</t>
+  </si>
+  <si>
+    <t>The Marshall Mathers LP</t>
+  </si>
+  <si>
+    <t>The Eminem Show</t>
+  </si>
+  <si>
+    <t>Encore</t>
+  </si>
+  <si>
+    <t>Relapse</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>The Marshall Mathers LP 2</t>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>Kamikaze</t>
+  </si>
+  <si>
+    <t>Music to Be Murdered By</t>
+  </si>
+  <si>
+    <t>Detroit</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Slum Village</t>
+  </si>
+  <si>
+    <t>Overcast!</t>
+  </si>
+  <si>
+    <t>God Loves Ugly</t>
+  </si>
+  <si>
+    <t>Seven's Travels</t>
+  </si>
+  <si>
+    <t>You Can't Imagine How Much Fun We're Having</t>
+  </si>
+  <si>
+    <t>When Life Gives You Lemons, You Paint That Shit Gold</t>
+  </si>
+  <si>
+    <t>The Family Sign</t>
+  </si>
+  <si>
+    <t>Southsiders</t>
+  </si>
+  <si>
+    <t>Fishing Blues</t>
+  </si>
+  <si>
+    <t>Mi Vida Local</t>
+  </si>
+  <si>
+    <t>Whenever</t>
+  </si>
+  <si>
+    <t>The Day Before Halloween</t>
+  </si>
+  <si>
+    <t>Word?</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Rites of Passage</t>
+  </si>
+  <si>
+    <t>Shadows on the Sun</t>
+  </si>
+  <si>
+    <t>The Undisputed Truth</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>Mourning in America and Dreaming in Color</t>
+  </si>
+  <si>
+    <t>All the Beauty in This Whole Life</t>
+  </si>
+  <si>
+    <t>Secrets &amp; Escapes</t>
+  </si>
+  <si>
+    <t>Heartland</t>
+  </si>
+  <si>
+    <t>Country Grammar</t>
+  </si>
+  <si>
+    <t>Nellyville</t>
+  </si>
+  <si>
+    <t>Sweat</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>Brass Knuckles</t>
+  </si>
+  <si>
+    <t>M.O.</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>St. Louis</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>2 Chainz</t>
+  </si>
+  <si>
+    <t>Dope Don't Sell Itself</t>
+  </si>
+  <si>
+    <t>Based on a T.R.U. Story</t>
+  </si>
+  <si>
+    <t>B.O.A.T.S. II: Me Time</t>
+  </si>
+  <si>
+    <t>ColleGrove</t>
+  </si>
+  <si>
+    <t>Pretty Girls Like Trap Music</t>
+  </si>
+  <si>
+    <t>Rap or Go to the League</t>
+  </si>
+  <si>
+    <t>So Help Me God!</t>
+  </si>
+  <si>
+    <t>3 Chainz</t>
+  </si>
+  <si>
+    <t>4 Chainz</t>
+  </si>
+  <si>
+    <t>5 Chainz</t>
+  </si>
+  <si>
+    <t>6 Chainz</t>
+  </si>
+  <si>
+    <t>7 Chainz</t>
+  </si>
+  <si>
+    <t>8 Chainz</t>
+  </si>
+  <si>
+    <t>Asin9ne</t>
+  </si>
+  <si>
+    <t>Kansas City</t>
+  </si>
+  <si>
+    <t>The Calm Before the Storm</t>
+  </si>
+  <si>
+    <t>The Worst</t>
+  </si>
+  <si>
+    <t>Anghellic</t>
+  </si>
+  <si>
+    <t>Absolute Power</t>
+  </si>
+  <si>
+    <t>Everready (The Religion)</t>
+  </si>
+  <si>
+    <t>Killer</t>
+  </si>
+  <si>
+    <t>K.O.D.</t>
+  </si>
+  <si>
+    <t>All 6's and 7's</t>
+  </si>
+  <si>
+    <t>Something Else</t>
+  </si>
+  <si>
+    <t>Special Effects</t>
+  </si>
+  <si>
+    <t>The Storm</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>N9na</t>
+  </si>
+  <si>
+    <t>Enterfear</t>
+  </si>
+  <si>
+    <t>10 Day</t>
+  </si>
+  <si>
+    <t>Acid Rap</t>
+  </si>
+  <si>
+    <t>Coloring Book</t>
+  </si>
+  <si>
+    <t>The Big Day</t>
+  </si>
+  <si>
+    <t>4NEM</t>
+  </si>
+  <si>
+    <t>Finally Rich</t>
+  </si>
+  <si>
+    <t>Bang 3</t>
+  </si>
+  <si>
+    <t>Dedication</t>
+  </si>
+  <si>
+    <t>Fan-Tas-Tic (Vol. 1)</t>
+  </si>
+  <si>
+    <t>Fantastic, Vol. 2</t>
+  </si>
+  <si>
+    <t>Trinity (Past, Present and Future)</t>
+  </si>
+  <si>
+    <t>Detroit Deli (A Taste of Detroit)</t>
+  </si>
+  <si>
+    <t>Villa Manifesto</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Yes!</t>
+  </si>
+  <si>
+    <t>Twista</t>
+  </si>
+  <si>
+    <t>Big Sean</t>
+  </si>
+  <si>
+    <t>Royce Da 5'9</t>
+  </si>
+  <si>
+    <t>Lil Durk</t>
+  </si>
+  <si>
+    <t>Noname</t>
+  </si>
+  <si>
+    <t>Freddie Gibbs</t>
+  </si>
+  <si>
+    <t>Bone Thugs-N-Harmony</t>
+  </si>
+  <si>
+    <t>Runnin' Off at da Mouth</t>
+  </si>
+  <si>
+    <t>Adrenaline Rush</t>
+  </si>
+  <si>
+    <t>The Day After</t>
+  </si>
+  <si>
+    <t>Adrenaline Rush 2007</t>
+  </si>
+  <si>
+    <t>Category F5</t>
+  </si>
+  <si>
+    <t>The Perfect Storm</t>
+  </si>
+  <si>
+    <t>Dark Horse</t>
+  </si>
+  <si>
+    <t>Crook County</t>
+  </si>
+  <si>
+    <t>Summer 96</t>
+  </si>
+  <si>
+    <t>Finally Famous</t>
+  </si>
+  <si>
+    <t>Hall of Fame</t>
+  </si>
+  <si>
+    <t>Dark Sky Paradise</t>
+  </si>
+  <si>
+    <t>I Decided</t>
+  </si>
+  <si>
+    <t>Detroit 2</t>
+  </si>
+  <si>
+    <t>The Allegory</t>
+  </si>
+  <si>
+    <t>Rock City</t>
+  </si>
+  <si>
+    <t>Death Is Certain</t>
+  </si>
+  <si>
+    <t>Independent's Day</t>
+  </si>
+  <si>
+    <t>Street Hop</t>
+  </si>
+  <si>
+    <t>Success Is Certain</t>
+  </si>
+  <si>
+    <t>Layers</t>
+  </si>
+  <si>
+    <t>Book of Ryan</t>
+  </si>
+  <si>
+    <t>Royce Da 5'10</t>
+  </si>
+  <si>
+    <t>Royce Da 5'11</t>
+  </si>
+  <si>
+    <t>Royce Da 5'12</t>
+  </si>
+  <si>
+    <t>Royce Da 5'13</t>
+  </si>
+  <si>
+    <t>Royce Da 5'14</t>
+  </si>
+  <si>
+    <t>Royce Da 5'15</t>
+  </si>
+  <si>
+    <t>Royce Da 5'16</t>
+  </si>
+  <si>
+    <t>Remember My Name</t>
+  </si>
+  <si>
+    <t>Lil Durk 2X</t>
+  </si>
+  <si>
+    <t>Signed to the Streets 3</t>
+  </si>
+  <si>
+    <t>Love Songs 4 the Streets 2</t>
+  </si>
+  <si>
+    <t>Just Cause Y'all Waited 2</t>
+  </si>
+  <si>
+    <t>The Voice</t>
+  </si>
+  <si>
+    <t>Almost Healed</t>
+  </si>
+  <si>
+    <t>Room 25</t>
+  </si>
+  <si>
+    <t>Telefone</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>$oul $old $eparately</t>
+  </si>
+  <si>
+    <t>ESGN</t>
+  </si>
+  <si>
+    <t>Shadow of a Doubt</t>
+  </si>
+  <si>
+    <t>You Only Live 2wice</t>
+  </si>
+  <si>
+    <t>Freddie</t>
+  </si>
+  <si>
+    <t>The Art of War: World War III</t>
+  </si>
+  <si>
+    <t>E. 1999 Eternal</t>
+  </si>
+  <si>
+    <t>The Art of War</t>
+  </si>
+  <si>
+    <t>BTNHResurrection</t>
+  </si>
+  <si>
+    <t>Thug World Order</t>
+  </si>
+  <si>
+    <t>Thug Stories</t>
+  </si>
+  <si>
+    <t>Strength &amp; Loyalty</t>
+  </si>
+  <si>
+    <t>Uni5: The World's Enemy</t>
+  </si>
+  <si>
+    <t>Queen of da Souf</t>
+  </si>
+  <si>
+    <t>Latto</t>
+  </si>
+  <si>
+    <t>Brand New</t>
+  </si>
+  <si>
+    <t>Hot, Cool &amp; Vicious</t>
+  </si>
+  <si>
+    <t>A Salt with a Deadly Pepa</t>
+  </si>
+  <si>
+    <t>Blacks' Magic</t>
+  </si>
+  <si>
+    <t>Very Necessary</t>
+  </si>
+  <si>
+    <t>Salt-N-Pepa</t>
+  </si>
+  <si>
+    <t>Bahamadia</t>
+  </si>
+  <si>
+    <t>Kollage</t>
+  </si>
+  <si>
+    <t>BB Queen</t>
+  </si>
+  <si>
+    <t>Good Rap Music</t>
+  </si>
+  <si>
+    <t>Rah Digga</t>
+  </si>
+  <si>
+    <t>Classic</t>
+  </si>
+  <si>
+    <t>Dirty Harriet</t>
+  </si>
+  <si>
+    <t>MC Lyte</t>
+  </si>
+  <si>
+    <t>The Lady of Rage</t>
+  </si>
+  <si>
+    <t>Lyte as a Rock</t>
+  </si>
+  <si>
+    <t>Eyes on This</t>
+  </si>
+  <si>
+    <t>Act Like You Know</t>
+  </si>
+  <si>
+    <t>Ain't No Other</t>
+  </si>
+  <si>
+    <t>Bad as I Wanna B</t>
+  </si>
+  <si>
+    <t>Seven &amp; Seven</t>
+  </si>
+  <si>
+    <t>Da Undaground Heat, Vol. 1</t>
+  </si>
+  <si>
+    <t>Legend</t>
+  </si>
+  <si>
+    <t>Necessary Roughness</t>
+  </si>
+  <si>
+    <t>VA to LA</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Interlude</t>
+  </si>
+  <si>
+    <t>Kool Moe Dee</t>
+  </si>
+  <si>
+    <t>How Ya Like Me Now</t>
+  </si>
+  <si>
+    <t>Knowledge Is King</t>
+  </si>
+  <si>
+    <t>Funke, Funke Wisdom</t>
+  </si>
+  <si>
+    <t>Slick Rick</t>
+  </si>
+  <si>
+    <t>Roxanne Shante</t>
+  </si>
+  <si>
+    <t>Kool Keith</t>
+  </si>
+  <si>
+    <t>Kool G Rap</t>
+  </si>
+  <si>
+    <t>The Art of Storytelling</t>
+  </si>
+  <si>
+    <t>The Great Adventures of Slick Rick</t>
+  </si>
+  <si>
+    <t>The Ruler's Back</t>
+  </si>
+  <si>
+    <t>Behind Bars</t>
+  </si>
+  <si>
+    <t>The Bitch Is Back</t>
+  </si>
+  <si>
+    <t>Bad Sister</t>
+  </si>
+  <si>
+    <t>Black Elvis 2</t>
+  </si>
+  <si>
+    <t>Dr. Octagonecologyst</t>
+  </si>
+  <si>
+    <t>Sex Style</t>
+  </si>
+  <si>
+    <t>First Come, First Served</t>
+  </si>
+  <si>
+    <t>Black Elvis/Lost in Space</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Spankmaster</t>
+  </si>
+  <si>
+    <t>Nogatco Rd.</t>
+  </si>
+  <si>
+    <t>The Return of Dr. Octagon</t>
+  </si>
+  <si>
+    <t>Dr. Dooom 2</t>
+  </si>
+  <si>
+    <t>Tashan Dorrsett</t>
+  </si>
+  <si>
+    <t>Love &amp; Danger</t>
+  </si>
+  <si>
+    <t>Demolition Crash</t>
+  </si>
+  <si>
+    <t>El Dorado Driven</t>
+  </si>
+  <si>
+    <t>Feature Magnetic</t>
+  </si>
+  <si>
+    <t>Moosebumps: An Exploration Into Modern Day Horripilation</t>
+  </si>
+  <si>
+    <t>Controller of Trap</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Computer Technology</t>
+  </si>
+  <si>
+    <t>Saks 5th Ave</t>
+  </si>
+  <si>
+    <t>Keith's Salon</t>
+  </si>
+  <si>
+    <t>Last of a Dying Breed</t>
+  </si>
+  <si>
+    <t>4,5,6</t>
+  </si>
+  <si>
+    <t>Roots of Evil</t>
+  </si>
+  <si>
+    <t>The Giancana Story</t>
+  </si>
+  <si>
+    <t>Half a Klip</t>
+  </si>
+  <si>
+    <t>Riches, Royalty, Respect</t>
+  </si>
+  <si>
+    <t>Return of the Don</t>
+  </si>
+  <si>
+    <t>Rhyme Pays</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>The Iceberg/Freedom of Speech...Just Watch What You Say</t>
+  </si>
+  <si>
+    <t>O.G. Original Gangster</t>
+  </si>
+  <si>
+    <t>Home Invasion</t>
+  </si>
+  <si>
+    <t>Ice-T VI: Return of the Real</t>
+  </si>
+  <si>
+    <t>The Seventh Deadly Sin</t>
+  </si>
+  <si>
+    <t>Gangsta Rap</t>
+  </si>
+  <si>
+    <t>Ice-T</t>
+  </si>
+  <si>
+    <t>N.W.A.</t>
+  </si>
+  <si>
+    <t>Niggaz4Life</t>
+  </si>
+  <si>
+    <t>Straight Outta Compton</t>
+  </si>
+  <si>
+    <t>Ice Cube</t>
+  </si>
+  <si>
+    <t>Everythang's Corrupt</t>
+  </si>
+  <si>
+    <t>AmeriKKKa's Most Wanted</t>
+  </si>
+  <si>
+    <t>Death Certificate</t>
+  </si>
+  <si>
+    <t>The Predator</t>
+  </si>
+  <si>
+    <t>Lethal Injection</t>
+  </si>
+  <si>
+    <t>War &amp; Peace Vol. 1 (The War Disc)</t>
+  </si>
+  <si>
+    <t>War &amp; Peace Vol. 2 (The Peace Disc)</t>
+  </si>
+  <si>
+    <t>Laugh Now, Cry Later</t>
+  </si>
+  <si>
+    <t>Raw Footage</t>
+  </si>
+  <si>
+    <t>I Am the West</t>
+  </si>
+  <si>
+    <t>Dr. Dre</t>
+  </si>
+  <si>
+    <t>Compton</t>
+  </si>
+  <si>
+    <t>The Chronic</t>
+  </si>
+  <si>
+    <t>Snoop Dogg</t>
+  </si>
+  <si>
+    <t>BODR</t>
+  </si>
+  <si>
+    <t>Doggystyle</t>
+  </si>
+  <si>
+    <t>Tha Doggfather</t>
+  </si>
+  <si>
+    <t>Da Game Is to Be Sold, Not to Be Told</t>
+  </si>
+  <si>
+    <t>No Limit Top Dogg</t>
+  </si>
+  <si>
+    <t>Tha Last Meal</t>
+  </si>
+  <si>
+    <t>Paid tha Cost to Be da Boss</t>
+  </si>
+  <si>
+    <t>R&amp;G (Rhythm &amp; Gangsta): The Masterpiece</t>
+  </si>
+  <si>
+    <t>Tha Blue Carpet Treatment</t>
+  </si>
+  <si>
+    <t>Ego Trippin'</t>
+  </si>
+  <si>
+    <t>Malice n Wonderland</t>
+  </si>
+  <si>
+    <t>Doggumentary</t>
+  </si>
+  <si>
+    <t>Reincarnated</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Coolaid</t>
+  </si>
+  <si>
+    <t>Neva Left</t>
+  </si>
+  <si>
+    <t>Bible of Love</t>
+  </si>
+  <si>
+    <t>I Wanna Thank Me</t>
+  </si>
+  <si>
+    <t>From tha Streets 2 tha Suites</t>
+  </si>
+  <si>
+    <t>Long Beach</t>
+  </si>
+  <si>
+    <t>2Pac</t>
+  </si>
+  <si>
+    <t>All Eyez on Me</t>
+  </si>
+  <si>
+    <t>2Pacalypse Now</t>
+  </si>
+  <si>
+    <t>Strictly 4 My N.I.G.G.A.Z…</t>
+  </si>
+  <si>
+    <t>Me Against the World</t>
+  </si>
+  <si>
+    <t>The Don Killuminati: The 7 Day Theory</t>
+  </si>
+  <si>
+    <t>R U Still Down? (Remember Me)</t>
+  </si>
+  <si>
+    <t>Too $hort</t>
+  </si>
+  <si>
+    <t>Oakland</t>
+  </si>
+  <si>
+    <t>Can't Stay Away</t>
+  </si>
+  <si>
+    <t>Don't Stop Rappin'</t>
+  </si>
+  <si>
+    <t>Players</t>
+  </si>
+  <si>
+    <t>Raw, Uncut &amp; X-Rated</t>
+  </si>
+  <si>
+    <t>Born to Mack</t>
+  </si>
+  <si>
+    <t>Life Is...Too Short</t>
+  </si>
+  <si>
+    <t>Short Dog's in the House</t>
+  </si>
+  <si>
+    <t>Shorty the Pimp</t>
+  </si>
+  <si>
+    <t>Get in Where You Fit In</t>
+  </si>
+  <si>
+    <t>Cocktails</t>
+  </si>
+  <si>
+    <t>Gettin' It (Album Number Ten)</t>
+  </si>
+  <si>
+    <t>The Vault</t>
+  </si>
+  <si>
+    <t>You Nasty</t>
+  </si>
+  <si>
+    <t>Chase the Cat</t>
+  </si>
+  <si>
+    <t>What's My Favorite Word?</t>
+  </si>
+  <si>
+    <t>Married to the Game</t>
+  </si>
+  <si>
+    <t>Blow the Whistle</t>
+  </si>
+  <si>
+    <t>Get off the Stage</t>
+  </si>
+  <si>
+    <t>Still Blowin'</t>
+  </si>
+  <si>
+    <t>No Trespassing</t>
+  </si>
+  <si>
+    <t>The Pimp Tape</t>
+  </si>
+  <si>
+    <t>E-40</t>
+  </si>
+  <si>
+    <t>Vallejo</t>
+  </si>
+  <si>
+    <t>Rule of Thumb</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>In a Major Way</t>
+  </si>
+  <si>
+    <t>Tha Hall of Game</t>
+  </si>
+  <si>
+    <t>The Element of Surprise</t>
+  </si>
+  <si>
+    <t>Charlie Hustle: The Blueprint of a Self-Made Millionaire</t>
+  </si>
+  <si>
+    <t>Loyalty &amp; Betrayal</t>
+  </si>
+  <si>
+    <t>Grit &amp; Grind</t>
+  </si>
+  <si>
+    <t>Breakin' News</t>
+  </si>
+  <si>
+    <t>My Ghetto Report Card</t>
+  </si>
+  <si>
+    <t>The Ball Street Journal</t>
+  </si>
+  <si>
+    <t>Revenue Retrievin': Day Shift</t>
+  </si>
+  <si>
+    <t>Revenue Retrievin': Night Shift</t>
+  </si>
+  <si>
+    <t>Revenue Retrievin': Overtime Shift</t>
+  </si>
+  <si>
+    <t>Revenue Retrievin': Graveyard Shift</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 1</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 2</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 4</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 3</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 5</t>
+  </si>
+  <si>
+    <t>The Block Brochure: Welcome to the Soil 6</t>
+  </si>
+  <si>
+    <t>Sharp On All 4 Corners: Corner 1</t>
+  </si>
+  <si>
+    <t>Sharp On All 4 Corners: Corner 2</t>
+  </si>
+  <si>
+    <t>The D-Boy Diary: Book 2</t>
+  </si>
+  <si>
+    <t>The D-Boy Diary: Book 1</t>
+  </si>
+  <si>
+    <t>The Gift of Gab</t>
+  </si>
+  <si>
+    <t>Practice Makes Paper</t>
+  </si>
+  <si>
+    <t>Mac Dre</t>
+  </si>
+  <si>
+    <t>The Game Is Thick, Vol. 2</t>
+  </si>
+  <si>
+    <t>Young Black Brotha</t>
+  </si>
+  <si>
+    <t>Stupid Doo Doo Dumb</t>
+  </si>
+  <si>
+    <t>Rapper Gone Bad</t>
+  </si>
+  <si>
+    <t>Heart of a Gangsta, Mind of a Hustla, Tongue of a Pimp</t>
+  </si>
+  <si>
+    <t>Mac Dre's the Name</t>
+  </si>
+  <si>
+    <t>It's Not What You Say... It's How You Say It</t>
+  </si>
+  <si>
+    <t>Thizzelle Washington</t>
+  </si>
+  <si>
+    <t>Al Boo Boo</t>
+  </si>
+  <si>
+    <t>Ronald Dregan: Dreganomics</t>
+  </si>
+  <si>
+    <t>The Genie of the Lamp</t>
+  </si>
+  <si>
+    <t>Kendrick Lamar</t>
+  </si>
+  <si>
+    <t>Mr. Morale &amp; the Big Steppers</t>
+  </si>
+  <si>
+    <t>Section.80</t>
+  </si>
+  <si>
+    <t>Good Kid, M.A.A.D City</t>
+  </si>
+  <si>
+    <t>To Pimp a Butterfly</t>
+  </si>
+  <si>
+    <t>Damn</t>
+  </si>
+  <si>
+    <t>Nipsey Hustle</t>
+  </si>
+  <si>
+    <t>The Game</t>
+  </si>
+  <si>
+    <t>Xzibit</t>
+  </si>
+  <si>
+    <t>Saweetie</t>
+  </si>
+  <si>
+    <t>Vince Staples</t>
+  </si>
+  <si>
+    <t>Tyler, the Creator</t>
+  </si>
+  <si>
+    <t>Warren G</t>
+  </si>
+  <si>
+    <t>Jay Rock</t>
+  </si>
+  <si>
+    <t>MC Hammer</t>
+  </si>
+  <si>
+    <t>Roddy Rich</t>
+  </si>
+  <si>
+    <t>ScHoolboy Q</t>
+  </si>
+  <si>
+    <t>DJ Quik</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +3277,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2075,6 +3287,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2390,16 +3604,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19CDE-E3DD-497E-8468-EF613F78BA90}">
-  <dimension ref="A1:E544"/>
+  <dimension ref="A1:E881"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A520" workbookViewId="0">
-      <selection activeCell="E534" sqref="E534"/>
+    <sheetView tabSelected="1" topLeftCell="A861" workbookViewId="0">
+      <selection activeCell="A882" sqref="A882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11459,55 +12673,5772 @@
       <c r="A534" t="s">
         <v>643</v>
       </c>
+      <c r="B534" t="s">
+        <v>654</v>
+      </c>
+      <c r="C534" t="s">
+        <v>664</v>
+      </c>
+      <c r="D534" t="s">
+        <v>665</v>
+      </c>
+      <c r="E534" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
-        <v>644</v>
+        <v>643</v>
+      </c>
+      <c r="B535" t="s">
+        <v>655</v>
+      </c>
+      <c r="C535" t="s">
+        <v>664</v>
+      </c>
+      <c r="D535" t="s">
+        <v>665</v>
+      </c>
+      <c r="E535" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="B536" t="s">
+        <v>656</v>
+      </c>
+      <c r="C536" t="s">
+        <v>664</v>
+      </c>
+      <c r="D536" t="s">
+        <v>665</v>
+      </c>
+      <c r="E536" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
-        <v>646</v>
+        <v>643</v>
+      </c>
+      <c r="B537" t="s">
+        <v>657</v>
+      </c>
+      <c r="C537" t="s">
+        <v>664</v>
+      </c>
+      <c r="D537" t="s">
+        <v>665</v>
+      </c>
+      <c r="E537" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
-        <v>647</v>
+        <v>643</v>
+      </c>
+      <c r="B538" t="s">
+        <v>658</v>
+      </c>
+      <c r="C538" t="s">
+        <v>664</v>
+      </c>
+      <c r="D538" t="s">
+        <v>665</v>
+      </c>
+      <c r="E538" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
-        <v>648</v>
+        <v>643</v>
+      </c>
+      <c r="B539" t="s">
+        <v>659</v>
+      </c>
+      <c r="C539" t="s">
+        <v>664</v>
+      </c>
+      <c r="D539" t="s">
+        <v>665</v>
+      </c>
+      <c r="E539" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
-        <v>649</v>
+        <v>643</v>
+      </c>
+      <c r="B540" t="s">
+        <v>660</v>
+      </c>
+      <c r="C540" t="s">
+        <v>664</v>
+      </c>
+      <c r="D540" t="s">
+        <v>665</v>
+      </c>
+      <c r="E540" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
-        <v>650</v>
+        <v>643</v>
+      </c>
+      <c r="B541" t="s">
+        <v>661</v>
+      </c>
+      <c r="C541" t="s">
+        <v>664</v>
+      </c>
+      <c r="D541" t="s">
+        <v>665</v>
+      </c>
+      <c r="E541" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
-        <v>651</v>
+        <v>643</v>
+      </c>
+      <c r="B542" t="s">
+        <v>662</v>
+      </c>
+      <c r="C542" t="s">
+        <v>664</v>
+      </c>
+      <c r="D542" t="s">
+        <v>665</v>
+      </c>
+      <c r="E542" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
-        <v>652</v>
+        <v>643</v>
+      </c>
+      <c r="B543" t="s">
+        <v>663</v>
+      </c>
+      <c r="C543" t="s">
+        <v>664</v>
+      </c>
+      <c r="D543" t="s">
+        <v>665</v>
+      </c>
+      <c r="E543" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
+        <v>644</v>
+      </c>
+      <c r="B544" t="s">
+        <v>668</v>
+      </c>
+      <c r="C544" t="s">
+        <v>664</v>
+      </c>
+      <c r="D544" t="s">
+        <v>665</v>
+      </c>
+      <c r="E544" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A545" t="s">
+        <v>644</v>
+      </c>
+      <c r="B545" t="s">
+        <v>669</v>
+      </c>
+      <c r="C545" t="s">
+        <v>664</v>
+      </c>
+      <c r="D545" t="s">
+        <v>665</v>
+      </c>
+      <c r="E545" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A546" t="s">
+        <v>644</v>
+      </c>
+      <c r="B546" t="s">
+        <v>670</v>
+      </c>
+      <c r="C546" t="s">
+        <v>664</v>
+      </c>
+      <c r="D546" t="s">
+        <v>665</v>
+      </c>
+      <c r="E546" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A547" t="s">
+        <v>644</v>
+      </c>
+      <c r="B547" t="s">
+        <v>671</v>
+      </c>
+      <c r="C547" t="s">
+        <v>664</v>
+      </c>
+      <c r="D547" t="s">
+        <v>665</v>
+      </c>
+      <c r="E547" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A548" t="s">
+        <v>644</v>
+      </c>
+      <c r="B548" t="s">
+        <v>672</v>
+      </c>
+      <c r="C548" t="s">
+        <v>664</v>
+      </c>
+      <c r="D548" t="s">
+        <v>665</v>
+      </c>
+      <c r="E548" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A549" t="s">
+        <v>644</v>
+      </c>
+      <c r="B549" t="s">
+        <v>673</v>
+      </c>
+      <c r="C549" t="s">
+        <v>664</v>
+      </c>
+      <c r="D549" t="s">
+        <v>665</v>
+      </c>
+      <c r="E549" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A550" t="s">
+        <v>644</v>
+      </c>
+      <c r="B550" t="s">
+        <v>674</v>
+      </c>
+      <c r="C550" t="s">
+        <v>664</v>
+      </c>
+      <c r="D550" t="s">
+        <v>665</v>
+      </c>
+      <c r="E550" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A551" t="s">
+        <v>644</v>
+      </c>
+      <c r="B551" t="s">
+        <v>667</v>
+      </c>
+      <c r="C551" t="s">
+        <v>664</v>
+      </c>
+      <c r="D551" t="s">
+        <v>665</v>
+      </c>
+      <c r="E551" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A552" t="s">
+        <v>645</v>
+      </c>
+      <c r="B552" t="s">
+        <v>676</v>
+      </c>
+      <c r="C552" t="s">
+        <v>664</v>
+      </c>
+      <c r="D552" t="s">
+        <v>665</v>
+      </c>
+      <c r="E552" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A553" t="s">
+        <v>645</v>
+      </c>
+      <c r="B553" t="s">
+        <v>677</v>
+      </c>
+      <c r="C553" t="s">
+        <v>664</v>
+      </c>
+      <c r="D553" t="s">
+        <v>665</v>
+      </c>
+      <c r="E553" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A554" t="s">
+        <v>645</v>
+      </c>
+      <c r="B554" t="s">
+        <v>678</v>
+      </c>
+      <c r="C554" t="s">
+        <v>664</v>
+      </c>
+      <c r="D554" t="s">
+        <v>665</v>
+      </c>
+      <c r="E554" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A555" t="s">
+        <v>645</v>
+      </c>
+      <c r="B555" t="s">
+        <v>680</v>
+      </c>
+      <c r="C555" t="s">
+        <v>664</v>
+      </c>
+      <c r="D555" t="s">
+        <v>665</v>
+      </c>
+      <c r="E555" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A556" t="s">
+        <v>645</v>
+      </c>
+      <c r="B556" t="s">
+        <v>679</v>
+      </c>
+      <c r="C556" t="s">
+        <v>664</v>
+      </c>
+      <c r="D556" t="s">
+        <v>665</v>
+      </c>
+      <c r="E556" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A557" t="s">
+        <v>645</v>
+      </c>
+      <c r="B557" t="s">
+        <v>681</v>
+      </c>
+      <c r="C557" t="s">
+        <v>664</v>
+      </c>
+      <c r="D557" t="s">
+        <v>665</v>
+      </c>
+      <c r="E557" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A558" t="s">
+        <v>645</v>
+      </c>
+      <c r="B558" t="s">
+        <v>682</v>
+      </c>
+      <c r="C558" t="s">
+        <v>664</v>
+      </c>
+      <c r="D558" t="s">
+        <v>665</v>
+      </c>
+      <c r="E558" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A559" t="s">
+        <v>645</v>
+      </c>
+      <c r="B559" t="s">
+        <v>683</v>
+      </c>
+      <c r="C559" t="s">
+        <v>664</v>
+      </c>
+      <c r="D559" t="s">
+        <v>665</v>
+      </c>
+      <c r="E559" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A560" t="s">
+        <v>645</v>
+      </c>
+      <c r="B560" t="s">
+        <v>684</v>
+      </c>
+      <c r="C560" t="s">
+        <v>664</v>
+      </c>
+      <c r="D560" t="s">
+        <v>665</v>
+      </c>
+      <c r="E560" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A561" t="s">
+        <v>645</v>
+      </c>
+      <c r="B561" t="s">
+        <v>685</v>
+      </c>
+      <c r="C561" t="s">
+        <v>664</v>
+      </c>
+      <c r="D561" t="s">
+        <v>665</v>
+      </c>
+      <c r="E561" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A562" t="s">
+        <v>645</v>
+      </c>
+      <c r="B562" t="s">
+        <v>686</v>
+      </c>
+      <c r="C562" t="s">
+        <v>664</v>
+      </c>
+      <c r="D562" t="s">
+        <v>665</v>
+      </c>
+      <c r="E562" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A563" t="s">
+        <v>645</v>
+      </c>
+      <c r="B563" t="s">
+        <v>687</v>
+      </c>
+      <c r="C563" t="s">
+        <v>664</v>
+      </c>
+      <c r="D563" t="s">
+        <v>665</v>
+      </c>
+      <c r="E563" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A564" t="s">
+        <v>645</v>
+      </c>
+      <c r="B564" t="s">
+        <v>688</v>
+      </c>
+      <c r="C564" t="s">
+        <v>664</v>
+      </c>
+      <c r="D564" t="s">
+        <v>665</v>
+      </c>
+      <c r="E564" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A565" t="s">
+        <v>645</v>
+      </c>
+      <c r="B565" t="s">
+        <v>675</v>
+      </c>
+      <c r="C565" t="s">
+        <v>664</v>
+      </c>
+      <c r="D565" t="s">
+        <v>665</v>
+      </c>
+      <c r="E565" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A566" t="s">
+        <v>646</v>
+      </c>
+      <c r="B566" t="s">
+        <v>689</v>
+      </c>
+      <c r="C566" t="s">
+        <v>697</v>
+      </c>
+      <c r="D566" t="s">
+        <v>698</v>
+      </c>
+      <c r="E566" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A567" t="s">
+        <v>646</v>
+      </c>
+      <c r="B567" t="s">
+        <v>690</v>
+      </c>
+      <c r="C567" t="s">
+        <v>697</v>
+      </c>
+      <c r="D567" t="s">
+        <v>698</v>
+      </c>
+      <c r="E567" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A568" t="s">
+        <v>646</v>
+      </c>
+      <c r="B568" t="s">
+        <v>691</v>
+      </c>
+      <c r="C568" t="s">
+        <v>697</v>
+      </c>
+      <c r="D568" t="s">
+        <v>698</v>
+      </c>
+      <c r="E568" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A569" t="s">
+        <v>646</v>
+      </c>
+      <c r="B569" t="s">
+        <v>692</v>
+      </c>
+      <c r="C569" t="s">
+        <v>697</v>
+      </c>
+      <c r="D569" t="s">
+        <v>698</v>
+      </c>
+      <c r="E569" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A570" t="s">
+        <v>646</v>
+      </c>
+      <c r="B570" t="s">
+        <v>693</v>
+      </c>
+      <c r="C570" t="s">
+        <v>697</v>
+      </c>
+      <c r="D570" t="s">
+        <v>698</v>
+      </c>
+      <c r="E570" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A571" t="s">
+        <v>646</v>
+      </c>
+      <c r="B571" t="s">
+        <v>694</v>
+      </c>
+      <c r="C571" t="s">
+        <v>697</v>
+      </c>
+      <c r="D571" t="s">
+        <v>698</v>
+      </c>
+      <c r="E571" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A572" t="s">
+        <v>646</v>
+      </c>
+      <c r="B572" t="s">
+        <v>695</v>
+      </c>
+      <c r="C572" t="s">
+        <v>697</v>
+      </c>
+      <c r="D572" t="s">
+        <v>698</v>
+      </c>
+      <c r="E572" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A573" t="s">
+        <v>646</v>
+      </c>
+      <c r="B573" t="s">
+        <v>696</v>
+      </c>
+      <c r="C573" t="s">
+        <v>697</v>
+      </c>
+      <c r="D573" t="s">
+        <v>698</v>
+      </c>
+      <c r="E573" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A574" t="s">
+        <v>647</v>
+      </c>
+      <c r="B574" t="s">
+        <v>699</v>
+      </c>
+      <c r="C574" t="s">
+        <v>710</v>
+      </c>
+      <c r="D574" t="s">
+        <v>711</v>
+      </c>
+      <c r="E574" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A575" t="s">
+        <v>647</v>
+      </c>
+      <c r="B575" t="s">
+        <v>700</v>
+      </c>
+      <c r="C575" t="s">
+        <v>710</v>
+      </c>
+      <c r="D575" t="s">
+        <v>711</v>
+      </c>
+      <c r="E575" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A576" t="s">
+        <v>647</v>
+      </c>
+      <c r="B576" t="s">
+        <v>701</v>
+      </c>
+      <c r="C576" t="s">
+        <v>710</v>
+      </c>
+      <c r="D576" t="s">
+        <v>711</v>
+      </c>
+      <c r="E576" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A577" t="s">
+        <v>647</v>
+      </c>
+      <c r="B577" t="s">
+        <v>702</v>
+      </c>
+      <c r="C577" t="s">
+        <v>710</v>
+      </c>
+      <c r="D577" t="s">
+        <v>711</v>
+      </c>
+      <c r="E577" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A578" t="s">
+        <v>647</v>
+      </c>
+      <c r="B578" t="s">
+        <v>703</v>
+      </c>
+      <c r="C578" t="s">
+        <v>710</v>
+      </c>
+      <c r="D578" t="s">
+        <v>711</v>
+      </c>
+      <c r="E578" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A579" t="s">
+        <v>647</v>
+      </c>
+      <c r="B579" t="s">
+        <v>704</v>
+      </c>
+      <c r="C579" t="s">
+        <v>710</v>
+      </c>
+      <c r="D579" t="s">
+        <v>711</v>
+      </c>
+      <c r="E579" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A580" t="s">
+        <v>647</v>
+      </c>
+      <c r="B580" t="s">
+        <v>705</v>
+      </c>
+      <c r="C580" t="s">
+        <v>710</v>
+      </c>
+      <c r="D580" t="s">
+        <v>711</v>
+      </c>
+      <c r="E580" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A581" t="s">
+        <v>647</v>
+      </c>
+      <c r="B581" t="s">
+        <v>706</v>
+      </c>
+      <c r="C581" t="s">
+        <v>710</v>
+      </c>
+      <c r="D581" t="s">
+        <v>711</v>
+      </c>
+      <c r="E581" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A582" t="s">
+        <v>647</v>
+      </c>
+      <c r="B582" t="s">
+        <v>707</v>
+      </c>
+      <c r="C582" t="s">
+        <v>710</v>
+      </c>
+      <c r="D582" t="s">
+        <v>711</v>
+      </c>
+      <c r="E582" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A583" t="s">
+        <v>647</v>
+      </c>
+      <c r="B583" t="s">
+        <v>708</v>
+      </c>
+      <c r="C583" t="s">
+        <v>710</v>
+      </c>
+      <c r="D583" t="s">
+        <v>711</v>
+      </c>
+      <c r="E583" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A584" t="s">
+        <v>647</v>
+      </c>
+      <c r="B584" t="s">
+        <v>709</v>
+      </c>
+      <c r="C584" t="s">
+        <v>710</v>
+      </c>
+      <c r="D584" t="s">
+        <v>711</v>
+      </c>
+      <c r="E584" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A585" t="s">
+        <v>648</v>
+      </c>
+      <c r="B585" t="s">
+        <v>713</v>
+      </c>
+      <c r="C585" t="s">
+        <v>725</v>
+      </c>
+      <c r="D585" t="s">
+        <v>726</v>
+      </c>
+      <c r="E585" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A586" t="s">
+        <v>648</v>
+      </c>
+      <c r="B586" t="s">
+        <v>714</v>
+      </c>
+      <c r="C586" t="s">
+        <v>725</v>
+      </c>
+      <c r="D586" t="s">
+        <v>726</v>
+      </c>
+      <c r="E586" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A587" t="s">
+        <v>648</v>
+      </c>
+      <c r="B587" t="s">
+        <v>715</v>
+      </c>
+      <c r="C587" t="s">
+        <v>725</v>
+      </c>
+      <c r="D587" t="s">
+        <v>726</v>
+      </c>
+      <c r="E587" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A588" t="s">
+        <v>648</v>
+      </c>
+      <c r="B588" t="s">
+        <v>716</v>
+      </c>
+      <c r="C588" t="s">
+        <v>725</v>
+      </c>
+      <c r="D588" t="s">
+        <v>726</v>
+      </c>
+      <c r="E588" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A589" t="s">
+        <v>648</v>
+      </c>
+      <c r="B589" t="s">
+        <v>717</v>
+      </c>
+      <c r="C589" t="s">
+        <v>725</v>
+      </c>
+      <c r="D589" t="s">
+        <v>726</v>
+      </c>
+      <c r="E589" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A590" t="s">
+        <v>648</v>
+      </c>
+      <c r="B590" t="s">
+        <v>718</v>
+      </c>
+      <c r="C590" t="s">
+        <v>725</v>
+      </c>
+      <c r="D590" t="s">
+        <v>726</v>
+      </c>
+      <c r="E590" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A591" t="s">
+        <v>648</v>
+      </c>
+      <c r="B591" t="s">
+        <v>719</v>
+      </c>
+      <c r="C591" t="s">
+        <v>725</v>
+      </c>
+      <c r="D591" t="s">
+        <v>726</v>
+      </c>
+      <c r="E591" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A592" t="s">
+        <v>648</v>
+      </c>
+      <c r="B592" t="s">
+        <v>720</v>
+      </c>
+      <c r="C592" t="s">
+        <v>725</v>
+      </c>
+      <c r="D592" t="s">
+        <v>726</v>
+      </c>
+      <c r="E592" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A593" t="s">
+        <v>648</v>
+      </c>
+      <c r="B593" t="s">
+        <v>721</v>
+      </c>
+      <c r="C593" t="s">
+        <v>725</v>
+      </c>
+      <c r="D593" t="s">
+        <v>726</v>
+      </c>
+      <c r="E593" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A594" t="s">
+        <v>648</v>
+      </c>
+      <c r="B594" t="s">
+        <v>722</v>
+      </c>
+      <c r="C594" t="s">
+        <v>725</v>
+      </c>
+      <c r="D594" t="s">
+        <v>726</v>
+      </c>
+      <c r="E594" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A595" t="s">
+        <v>648</v>
+      </c>
+      <c r="B595" t="s">
+        <v>723</v>
+      </c>
+      <c r="C595" t="s">
+        <v>725</v>
+      </c>
+      <c r="D595" t="s">
+        <v>726</v>
+      </c>
+      <c r="E595" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A596" t="s">
+        <v>648</v>
+      </c>
+      <c r="B596" t="s">
+        <v>724</v>
+      </c>
+      <c r="C596" t="s">
+        <v>725</v>
+      </c>
+      <c r="D596" t="s">
+        <v>726</v>
+      </c>
+      <c r="E596" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A597" t="s">
+        <v>649</v>
+      </c>
+      <c r="B597" t="s">
+        <v>727</v>
+      </c>
+      <c r="C597" t="s">
+        <v>725</v>
+      </c>
+      <c r="D597" t="s">
+        <v>726</v>
+      </c>
+      <c r="E597" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A598" t="s">
+        <v>649</v>
+      </c>
+      <c r="B598" t="s">
+        <v>728</v>
+      </c>
+      <c r="C598" t="s">
+        <v>725</v>
+      </c>
+      <c r="D598" t="s">
+        <v>726</v>
+      </c>
+      <c r="E598" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A599" t="s">
+        <v>649</v>
+      </c>
+      <c r="B599" t="s">
+        <v>729</v>
+      </c>
+      <c r="C599" t="s">
+        <v>725</v>
+      </c>
+      <c r="D599" t="s">
+        <v>726</v>
+      </c>
+      <c r="E599" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A600" t="s">
+        <v>649</v>
+      </c>
+      <c r="B600" t="s">
+        <v>730</v>
+      </c>
+      <c r="C600" t="s">
+        <v>725</v>
+      </c>
+      <c r="D600" t="s">
+        <v>726</v>
+      </c>
+      <c r="E600" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A601" t="s">
+        <v>649</v>
+      </c>
+      <c r="B601" t="s">
+        <v>731</v>
+      </c>
+      <c r="C601" t="s">
+        <v>725</v>
+      </c>
+      <c r="D601" t="s">
+        <v>726</v>
+      </c>
+      <c r="E601" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A602" t="s">
+        <v>649</v>
+      </c>
+      <c r="B602" t="s">
+        <v>732</v>
+      </c>
+      <c r="C602" t="s">
+        <v>725</v>
+      </c>
+      <c r="D602" t="s">
+        <v>726</v>
+      </c>
+      <c r="E602" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A603" t="s">
+        <v>649</v>
+      </c>
+      <c r="B603" t="s">
+        <v>733</v>
+      </c>
+      <c r="C603" t="s">
+        <v>725</v>
+      </c>
+      <c r="D603" t="s">
+        <v>726</v>
+      </c>
+      <c r="E603" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A604" t="s">
+        <v>650</v>
+      </c>
+      <c r="B604" t="s">
+        <v>735</v>
+      </c>
+      <c r="C604" t="s">
+        <v>742</v>
+      </c>
+      <c r="D604" t="s">
+        <v>743</v>
+      </c>
+      <c r="E604" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A605" t="s">
+        <v>650</v>
+      </c>
+      <c r="B605" t="s">
+        <v>736</v>
+      </c>
+      <c r="C605" t="s">
+        <v>742</v>
+      </c>
+      <c r="D605" t="s">
+        <v>743</v>
+      </c>
+      <c r="E605" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A606" t="s">
+        <v>650</v>
+      </c>
+      <c r="B606" t="s">
+        <v>737</v>
+      </c>
+      <c r="C606" t="s">
+        <v>742</v>
+      </c>
+      <c r="D606" t="s">
+        <v>743</v>
+      </c>
+      <c r="E606" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A607" t="s">
+        <v>650</v>
+      </c>
+      <c r="B607" t="s">
+        <v>738</v>
+      </c>
+      <c r="C607" t="s">
+        <v>742</v>
+      </c>
+      <c r="D607" t="s">
+        <v>743</v>
+      </c>
+      <c r="E607" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A608" t="s">
+        <v>650</v>
+      </c>
+      <c r="B608" t="s">
+        <v>739</v>
+      </c>
+      <c r="C608" t="s">
+        <v>742</v>
+      </c>
+      <c r="D608" t="s">
+        <v>743</v>
+      </c>
+      <c r="E608" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A609" t="s">
+        <v>650</v>
+      </c>
+      <c r="B609" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="C609" t="s">
+        <v>742</v>
+      </c>
+      <c r="D609" t="s">
+        <v>743</v>
+      </c>
+      <c r="E609" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A610" t="s">
+        <v>650</v>
+      </c>
+      <c r="B610" t="s">
+        <v>740</v>
+      </c>
+      <c r="C610" t="s">
+        <v>742</v>
+      </c>
+      <c r="D610" t="s">
+        <v>743</v>
+      </c>
+      <c r="E610" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A611" t="s">
+        <v>650</v>
+      </c>
+      <c r="B611" t="s">
+        <v>734</v>
+      </c>
+      <c r="C611" t="s">
+        <v>742</v>
+      </c>
+      <c r="D611" t="s">
+        <v>743</v>
+      </c>
+      <c r="E611" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A612" t="s">
+        <v>744</v>
+      </c>
+      <c r="B612" t="s">
+        <v>746</v>
+      </c>
+      <c r="C612" t="s">
+        <v>263</v>
+      </c>
+      <c r="D612" t="s">
+        <v>264</v>
+      </c>
+      <c r="E612" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A613" t="s">
+        <v>752</v>
+      </c>
+      <c r="B613" t="s">
+        <v>747</v>
+      </c>
+      <c r="C613" t="s">
+        <v>263</v>
+      </c>
+      <c r="D613" t="s">
+        <v>264</v>
+      </c>
+      <c r="E613" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A614" t="s">
+        <v>753</v>
+      </c>
+      <c r="B614" t="s">
+        <v>748</v>
+      </c>
+      <c r="C614" t="s">
+        <v>263</v>
+      </c>
+      <c r="D614" t="s">
+        <v>264</v>
+      </c>
+      <c r="E614" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A615" t="s">
+        <v>754</v>
+      </c>
+      <c r="B615" t="s">
+        <v>749</v>
+      </c>
+      <c r="C615" t="s">
+        <v>263</v>
+      </c>
+      <c r="D615" t="s">
+        <v>264</v>
+      </c>
+      <c r="E615" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A616" t="s">
+        <v>755</v>
+      </c>
+      <c r="B616" t="s">
+        <v>750</v>
+      </c>
+      <c r="C616" t="s">
+        <v>263</v>
+      </c>
+      <c r="D616" t="s">
+        <v>264</v>
+      </c>
+      <c r="E616" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A617" t="s">
+        <v>756</v>
+      </c>
+      <c r="B617" t="s">
+        <v>751</v>
+      </c>
+      <c r="C617" t="s">
+        <v>263</v>
+      </c>
+      <c r="D617" t="s">
+        <v>264</v>
+      </c>
+      <c r="E617" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A618" t="s">
+        <v>757</v>
+      </c>
+      <c r="B618" t="s">
+        <v>745</v>
+      </c>
+      <c r="C618" t="s">
+        <v>263</v>
+      </c>
+      <c r="D618" t="s">
+        <v>264</v>
+      </c>
+      <c r="E618" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A619" t="s">
+        <v>651</v>
+      </c>
+      <c r="B619" t="s">
+        <v>760</v>
+      </c>
+      <c r="C619" t="s">
+        <v>759</v>
+      </c>
+      <c r="D619" t="s">
+        <v>743</v>
+      </c>
+      <c r="E619" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A620" t="s">
+        <v>651</v>
+      </c>
+      <c r="B620" t="s">
+        <v>761</v>
+      </c>
+      <c r="C620" t="s">
+        <v>759</v>
+      </c>
+      <c r="D620" t="s">
+        <v>743</v>
+      </c>
+      <c r="E620" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A621" t="s">
+        <v>651</v>
+      </c>
+      <c r="B621" t="s">
+        <v>762</v>
+      </c>
+      <c r="C621" t="s">
+        <v>759</v>
+      </c>
+      <c r="D621" t="s">
+        <v>743</v>
+      </c>
+      <c r="E621" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A622" t="s">
+        <v>651</v>
+      </c>
+      <c r="B622" t="s">
+        <v>763</v>
+      </c>
+      <c r="C622" t="s">
+        <v>759</v>
+      </c>
+      <c r="D622" t="s">
+        <v>743</v>
+      </c>
+      <c r="E622" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A623" t="s">
+        <v>651</v>
+      </c>
+      <c r="B623" t="s">
+        <v>764</v>
+      </c>
+      <c r="C623" t="s">
+        <v>759</v>
+      </c>
+      <c r="D623" t="s">
+        <v>743</v>
+      </c>
+      <c r="E623" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A624" t="s">
+        <v>651</v>
+      </c>
+      <c r="B624" t="s">
+        <v>765</v>
+      </c>
+      <c r="C624" t="s">
+        <v>759</v>
+      </c>
+      <c r="D624" t="s">
+        <v>743</v>
+      </c>
+      <c r="E624" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A625" t="s">
+        <v>651</v>
+      </c>
+      <c r="B625" t="s">
+        <v>766</v>
+      </c>
+      <c r="C625" t="s">
+        <v>759</v>
+      </c>
+      <c r="D625" t="s">
+        <v>743</v>
+      </c>
+      <c r="E625" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A626" t="s">
+        <v>651</v>
+      </c>
+      <c r="B626" t="s">
+        <v>767</v>
+      </c>
+      <c r="C626" t="s">
+        <v>759</v>
+      </c>
+      <c r="D626" t="s">
+        <v>743</v>
+      </c>
+      <c r="E626" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A627" t="s">
+        <v>651</v>
+      </c>
+      <c r="B627" t="s">
+        <v>768</v>
+      </c>
+      <c r="C627" t="s">
+        <v>759</v>
+      </c>
+      <c r="D627" t="s">
+        <v>743</v>
+      </c>
+      <c r="E627" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A628" t="s">
+        <v>651</v>
+      </c>
+      <c r="B628" t="s">
+        <v>769</v>
+      </c>
+      <c r="C628" t="s">
+        <v>759</v>
+      </c>
+      <c r="D628" t="s">
+        <v>743</v>
+      </c>
+      <c r="E628" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A629" t="s">
+        <v>651</v>
+      </c>
+      <c r="B629" t="s">
+        <v>770</v>
+      </c>
+      <c r="C629" t="s">
+        <v>759</v>
+      </c>
+      <c r="D629" t="s">
+        <v>743</v>
+      </c>
+      <c r="E629" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A630" t="s">
+        <v>651</v>
+      </c>
+      <c r="B630" t="s">
+        <v>771</v>
+      </c>
+      <c r="C630" t="s">
+        <v>759</v>
+      </c>
+      <c r="D630" t="s">
+        <v>743</v>
+      </c>
+      <c r="E630" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A631" t="s">
+        <v>651</v>
+      </c>
+      <c r="B631" t="s">
+        <v>772</v>
+      </c>
+      <c r="C631" t="s">
+        <v>759</v>
+      </c>
+      <c r="D631" t="s">
+        <v>743</v>
+      </c>
+      <c r="E631" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A632" t="s">
+        <v>651</v>
+      </c>
+      <c r="B632" t="s">
+        <v>773</v>
+      </c>
+      <c r="C632" t="s">
+        <v>759</v>
+      </c>
+      <c r="D632" t="s">
+        <v>743</v>
+      </c>
+      <c r="E632" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A633" t="s">
+        <v>651</v>
+      </c>
+      <c r="B633" t="s">
+        <v>758</v>
+      </c>
+      <c r="C633" t="s">
+        <v>759</v>
+      </c>
+      <c r="D633" t="s">
+        <v>743</v>
+      </c>
+      <c r="E633" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A634" t="s">
+        <v>652</v>
+      </c>
+      <c r="B634" t="s">
+        <v>774</v>
+      </c>
+      <c r="C634" t="s">
+        <v>664</v>
+      </c>
+      <c r="D634" t="s">
+        <v>665</v>
+      </c>
+      <c r="E634" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A635" t="s">
+        <v>652</v>
+      </c>
+      <c r="B635" t="s">
+        <v>775</v>
+      </c>
+      <c r="C635" t="s">
+        <v>664</v>
+      </c>
+      <c r="D635" t="s">
+        <v>665</v>
+      </c>
+      <c r="E635" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A636" t="s">
+        <v>652</v>
+      </c>
+      <c r="B636" t="s">
+        <v>776</v>
+      </c>
+      <c r="C636" t="s">
+        <v>664</v>
+      </c>
+      <c r="D636" t="s">
+        <v>665</v>
+      </c>
+      <c r="E636" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A637" t="s">
+        <v>652</v>
+      </c>
+      <c r="B637" t="s">
+        <v>777</v>
+      </c>
+      <c r="C637" t="s">
+        <v>664</v>
+      </c>
+      <c r="D637" t="s">
+        <v>665</v>
+      </c>
+      <c r="E637" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A638" t="s">
         <v>653</v>
+      </c>
+      <c r="B638" t="s">
+        <v>779</v>
+      </c>
+      <c r="C638" t="s">
+        <v>664</v>
+      </c>
+      <c r="D638" t="s">
+        <v>665</v>
+      </c>
+      <c r="E638" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A639" t="s">
+        <v>653</v>
+      </c>
+      <c r="B639" t="s">
+        <v>780</v>
+      </c>
+      <c r="C639" t="s">
+        <v>664</v>
+      </c>
+      <c r="D639" t="s">
+        <v>665</v>
+      </c>
+      <c r="E639" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A640" t="s">
+        <v>653</v>
+      </c>
+      <c r="B640" t="s">
+        <v>781</v>
+      </c>
+      <c r="C640" t="s">
+        <v>664</v>
+      </c>
+      <c r="D640" t="s">
+        <v>665</v>
+      </c>
+      <c r="E640" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A641" t="s">
+        <v>653</v>
+      </c>
+      <c r="B641" t="s">
+        <v>778</v>
+      </c>
+      <c r="C641" t="s">
+        <v>664</v>
+      </c>
+      <c r="D641" t="s">
+        <v>665</v>
+      </c>
+      <c r="E641" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A642" t="s">
+        <v>712</v>
+      </c>
+      <c r="B642" t="s">
+        <v>782</v>
+      </c>
+      <c r="C642" t="s">
+        <v>710</v>
+      </c>
+      <c r="D642" t="s">
+        <v>711</v>
+      </c>
+      <c r="E642" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A643" t="s">
+        <v>712</v>
+      </c>
+      <c r="B643" t="s">
+        <v>783</v>
+      </c>
+      <c r="C643" t="s">
+        <v>710</v>
+      </c>
+      <c r="D643" t="s">
+        <v>711</v>
+      </c>
+      <c r="E643" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A644" t="s">
+        <v>712</v>
+      </c>
+      <c r="B644" t="s">
+        <v>784</v>
+      </c>
+      <c r="C644" t="s">
+        <v>710</v>
+      </c>
+      <c r="D644" t="s">
+        <v>711</v>
+      </c>
+      <c r="E644" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A645" t="s">
+        <v>712</v>
+      </c>
+      <c r="B645" t="s">
+        <v>785</v>
+      </c>
+      <c r="C645" t="s">
+        <v>710</v>
+      </c>
+      <c r="D645" t="s">
+        <v>711</v>
+      </c>
+      <c r="E645" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A646" t="s">
+        <v>712</v>
+      </c>
+      <c r="B646" t="s">
+        <v>712</v>
+      </c>
+      <c r="C646" t="s">
+        <v>710</v>
+      </c>
+      <c r="D646" t="s">
+        <v>711</v>
+      </c>
+      <c r="E646" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="647" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A647" t="s">
+        <v>712</v>
+      </c>
+      <c r="B647" t="s">
+        <v>786</v>
+      </c>
+      <c r="C647" t="s">
+        <v>710</v>
+      </c>
+      <c r="D647" t="s">
+        <v>711</v>
+      </c>
+      <c r="E647" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="648" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A648" t="s">
+        <v>712</v>
+      </c>
+      <c r="B648" t="s">
+        <v>787</v>
+      </c>
+      <c r="C648" t="s">
+        <v>710</v>
+      </c>
+      <c r="D648" t="s">
+        <v>711</v>
+      </c>
+      <c r="E648" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="649" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A649" t="s">
+        <v>712</v>
+      </c>
+      <c r="B649" t="s">
+        <v>788</v>
+      </c>
+      <c r="C649" t="s">
+        <v>710</v>
+      </c>
+      <c r="D649" t="s">
+        <v>711</v>
+      </c>
+      <c r="E649" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="650" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A650" t="s">
+        <v>789</v>
+      </c>
+      <c r="B650" t="s">
+        <v>796</v>
+      </c>
+      <c r="C650" t="s">
+        <v>664</v>
+      </c>
+      <c r="D650" t="s">
+        <v>665</v>
+      </c>
+      <c r="E650" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="651" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A651" t="s">
+        <v>789</v>
+      </c>
+      <c r="B651" t="s">
+        <v>677</v>
+      </c>
+      <c r="C651" t="s">
+        <v>664</v>
+      </c>
+      <c r="D651" t="s">
+        <v>665</v>
+      </c>
+      <c r="E651" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="652" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A652" t="s">
+        <v>789</v>
+      </c>
+      <c r="B652" t="s">
+        <v>797</v>
+      </c>
+      <c r="C652" t="s">
+        <v>664</v>
+      </c>
+      <c r="D652" t="s">
+        <v>665</v>
+      </c>
+      <c r="E652" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="653" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A653" t="s">
+        <v>789</v>
+      </c>
+      <c r="B653" t="s">
+        <v>708</v>
+      </c>
+      <c r="C653" t="s">
+        <v>664</v>
+      </c>
+      <c r="D653" t="s">
+        <v>665</v>
+      </c>
+      <c r="E653" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="654" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A654" t="s">
+        <v>789</v>
+      </c>
+      <c r="B654" t="s">
+        <v>798</v>
+      </c>
+      <c r="C654" t="s">
+        <v>664</v>
+      </c>
+      <c r="D654" t="s">
+        <v>665</v>
+      </c>
+      <c r="E654" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="655" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A655" t="s">
+        <v>789</v>
+      </c>
+      <c r="B655" t="s">
+        <v>799</v>
+      </c>
+      <c r="C655" t="s">
+        <v>664</v>
+      </c>
+      <c r="D655" t="s">
+        <v>665</v>
+      </c>
+      <c r="E655" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="656" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A656" t="s">
+        <v>789</v>
+      </c>
+      <c r="B656" t="s">
+        <v>800</v>
+      </c>
+      <c r="C656" t="s">
+        <v>664</v>
+      </c>
+      <c r="D656" t="s">
+        <v>665</v>
+      </c>
+      <c r="E656" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="657" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A657" t="s">
+        <v>789</v>
+      </c>
+      <c r="B657" t="s">
+        <v>801</v>
+      </c>
+      <c r="C657" t="s">
+        <v>664</v>
+      </c>
+      <c r="D657" t="s">
+        <v>665</v>
+      </c>
+      <c r="E657" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="658" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A658" t="s">
+        <v>789</v>
+      </c>
+      <c r="B658" t="s">
+        <v>802</v>
+      </c>
+      <c r="C658" t="s">
+        <v>664</v>
+      </c>
+      <c r="D658" t="s">
+        <v>665</v>
+      </c>
+      <c r="E658" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="659" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A659" t="s">
+        <v>789</v>
+      </c>
+      <c r="B659" t="s">
+        <v>803</v>
+      </c>
+      <c r="C659" t="s">
+        <v>664</v>
+      </c>
+      <c r="D659" t="s">
+        <v>665</v>
+      </c>
+      <c r="E659" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="660" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A660" t="s">
+        <v>789</v>
+      </c>
+      <c r="B660" t="s">
+        <v>804</v>
+      </c>
+      <c r="C660" t="s">
+        <v>664</v>
+      </c>
+      <c r="D660" t="s">
+        <v>665</v>
+      </c>
+      <c r="E660" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="661" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A661" t="s">
+        <v>790</v>
+      </c>
+      <c r="B661" t="s">
+        <v>805</v>
+      </c>
+      <c r="C661" t="s">
+        <v>710</v>
+      </c>
+      <c r="D661" t="s">
+        <v>711</v>
+      </c>
+      <c r="E661" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="662" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A662" t="s">
+        <v>790</v>
+      </c>
+      <c r="B662" t="s">
+        <v>806</v>
+      </c>
+      <c r="C662" t="s">
+        <v>710</v>
+      </c>
+      <c r="D662" t="s">
+        <v>711</v>
+      </c>
+      <c r="E662" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="663" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A663" t="s">
+        <v>790</v>
+      </c>
+      <c r="B663" t="s">
+        <v>807</v>
+      </c>
+      <c r="C663" t="s">
+        <v>710</v>
+      </c>
+      <c r="D663" t="s">
+        <v>711</v>
+      </c>
+      <c r="E663" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="664" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A664" t="s">
+        <v>790</v>
+      </c>
+      <c r="B664" t="s">
+        <v>808</v>
+      </c>
+      <c r="C664" t="s">
+        <v>710</v>
+      </c>
+      <c r="D664" t="s">
+        <v>711</v>
+      </c>
+      <c r="E664" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="665" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A665" t="s">
+        <v>790</v>
+      </c>
+      <c r="B665" t="s">
+        <v>809</v>
+      </c>
+      <c r="C665" t="s">
+        <v>710</v>
+      </c>
+      <c r="D665" t="s">
+        <v>711</v>
+      </c>
+      <c r="E665" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="666" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A666" t="s">
+        <v>791</v>
+      </c>
+      <c r="B666" t="s">
+        <v>811</v>
+      </c>
+      <c r="C666" t="s">
+        <v>710</v>
+      </c>
+      <c r="D666" t="s">
+        <v>711</v>
+      </c>
+      <c r="E666" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="667" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A667" t="s">
+        <v>818</v>
+      </c>
+      <c r="B667" t="s">
+        <v>812</v>
+      </c>
+      <c r="C667" t="s">
+        <v>710</v>
+      </c>
+      <c r="D667" t="s">
+        <v>711</v>
+      </c>
+      <c r="E667" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="668" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A668" t="s">
+        <v>819</v>
+      </c>
+      <c r="B668" t="s">
+        <v>813</v>
+      </c>
+      <c r="C668" t="s">
+        <v>710</v>
+      </c>
+      <c r="D668" t="s">
+        <v>711</v>
+      </c>
+      <c r="E668" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="669" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A669" t="s">
+        <v>820</v>
+      </c>
+      <c r="B669" t="s">
+        <v>814</v>
+      </c>
+      <c r="C669" t="s">
+        <v>710</v>
+      </c>
+      <c r="D669" t="s">
+        <v>711</v>
+      </c>
+      <c r="E669" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="670" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A670" t="s">
+        <v>821</v>
+      </c>
+      <c r="B670" t="s">
+        <v>815</v>
+      </c>
+      <c r="C670" t="s">
+        <v>710</v>
+      </c>
+      <c r="D670" t="s">
+        <v>711</v>
+      </c>
+      <c r="E670" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="671" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A671" t="s">
+        <v>822</v>
+      </c>
+      <c r="B671" t="s">
+        <v>816</v>
+      </c>
+      <c r="C671" t="s">
+        <v>710</v>
+      </c>
+      <c r="D671" t="s">
+        <v>711</v>
+      </c>
+      <c r="E671" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="672" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A672" t="s">
+        <v>823</v>
+      </c>
+      <c r="B672" t="s">
+        <v>817</v>
+      </c>
+      <c r="C672" t="s">
+        <v>710</v>
+      </c>
+      <c r="D672" t="s">
+        <v>711</v>
+      </c>
+      <c r="E672" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="673" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A673" t="s">
+        <v>824</v>
+      </c>
+      <c r="B673" t="s">
+        <v>810</v>
+      </c>
+      <c r="C673" t="s">
+        <v>710</v>
+      </c>
+      <c r="D673" t="s">
+        <v>711</v>
+      </c>
+      <c r="E673" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="674" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A674" t="s">
+        <v>792</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="C674" t="s">
+        <v>664</v>
+      </c>
+      <c r="D674" t="s">
+        <v>665</v>
+      </c>
+      <c r="E674" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="675" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A675" t="s">
+        <v>792</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C675" t="s">
+        <v>664</v>
+      </c>
+      <c r="D675" t="s">
+        <v>665</v>
+      </c>
+      <c r="E675" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="676" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A676" t="s">
+        <v>792</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="C676" t="s">
+        <v>664</v>
+      </c>
+      <c r="D676" t="s">
+        <v>665</v>
+      </c>
+      <c r="E676" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="677" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A677" t="s">
+        <v>792</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C677" t="s">
+        <v>664</v>
+      </c>
+      <c r="D677" t="s">
+        <v>665</v>
+      </c>
+      <c r="E677" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="678" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A678" t="s">
+        <v>792</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="C678" t="s">
+        <v>664</v>
+      </c>
+      <c r="D678" t="s">
+        <v>665</v>
+      </c>
+      <c r="E678" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="679" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A679" t="s">
+        <v>792</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C679" t="s">
+        <v>664</v>
+      </c>
+      <c r="D679" t="s">
+        <v>665</v>
+      </c>
+      <c r="E679" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="680" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A680" t="s">
+        <v>792</v>
+      </c>
+      <c r="B680" s="3">
+        <v>7220</v>
+      </c>
+      <c r="C680" t="s">
+        <v>664</v>
+      </c>
+      <c r="D680" t="s">
+        <v>665</v>
+      </c>
+      <c r="E680" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="681" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A681" t="s">
+        <v>792</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C681" t="s">
+        <v>664</v>
+      </c>
+      <c r="D681" t="s">
+        <v>665</v>
+      </c>
+      <c r="E681" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="682" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A682" t="s">
+        <v>793</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="C682" t="s">
+        <v>664</v>
+      </c>
+      <c r="D682" t="s">
+        <v>665</v>
+      </c>
+      <c r="E682" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="683" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A683" t="s">
+        <v>793</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C683" t="s">
+        <v>664</v>
+      </c>
+      <c r="D683" t="s">
+        <v>665</v>
+      </c>
+      <c r="E683" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="684" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A684" t="s">
+        <v>794</v>
+      </c>
+      <c r="B684" t="s">
+        <v>837</v>
+      </c>
+      <c r="C684" t="s">
+        <v>834</v>
+      </c>
+      <c r="D684" t="s">
+        <v>835</v>
+      </c>
+      <c r="E684" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="685" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A685" t="s">
+        <v>794</v>
+      </c>
+      <c r="B685" t="s">
+        <v>838</v>
+      </c>
+      <c r="C685" t="s">
+        <v>834</v>
+      </c>
+      <c r="D685" t="s">
+        <v>835</v>
+      </c>
+      <c r="E685" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="686" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A686" t="s">
+        <v>794</v>
+      </c>
+      <c r="B686" t="s">
+        <v>839</v>
+      </c>
+      <c r="C686" t="s">
+        <v>834</v>
+      </c>
+      <c r="D686" t="s">
+        <v>835</v>
+      </c>
+      <c r="E686" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="687" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A687" t="s">
+        <v>794</v>
+      </c>
+      <c r="B687" t="s">
+        <v>840</v>
+      </c>
+      <c r="C687" t="s">
+        <v>834</v>
+      </c>
+      <c r="D687" t="s">
+        <v>835</v>
+      </c>
+      <c r="E687" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="688" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A688" t="s">
+        <v>794</v>
+      </c>
+      <c r="B688" t="s">
+        <v>836</v>
+      </c>
+      <c r="C688" t="s">
+        <v>834</v>
+      </c>
+      <c r="D688" t="s">
+        <v>835</v>
+      </c>
+      <c r="E688" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="689" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A689" t="s">
+        <v>795</v>
+      </c>
+      <c r="B689" t="s">
+        <v>842</v>
+      </c>
+      <c r="C689" t="s">
+        <v>697</v>
+      </c>
+      <c r="D689" t="s">
+        <v>698</v>
+      </c>
+      <c r="E689" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="690" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A690" t="s">
+        <v>795</v>
+      </c>
+      <c r="B690" t="s">
+        <v>843</v>
+      </c>
+      <c r="C690" t="s">
+        <v>697</v>
+      </c>
+      <c r="D690" t="s">
+        <v>698</v>
+      </c>
+      <c r="E690" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="691" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A691" t="s">
+        <v>795</v>
+      </c>
+      <c r="B691" t="s">
+        <v>844</v>
+      </c>
+      <c r="C691" t="s">
+        <v>697</v>
+      </c>
+      <c r="D691" t="s">
+        <v>698</v>
+      </c>
+      <c r="E691" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="692" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A692" t="s">
+        <v>795</v>
+      </c>
+      <c r="B692" t="s">
+        <v>845</v>
+      </c>
+      <c r="C692" t="s">
+        <v>697</v>
+      </c>
+      <c r="D692" t="s">
+        <v>698</v>
+      </c>
+      <c r="E692" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="693" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A693" t="s">
+        <v>795</v>
+      </c>
+      <c r="B693" t="s">
+        <v>846</v>
+      </c>
+      <c r="C693" t="s">
+        <v>697</v>
+      </c>
+      <c r="D693" t="s">
+        <v>698</v>
+      </c>
+      <c r="E693" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="694" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A694" t="s">
+        <v>795</v>
+      </c>
+      <c r="B694" t="s">
+        <v>847</v>
+      </c>
+      <c r="C694" t="s">
+        <v>697</v>
+      </c>
+      <c r="D694" t="s">
+        <v>698</v>
+      </c>
+      <c r="E694" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="695" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A695" t="s">
+        <v>795</v>
+      </c>
+      <c r="B695" t="s">
+        <v>848</v>
+      </c>
+      <c r="C695" t="s">
+        <v>697</v>
+      </c>
+      <c r="D695" t="s">
+        <v>698</v>
+      </c>
+      <c r="E695" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="696" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A696" t="s">
+        <v>795</v>
+      </c>
+      <c r="B696" t="s">
+        <v>841</v>
+      </c>
+      <c r="C696" t="s">
+        <v>697</v>
+      </c>
+      <c r="D696" t="s">
+        <v>698</v>
+      </c>
+      <c r="E696" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="697" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A697" t="s">
+        <v>850</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C697" t="s">
+        <v>263</v>
+      </c>
+      <c r="D697" t="s">
+        <v>264</v>
+      </c>
+      <c r="E697" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="698" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A698" t="s">
+        <v>850</v>
+      </c>
+      <c r="B698" s="3">
+        <v>777</v>
+      </c>
+      <c r="C698" t="s">
+        <v>263</v>
+      </c>
+      <c r="D698" t="s">
+        <v>264</v>
+      </c>
+      <c r="E698" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="699" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A699" t="s">
+        <v>856</v>
+      </c>
+      <c r="B699" t="s">
+        <v>852</v>
+      </c>
+      <c r="C699" t="s">
+        <v>422</v>
+      </c>
+      <c r="D699" t="s">
+        <v>340</v>
+      </c>
+      <c r="E699" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="700" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A700" t="s">
+        <v>856</v>
+      </c>
+      <c r="B700" t="s">
+        <v>853</v>
+      </c>
+      <c r="C700" t="s">
+        <v>422</v>
+      </c>
+      <c r="D700" t="s">
+        <v>340</v>
+      </c>
+      <c r="E700" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="701" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A701" t="s">
+        <v>856</v>
+      </c>
+      <c r="B701" t="s">
+        <v>854</v>
+      </c>
+      <c r="C701" t="s">
+        <v>422</v>
+      </c>
+      <c r="D701" t="s">
+        <v>340</v>
+      </c>
+      <c r="E701" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="702" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A702" t="s">
+        <v>856</v>
+      </c>
+      <c r="B702" t="s">
+        <v>855</v>
+      </c>
+      <c r="C702" t="s">
+        <v>422</v>
+      </c>
+      <c r="D702" t="s">
+        <v>340</v>
+      </c>
+      <c r="E702" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="703" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A703" t="s">
+        <v>856</v>
+      </c>
+      <c r="B703" t="s">
+        <v>851</v>
+      </c>
+      <c r="C703" t="s">
+        <v>422</v>
+      </c>
+      <c r="D703" t="s">
+        <v>340</v>
+      </c>
+      <c r="E703" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="704" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A704" t="s">
+        <v>857</v>
+      </c>
+      <c r="B704" t="s">
+        <v>858</v>
+      </c>
+      <c r="C704" t="s">
+        <v>270</v>
+      </c>
+      <c r="D704" t="s">
+        <v>271</v>
+      </c>
+      <c r="E704" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="705" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A705" t="s">
+        <v>857</v>
+      </c>
+      <c r="B705" t="s">
+        <v>859</v>
+      </c>
+      <c r="C705" t="s">
+        <v>270</v>
+      </c>
+      <c r="D705" t="s">
+        <v>271</v>
+      </c>
+      <c r="E705" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="706" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A706" t="s">
+        <v>857</v>
+      </c>
+      <c r="B706" t="s">
+        <v>860</v>
+      </c>
+      <c r="C706" t="s">
+        <v>270</v>
+      </c>
+      <c r="D706" t="s">
+        <v>271</v>
+      </c>
+      <c r="E706" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="707" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A707" t="s">
+        <v>861</v>
+      </c>
+      <c r="B707" t="s">
+        <v>863</v>
+      </c>
+      <c r="C707" t="s">
+        <v>380</v>
+      </c>
+      <c r="D707" t="s">
+        <v>362</v>
+      </c>
+      <c r="E707" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="708" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A708" t="s">
+        <v>861</v>
+      </c>
+      <c r="B708" t="s">
+        <v>862</v>
+      </c>
+      <c r="C708" t="s">
+        <v>380</v>
+      </c>
+      <c r="D708" t="s">
+        <v>362</v>
+      </c>
+      <c r="E708" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="709" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A709" t="s">
+        <v>864</v>
+      </c>
+      <c r="B709" t="s">
+        <v>866</v>
+      </c>
+      <c r="C709" t="s">
+        <v>350</v>
+      </c>
+      <c r="D709" t="s">
+        <v>340</v>
+      </c>
+      <c r="E709" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="710" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A710" t="s">
+        <v>864</v>
+      </c>
+      <c r="B710" t="s">
+        <v>867</v>
+      </c>
+      <c r="C710" t="s">
+        <v>350</v>
+      </c>
+      <c r="D710" t="s">
+        <v>340</v>
+      </c>
+      <c r="E710" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="711" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A711" t="s">
+        <v>864</v>
+      </c>
+      <c r="B711" t="s">
+        <v>868</v>
+      </c>
+      <c r="C711" t="s">
+        <v>350</v>
+      </c>
+      <c r="D711" t="s">
+        <v>340</v>
+      </c>
+      <c r="E711" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="712" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A712" t="s">
+        <v>864</v>
+      </c>
+      <c r="B712" t="s">
+        <v>869</v>
+      </c>
+      <c r="C712" t="s">
+        <v>350</v>
+      </c>
+      <c r="D712" t="s">
+        <v>340</v>
+      </c>
+      <c r="E712" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="713" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A713" t="s">
+        <v>864</v>
+      </c>
+      <c r="B713" t="s">
+        <v>870</v>
+      </c>
+      <c r="C713" t="s">
+        <v>350</v>
+      </c>
+      <c r="D713" t="s">
+        <v>340</v>
+      </c>
+      <c r="E713" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="714" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A714" t="s">
+        <v>864</v>
+      </c>
+      <c r="B714" t="s">
+        <v>871</v>
+      </c>
+      <c r="C714" t="s">
+        <v>350</v>
+      </c>
+      <c r="D714" t="s">
+        <v>340</v>
+      </c>
+      <c r="E714" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="715" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A715" t="s">
+        <v>864</v>
+      </c>
+      <c r="B715" t="s">
+        <v>872</v>
+      </c>
+      <c r="C715" t="s">
+        <v>350</v>
+      </c>
+      <c r="D715" t="s">
+        <v>340</v>
+      </c>
+      <c r="E715" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="716" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A716" t="s">
+        <v>864</v>
+      </c>
+      <c r="B716" t="s">
+        <v>873</v>
+      </c>
+      <c r="C716" t="s">
+        <v>350</v>
+      </c>
+      <c r="D716" t="s">
+        <v>340</v>
+      </c>
+      <c r="E716" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="717" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A717" t="s">
+        <v>865</v>
+      </c>
+      <c r="B717" t="s">
+        <v>874</v>
+      </c>
+      <c r="C717" t="s">
+        <v>876</v>
+      </c>
+      <c r="D717" t="s">
+        <v>877</v>
+      </c>
+      <c r="E717" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="718" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A718" t="s">
+        <v>865</v>
+      </c>
+      <c r="B718" t="s">
+        <v>875</v>
+      </c>
+      <c r="C718" t="s">
+        <v>876</v>
+      </c>
+      <c r="D718" t="s">
+        <v>877</v>
+      </c>
+      <c r="E718" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="719" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A719" t="s">
+        <v>880</v>
+      </c>
+      <c r="B719" t="s">
+        <v>880</v>
+      </c>
+      <c r="C719" t="s">
+        <v>516</v>
+      </c>
+      <c r="D719" t="s">
+        <v>340</v>
+      </c>
+      <c r="E719" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="720" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A720" t="s">
+        <v>880</v>
+      </c>
+      <c r="B720" t="s">
+        <v>881</v>
+      </c>
+      <c r="C720" t="s">
+        <v>516</v>
+      </c>
+      <c r="D720" t="s">
+        <v>340</v>
+      </c>
+      <c r="E720" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="721" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A721" t="s">
+        <v>880</v>
+      </c>
+      <c r="B721" t="s">
+        <v>882</v>
+      </c>
+      <c r="C721" t="s">
+        <v>516</v>
+      </c>
+      <c r="D721" t="s">
+        <v>340</v>
+      </c>
+      <c r="E721" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="722" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A722" t="s">
+        <v>880</v>
+      </c>
+      <c r="B722" t="s">
+        <v>883</v>
+      </c>
+      <c r="C722" t="s">
+        <v>516</v>
+      </c>
+      <c r="D722" t="s">
+        <v>340</v>
+      </c>
+      <c r="E722" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="723" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A723" t="s">
+        <v>880</v>
+      </c>
+      <c r="B723" t="s">
+        <v>879</v>
+      </c>
+      <c r="C723" t="s">
+        <v>516</v>
+      </c>
+      <c r="D723" t="s">
+        <v>340</v>
+      </c>
+      <c r="E723" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="724" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A724" t="s">
+        <v>884</v>
+      </c>
+      <c r="B724" t="s">
+        <v>889</v>
+      </c>
+      <c r="C724" t="s">
+        <v>463</v>
+      </c>
+      <c r="D724" t="s">
+        <v>340</v>
+      </c>
+      <c r="E724" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="725" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A725" t="s">
+        <v>884</v>
+      </c>
+      <c r="B725" t="s">
+        <v>890</v>
+      </c>
+      <c r="C725" t="s">
+        <v>463</v>
+      </c>
+      <c r="D725" t="s">
+        <v>340</v>
+      </c>
+      <c r="E725" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="726" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A726" t="s">
+        <v>884</v>
+      </c>
+      <c r="B726" t="s">
+        <v>891</v>
+      </c>
+      <c r="C726" t="s">
+        <v>463</v>
+      </c>
+      <c r="D726" t="s">
+        <v>340</v>
+      </c>
+      <c r="E726" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="727" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A727" t="s">
+        <v>884</v>
+      </c>
+      <c r="B727" t="s">
+        <v>888</v>
+      </c>
+      <c r="C727" t="s">
+        <v>463</v>
+      </c>
+      <c r="D727" t="s">
+        <v>340</v>
+      </c>
+      <c r="E727" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A728" t="s">
+        <v>885</v>
+      </c>
+      <c r="B728" t="s">
+        <v>893</v>
+      </c>
+      <c r="C728" t="s">
+        <v>422</v>
+      </c>
+      <c r="D728" t="s">
+        <v>340</v>
+      </c>
+      <c r="E728" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A729" t="s">
+        <v>885</v>
+      </c>
+      <c r="B729" t="s">
+        <v>892</v>
+      </c>
+      <c r="C729" t="s">
+        <v>422</v>
+      </c>
+      <c r="D729" t="s">
+        <v>340</v>
+      </c>
+      <c r="E729" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A730" t="s">
+        <v>886</v>
+      </c>
+      <c r="B730" t="s">
+        <v>895</v>
+      </c>
+      <c r="C730" t="s">
+        <v>463</v>
+      </c>
+      <c r="D730" t="s">
+        <v>340</v>
+      </c>
+      <c r="E730" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A731" t="s">
+        <v>886</v>
+      </c>
+      <c r="B731" t="s">
+        <v>896</v>
+      </c>
+      <c r="C731" t="s">
+        <v>463</v>
+      </c>
+      <c r="D731" t="s">
+        <v>340</v>
+      </c>
+      <c r="E731" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A732" t="s">
+        <v>886</v>
+      </c>
+      <c r="B732" t="s">
+        <v>897</v>
+      </c>
+      <c r="C732" t="s">
+        <v>463</v>
+      </c>
+      <c r="D732" t="s">
+        <v>340</v>
+      </c>
+      <c r="E732" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A733" t="s">
+        <v>886</v>
+      </c>
+      <c r="B733" t="s">
+        <v>898</v>
+      </c>
+      <c r="C733" t="s">
+        <v>463</v>
+      </c>
+      <c r="D733" t="s">
+        <v>340</v>
+      </c>
+      <c r="E733" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A734" t="s">
+        <v>886</v>
+      </c>
+      <c r="B734" t="s">
+        <v>899</v>
+      </c>
+      <c r="C734" t="s">
+        <v>463</v>
+      </c>
+      <c r="D734" t="s">
+        <v>340</v>
+      </c>
+      <c r="E734" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A735" t="s">
+        <v>886</v>
+      </c>
+      <c r="B735" t="s">
+        <v>900</v>
+      </c>
+      <c r="C735" t="s">
+        <v>463</v>
+      </c>
+      <c r="D735" t="s">
+        <v>340</v>
+      </c>
+      <c r="E735" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A736" t="s">
+        <v>886</v>
+      </c>
+      <c r="B736" t="s">
+        <v>901</v>
+      </c>
+      <c r="C736" t="s">
+        <v>463</v>
+      </c>
+      <c r="D736" t="s">
+        <v>340</v>
+      </c>
+      <c r="E736" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="737" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A737" t="s">
+        <v>886</v>
+      </c>
+      <c r="B737" t="s">
+        <v>902</v>
+      </c>
+      <c r="C737" t="s">
+        <v>463</v>
+      </c>
+      <c r="D737" t="s">
+        <v>340</v>
+      </c>
+      <c r="E737" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="738" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A738" t="s">
+        <v>886</v>
+      </c>
+      <c r="B738" t="s">
+        <v>903</v>
+      </c>
+      <c r="C738" t="s">
+        <v>463</v>
+      </c>
+      <c r="D738" t="s">
+        <v>340</v>
+      </c>
+      <c r="E738" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="739" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A739" t="s">
+        <v>886</v>
+      </c>
+      <c r="B739" t="s">
+        <v>904</v>
+      </c>
+      <c r="C739" t="s">
+        <v>463</v>
+      </c>
+      <c r="D739" t="s">
+        <v>340</v>
+      </c>
+      <c r="E739" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="740" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A740" t="s">
+        <v>886</v>
+      </c>
+      <c r="B740" t="s">
+        <v>905</v>
+      </c>
+      <c r="C740" t="s">
+        <v>463</v>
+      </c>
+      <c r="D740" t="s">
+        <v>340</v>
+      </c>
+      <c r="E740" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="741" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A741" t="s">
+        <v>886</v>
+      </c>
+      <c r="B741" t="s">
+        <v>906</v>
+      </c>
+      <c r="C741" t="s">
+        <v>463</v>
+      </c>
+      <c r="D741" t="s">
+        <v>340</v>
+      </c>
+      <c r="E741" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="742" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A742" t="s">
+        <v>886</v>
+      </c>
+      <c r="B742" t="s">
+        <v>907</v>
+      </c>
+      <c r="C742" t="s">
+        <v>463</v>
+      </c>
+      <c r="D742" t="s">
+        <v>340</v>
+      </c>
+      <c r="E742" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="743" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A743" t="s">
+        <v>886</v>
+      </c>
+      <c r="B743" t="s">
+        <v>908</v>
+      </c>
+      <c r="C743" t="s">
+        <v>463</v>
+      </c>
+      <c r="D743" t="s">
+        <v>340</v>
+      </c>
+      <c r="E743" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="744" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A744" t="s">
+        <v>886</v>
+      </c>
+      <c r="B744" t="s">
+        <v>909</v>
+      </c>
+      <c r="C744" t="s">
+        <v>463</v>
+      </c>
+      <c r="D744" t="s">
+        <v>340</v>
+      </c>
+      <c r="E744" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="745" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A745" t="s">
+        <v>886</v>
+      </c>
+      <c r="B745" t="s">
+        <v>910</v>
+      </c>
+      <c r="C745" t="s">
+        <v>463</v>
+      </c>
+      <c r="D745" t="s">
+        <v>340</v>
+      </c>
+      <c r="E745" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="746" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A746" t="s">
+        <v>886</v>
+      </c>
+      <c r="B746" t="s">
+        <v>911</v>
+      </c>
+      <c r="C746" t="s">
+        <v>463</v>
+      </c>
+      <c r="D746" t="s">
+        <v>340</v>
+      </c>
+      <c r="E746" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="747" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A747" t="s">
+        <v>886</v>
+      </c>
+      <c r="B747" t="s">
+        <v>912</v>
+      </c>
+      <c r="C747" t="s">
+        <v>463</v>
+      </c>
+      <c r="D747" t="s">
+        <v>340</v>
+      </c>
+      <c r="E747" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="748" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A748" t="s">
+        <v>886</v>
+      </c>
+      <c r="B748" t="s">
+        <v>913</v>
+      </c>
+      <c r="C748" t="s">
+        <v>463</v>
+      </c>
+      <c r="D748" t="s">
+        <v>340</v>
+      </c>
+      <c r="E748" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="749" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A749" t="s">
+        <v>886</v>
+      </c>
+      <c r="B749" t="s">
+        <v>914</v>
+      </c>
+      <c r="C749" t="s">
+        <v>463</v>
+      </c>
+      <c r="D749" t="s">
+        <v>340</v>
+      </c>
+      <c r="E749" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="750" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A750" t="s">
+        <v>886</v>
+      </c>
+      <c r="B750" t="s">
+        <v>894</v>
+      </c>
+      <c r="C750" t="s">
+        <v>463</v>
+      </c>
+      <c r="D750" t="s">
+        <v>340</v>
+      </c>
+      <c r="E750" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="751" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A751" t="s">
+        <v>887</v>
+      </c>
+      <c r="B751" t="s">
+        <v>916</v>
+      </c>
+      <c r="C751" t="s">
+        <v>422</v>
+      </c>
+      <c r="D751" t="s">
+        <v>340</v>
+      </c>
+      <c r="E751" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="752" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A752" t="s">
+        <v>887</v>
+      </c>
+      <c r="B752" t="s">
+        <v>917</v>
+      </c>
+      <c r="C752" t="s">
+        <v>422</v>
+      </c>
+      <c r="D752" t="s">
+        <v>340</v>
+      </c>
+      <c r="E752" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="753" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A753" t="s">
+        <v>887</v>
+      </c>
+      <c r="B753" t="s">
+        <v>918</v>
+      </c>
+      <c r="C753" t="s">
+        <v>422</v>
+      </c>
+      <c r="D753" t="s">
+        <v>340</v>
+      </c>
+      <c r="E753" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="754" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A754" t="s">
+        <v>887</v>
+      </c>
+      <c r="B754" t="s">
+        <v>919</v>
+      </c>
+      <c r="C754" t="s">
+        <v>422</v>
+      </c>
+      <c r="D754" t="s">
+        <v>340</v>
+      </c>
+      <c r="E754" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="755" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A755" t="s">
+        <v>887</v>
+      </c>
+      <c r="B755" t="s">
+        <v>920</v>
+      </c>
+      <c r="C755" t="s">
+        <v>422</v>
+      </c>
+      <c r="D755" t="s">
+        <v>340</v>
+      </c>
+      <c r="E755" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="756" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A756" t="s">
+        <v>887</v>
+      </c>
+      <c r="B756" t="s">
+        <v>921</v>
+      </c>
+      <c r="C756" t="s">
+        <v>422</v>
+      </c>
+      <c r="D756" t="s">
+        <v>340</v>
+      </c>
+      <c r="E756" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="757" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A757" t="s">
+        <v>887</v>
+      </c>
+      <c r="B757" t="s">
+        <v>915</v>
+      </c>
+      <c r="C757" t="s">
+        <v>422</v>
+      </c>
+      <c r="D757" t="s">
+        <v>340</v>
+      </c>
+      <c r="E757" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="758" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A758" t="s">
+        <v>930</v>
+      </c>
+      <c r="B758" t="s">
+        <v>922</v>
+      </c>
+      <c r="C758" t="s">
+        <v>876</v>
+      </c>
+      <c r="D758" t="s">
+        <v>877</v>
+      </c>
+      <c r="E758" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="759" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A759" t="s">
+        <v>930</v>
+      </c>
+      <c r="B759" t="s">
+        <v>923</v>
+      </c>
+      <c r="C759" t="s">
+        <v>876</v>
+      </c>
+      <c r="D759" t="s">
+        <v>877</v>
+      </c>
+      <c r="E759" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="760" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A760" t="s">
+        <v>930</v>
+      </c>
+      <c r="B760" t="s">
+        <v>924</v>
+      </c>
+      <c r="C760" t="s">
+        <v>876</v>
+      </c>
+      <c r="D760" t="s">
+        <v>877</v>
+      </c>
+      <c r="E760" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="761" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A761" t="s">
+        <v>930</v>
+      </c>
+      <c r="B761" t="s">
+        <v>925</v>
+      </c>
+      <c r="C761" t="s">
+        <v>876</v>
+      </c>
+      <c r="D761" t="s">
+        <v>877</v>
+      </c>
+      <c r="E761" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="762" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A762" t="s">
+        <v>930</v>
+      </c>
+      <c r="B762" t="s">
+        <v>926</v>
+      </c>
+      <c r="C762" t="s">
+        <v>876</v>
+      </c>
+      <c r="D762" t="s">
+        <v>877</v>
+      </c>
+      <c r="E762" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="763" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A763" t="s">
+        <v>930</v>
+      </c>
+      <c r="B763" t="s">
+        <v>927</v>
+      </c>
+      <c r="C763" t="s">
+        <v>876</v>
+      </c>
+      <c r="D763" t="s">
+        <v>877</v>
+      </c>
+      <c r="E763" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="764" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A764" t="s">
+        <v>930</v>
+      </c>
+      <c r="B764" t="s">
+        <v>928</v>
+      </c>
+      <c r="C764" t="s">
+        <v>876</v>
+      </c>
+      <c r="D764" t="s">
+        <v>877</v>
+      </c>
+      <c r="E764" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="765" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A765" t="s">
+        <v>930</v>
+      </c>
+      <c r="B765" t="s">
+        <v>929</v>
+      </c>
+      <c r="C765" t="s">
+        <v>876</v>
+      </c>
+      <c r="D765" t="s">
+        <v>877</v>
+      </c>
+      <c r="E765" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="766" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A766" t="s">
+        <v>931</v>
+      </c>
+      <c r="B766" t="s">
+        <v>933</v>
+      </c>
+      <c r="C766" t="s">
+        <v>876</v>
+      </c>
+      <c r="D766" t="s">
+        <v>877</v>
+      </c>
+      <c r="E766" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="767" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A767" t="s">
+        <v>931</v>
+      </c>
+      <c r="B767" t="s">
+        <v>932</v>
+      </c>
+      <c r="C767" t="s">
+        <v>876</v>
+      </c>
+      <c r="D767" t="s">
+        <v>877</v>
+      </c>
+      <c r="E767" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="768" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A768" t="s">
+        <v>934</v>
+      </c>
+      <c r="B768" s="6" t="s">
+        <v>936</v>
+      </c>
+      <c r="C768" t="s">
+        <v>876</v>
+      </c>
+      <c r="D768" t="s">
+        <v>877</v>
+      </c>
+      <c r="E768" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="769" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A769" t="s">
+        <v>934</v>
+      </c>
+      <c r="B769" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C769" t="s">
+        <v>876</v>
+      </c>
+      <c r="D769" t="s">
+        <v>877</v>
+      </c>
+      <c r="E769" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="770" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A770" t="s">
+        <v>934</v>
+      </c>
+      <c r="B770" s="6" t="s">
+        <v>938</v>
+      </c>
+      <c r="C770" t="s">
+        <v>876</v>
+      </c>
+      <c r="D770" t="s">
+        <v>877</v>
+      </c>
+      <c r="E770" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="771" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A771" t="s">
+        <v>934</v>
+      </c>
+      <c r="B771" s="6" t="s">
+        <v>939</v>
+      </c>
+      <c r="C771" t="s">
+        <v>876</v>
+      </c>
+      <c r="D771" t="s">
+        <v>877</v>
+      </c>
+      <c r="E771" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="772" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A772" t="s">
+        <v>934</v>
+      </c>
+      <c r="B772" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="C772" t="s">
+        <v>876</v>
+      </c>
+      <c r="D772" t="s">
+        <v>877</v>
+      </c>
+      <c r="E772" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="773" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A773" t="s">
+        <v>934</v>
+      </c>
+      <c r="B773" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="C773" t="s">
+        <v>876</v>
+      </c>
+      <c r="D773" t="s">
+        <v>877</v>
+      </c>
+      <c r="E773" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="774" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A774" t="s">
+        <v>934</v>
+      </c>
+      <c r="B774" s="6" t="s">
+        <v>942</v>
+      </c>
+      <c r="C774" t="s">
+        <v>876</v>
+      </c>
+      <c r="D774" t="s">
+        <v>877</v>
+      </c>
+      <c r="E774" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="775" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A775" t="s">
+        <v>934</v>
+      </c>
+      <c r="B775" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="C775" t="s">
+        <v>876</v>
+      </c>
+      <c r="D775" t="s">
+        <v>877</v>
+      </c>
+      <c r="E775" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="776" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A776" t="s">
+        <v>934</v>
+      </c>
+      <c r="B776" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="C776" t="s">
+        <v>876</v>
+      </c>
+      <c r="D776" t="s">
+        <v>877</v>
+      </c>
+      <c r="E776" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="777" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A777" t="s">
+        <v>934</v>
+      </c>
+      <c r="B777" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="C777" t="s">
+        <v>876</v>
+      </c>
+      <c r="D777" t="s">
+        <v>877</v>
+      </c>
+      <c r="E777" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="778" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A778" t="s">
+        <v>945</v>
+      </c>
+      <c r="B778" t="s">
+        <v>947</v>
+      </c>
+      <c r="C778" t="s">
+        <v>876</v>
+      </c>
+      <c r="D778" t="s">
+        <v>877</v>
+      </c>
+      <c r="E778" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="779" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A779" t="s">
+        <v>945</v>
+      </c>
+      <c r="B779" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C779" t="s">
+        <v>876</v>
+      </c>
+      <c r="D779" t="s">
+        <v>877</v>
+      </c>
+      <c r="E779" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="780" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A780" t="s">
+        <v>945</v>
+      </c>
+      <c r="B780" t="s">
+        <v>946</v>
+      </c>
+      <c r="C780" t="s">
+        <v>876</v>
+      </c>
+      <c r="D780" t="s">
+        <v>877</v>
+      </c>
+      <c r="E780" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="781" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A781" t="s">
+        <v>948</v>
+      </c>
+      <c r="B781" t="s">
+        <v>950</v>
+      </c>
+      <c r="C781" t="s">
+        <v>968</v>
+      </c>
+      <c r="D781" t="s">
+        <v>877</v>
+      </c>
+      <c r="E781" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="782" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A782" t="s">
+        <v>948</v>
+      </c>
+      <c r="B782" t="s">
+        <v>951</v>
+      </c>
+      <c r="C782" t="s">
+        <v>968</v>
+      </c>
+      <c r="D782" t="s">
+        <v>877</v>
+      </c>
+      <c r="E782" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="783" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A783" t="s">
+        <v>948</v>
+      </c>
+      <c r="B783" t="s">
+        <v>952</v>
+      </c>
+      <c r="C783" t="s">
+        <v>968</v>
+      </c>
+      <c r="D783" t="s">
+        <v>877</v>
+      </c>
+      <c r="E783" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="784" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A784" t="s">
+        <v>948</v>
+      </c>
+      <c r="B784" t="s">
+        <v>953</v>
+      </c>
+      <c r="C784" t="s">
+        <v>968</v>
+      </c>
+      <c r="D784" t="s">
+        <v>877</v>
+      </c>
+      <c r="E784" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A785" t="s">
+        <v>948</v>
+      </c>
+      <c r="B785" t="s">
+        <v>954</v>
+      </c>
+      <c r="C785" t="s">
+        <v>968</v>
+      </c>
+      <c r="D785" t="s">
+        <v>877</v>
+      </c>
+      <c r="E785" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A786" t="s">
+        <v>948</v>
+      </c>
+      <c r="B786" t="s">
+        <v>955</v>
+      </c>
+      <c r="C786" t="s">
+        <v>968</v>
+      </c>
+      <c r="D786" t="s">
+        <v>877</v>
+      </c>
+      <c r="E786" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A787" t="s">
+        <v>948</v>
+      </c>
+      <c r="B787" t="s">
+        <v>956</v>
+      </c>
+      <c r="C787" t="s">
+        <v>968</v>
+      </c>
+      <c r="D787" t="s">
+        <v>877</v>
+      </c>
+      <c r="E787" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A788" t="s">
+        <v>948</v>
+      </c>
+      <c r="B788" t="s">
+        <v>957</v>
+      </c>
+      <c r="C788" t="s">
+        <v>968</v>
+      </c>
+      <c r="D788" t="s">
+        <v>877</v>
+      </c>
+      <c r="E788" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A789" t="s">
+        <v>948</v>
+      </c>
+      <c r="B789" t="s">
+        <v>958</v>
+      </c>
+      <c r="C789" t="s">
+        <v>968</v>
+      </c>
+      <c r="D789" t="s">
+        <v>877</v>
+      </c>
+      <c r="E789" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A790" t="s">
+        <v>948</v>
+      </c>
+      <c r="B790" t="s">
+        <v>959</v>
+      </c>
+      <c r="C790" t="s">
+        <v>968</v>
+      </c>
+      <c r="D790" t="s">
+        <v>877</v>
+      </c>
+      <c r="E790" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="791" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A791" t="s">
+        <v>948</v>
+      </c>
+      <c r="B791" t="s">
+        <v>960</v>
+      </c>
+      <c r="C791" t="s">
+        <v>968</v>
+      </c>
+      <c r="D791" t="s">
+        <v>877</v>
+      </c>
+      <c r="E791" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="792" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A792" t="s">
+        <v>948</v>
+      </c>
+      <c r="B792" t="s">
+        <v>961</v>
+      </c>
+      <c r="C792" t="s">
+        <v>968</v>
+      </c>
+      <c r="D792" t="s">
+        <v>877</v>
+      </c>
+      <c r="E792" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="793" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A793" t="s">
+        <v>948</v>
+      </c>
+      <c r="B793" t="s">
+        <v>962</v>
+      </c>
+      <c r="C793" t="s">
+        <v>968</v>
+      </c>
+      <c r="D793" t="s">
+        <v>877</v>
+      </c>
+      <c r="E793" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="794" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A794" t="s">
+        <v>948</v>
+      </c>
+      <c r="B794" t="s">
+        <v>963</v>
+      </c>
+      <c r="C794" t="s">
+        <v>968</v>
+      </c>
+      <c r="D794" t="s">
+        <v>877</v>
+      </c>
+      <c r="E794" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A795" t="s">
+        <v>948</v>
+      </c>
+      <c r="B795" t="s">
+        <v>964</v>
+      </c>
+      <c r="C795" t="s">
+        <v>968</v>
+      </c>
+      <c r="D795" t="s">
+        <v>877</v>
+      </c>
+      <c r="E795" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A796" t="s">
+        <v>948</v>
+      </c>
+      <c r="B796" t="s">
+        <v>965</v>
+      </c>
+      <c r="C796" t="s">
+        <v>968</v>
+      </c>
+      <c r="D796" t="s">
+        <v>877</v>
+      </c>
+      <c r="E796" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A797" t="s">
+        <v>948</v>
+      </c>
+      <c r="B797" t="s">
+        <v>966</v>
+      </c>
+      <c r="C797" t="s">
+        <v>968</v>
+      </c>
+      <c r="D797" t="s">
+        <v>877</v>
+      </c>
+      <c r="E797" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="798" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A798" t="s">
+        <v>948</v>
+      </c>
+      <c r="B798" t="s">
+        <v>967</v>
+      </c>
+      <c r="C798" t="s">
+        <v>968</v>
+      </c>
+      <c r="D798" t="s">
+        <v>877</v>
+      </c>
+      <c r="E798" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A799" t="s">
+        <v>948</v>
+      </c>
+      <c r="B799" t="s">
+        <v>949</v>
+      </c>
+      <c r="C799" t="s">
+        <v>968</v>
+      </c>
+      <c r="D799" t="s">
+        <v>877</v>
+      </c>
+      <c r="E799" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A800" t="s">
+        <v>969</v>
+      </c>
+      <c r="B800" t="s">
+        <v>971</v>
+      </c>
+      <c r="C800" t="s">
+        <v>876</v>
+      </c>
+      <c r="D800" t="s">
+        <v>877</v>
+      </c>
+      <c r="E800" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="801" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A801" t="s">
+        <v>969</v>
+      </c>
+      <c r="B801" t="s">
+        <v>972</v>
+      </c>
+      <c r="C801" t="s">
+        <v>876</v>
+      </c>
+      <c r="D801" t="s">
+        <v>877</v>
+      </c>
+      <c r="E801" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="802" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A802" t="s">
+        <v>969</v>
+      </c>
+      <c r="B802" t="s">
+        <v>973</v>
+      </c>
+      <c r="C802" t="s">
+        <v>876</v>
+      </c>
+      <c r="D802" t="s">
+        <v>877</v>
+      </c>
+      <c r="E802" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="803" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A803" t="s">
+        <v>969</v>
+      </c>
+      <c r="B803" t="s">
+        <v>970</v>
+      </c>
+      <c r="C803" t="s">
+        <v>876</v>
+      </c>
+      <c r="D803" t="s">
+        <v>877</v>
+      </c>
+      <c r="E803" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="804" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A804" t="s">
+        <v>969</v>
+      </c>
+      <c r="B804" t="s">
+        <v>974</v>
+      </c>
+      <c r="C804" t="s">
+        <v>876</v>
+      </c>
+      <c r="D804" t="s">
+        <v>877</v>
+      </c>
+      <c r="E804" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="805" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A805" t="s">
+        <v>969</v>
+      </c>
+      <c r="B805" t="s">
+        <v>975</v>
+      </c>
+      <c r="C805" t="s">
+        <v>876</v>
+      </c>
+      <c r="D805" t="s">
+        <v>877</v>
+      </c>
+      <c r="E805" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="806" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A806" t="s">
+        <v>976</v>
+      </c>
+      <c r="B806" t="s">
+        <v>979</v>
+      </c>
+      <c r="C806" t="s">
+        <v>977</v>
+      </c>
+      <c r="D806" t="s">
+        <v>877</v>
+      </c>
+      <c r="E806" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="807" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A807" t="s">
+        <v>976</v>
+      </c>
+      <c r="B807" t="s">
+        <v>980</v>
+      </c>
+      <c r="C807" t="s">
+        <v>977</v>
+      </c>
+      <c r="D807" t="s">
+        <v>877</v>
+      </c>
+      <c r="E807" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="808" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A808" t="s">
+        <v>976</v>
+      </c>
+      <c r="B808" t="s">
+        <v>981</v>
+      </c>
+      <c r="C808" t="s">
+        <v>977</v>
+      </c>
+      <c r="D808" t="s">
+        <v>877</v>
+      </c>
+      <c r="E808" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="809" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A809" t="s">
+        <v>976</v>
+      </c>
+      <c r="B809" t="s">
+        <v>982</v>
+      </c>
+      <c r="C809" t="s">
+        <v>977</v>
+      </c>
+      <c r="D809" t="s">
+        <v>877</v>
+      </c>
+      <c r="E809" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="810" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A810" t="s">
+        <v>976</v>
+      </c>
+      <c r="B810" t="s">
+        <v>983</v>
+      </c>
+      <c r="C810" t="s">
+        <v>977</v>
+      </c>
+      <c r="D810" t="s">
+        <v>877</v>
+      </c>
+      <c r="E810" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="811" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A811" t="s">
+        <v>976</v>
+      </c>
+      <c r="B811" t="s">
+        <v>984</v>
+      </c>
+      <c r="C811" t="s">
+        <v>977</v>
+      </c>
+      <c r="D811" t="s">
+        <v>877</v>
+      </c>
+      <c r="E811" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="812" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A812" t="s">
+        <v>976</v>
+      </c>
+      <c r="B812" t="s">
+        <v>985</v>
+      </c>
+      <c r="C812" t="s">
+        <v>977</v>
+      </c>
+      <c r="D812" t="s">
+        <v>877</v>
+      </c>
+      <c r="E812" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="813" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A813" t="s">
+        <v>976</v>
+      </c>
+      <c r="B813" t="s">
+        <v>986</v>
+      </c>
+      <c r="C813" t="s">
+        <v>977</v>
+      </c>
+      <c r="D813" t="s">
+        <v>877</v>
+      </c>
+      <c r="E813" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="814" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A814" t="s">
+        <v>976</v>
+      </c>
+      <c r="B814" t="s">
+        <v>987</v>
+      </c>
+      <c r="C814" t="s">
+        <v>977</v>
+      </c>
+      <c r="D814" t="s">
+        <v>877</v>
+      </c>
+      <c r="E814" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="815" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A815" t="s">
+        <v>976</v>
+      </c>
+      <c r="B815" t="s">
+        <v>988</v>
+      </c>
+      <c r="C815" t="s">
+        <v>977</v>
+      </c>
+      <c r="D815" t="s">
+        <v>877</v>
+      </c>
+      <c r="E815" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="816" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A816" t="s">
+        <v>976</v>
+      </c>
+      <c r="B816" t="s">
+        <v>978</v>
+      </c>
+      <c r="C816" t="s">
+        <v>977</v>
+      </c>
+      <c r="D816" t="s">
+        <v>877</v>
+      </c>
+      <c r="E816" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="817" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A817" t="s">
+        <v>976</v>
+      </c>
+      <c r="B817" t="s">
+        <v>990</v>
+      </c>
+      <c r="C817" t="s">
+        <v>977</v>
+      </c>
+      <c r="D817" t="s">
+        <v>877</v>
+      </c>
+      <c r="E817" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="818" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A818" t="s">
+        <v>976</v>
+      </c>
+      <c r="B818" t="s">
+        <v>991</v>
+      </c>
+      <c r="C818" t="s">
+        <v>977</v>
+      </c>
+      <c r="D818" t="s">
+        <v>877</v>
+      </c>
+      <c r="E818" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="819" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A819" t="s">
+        <v>976</v>
+      </c>
+      <c r="B819" t="s">
+        <v>992</v>
+      </c>
+      <c r="C819" t="s">
+        <v>977</v>
+      </c>
+      <c r="D819" t="s">
+        <v>877</v>
+      </c>
+      <c r="E819" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="820" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A820" t="s">
+        <v>976</v>
+      </c>
+      <c r="B820" t="s">
+        <v>993</v>
+      </c>
+      <c r="C820" t="s">
+        <v>977</v>
+      </c>
+      <c r="D820" t="s">
+        <v>877</v>
+      </c>
+      <c r="E820" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="821" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A821" t="s">
+        <v>976</v>
+      </c>
+      <c r="B821" t="s">
+        <v>994</v>
+      </c>
+      <c r="C821" t="s">
+        <v>977</v>
+      </c>
+      <c r="D821" t="s">
+        <v>877</v>
+      </c>
+      <c r="E821" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="822" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A822" t="s">
+        <v>976</v>
+      </c>
+      <c r="B822" t="s">
+        <v>995</v>
+      </c>
+      <c r="C822" t="s">
+        <v>977</v>
+      </c>
+      <c r="D822" t="s">
+        <v>877</v>
+      </c>
+      <c r="E822" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="823" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A823" t="s">
+        <v>976</v>
+      </c>
+      <c r="B823" t="s">
+        <v>996</v>
+      </c>
+      <c r="C823" t="s">
+        <v>977</v>
+      </c>
+      <c r="D823" t="s">
+        <v>877</v>
+      </c>
+      <c r="E823" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="824" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A824" t="s">
+        <v>976</v>
+      </c>
+      <c r="B824" t="s">
+        <v>997</v>
+      </c>
+      <c r="C824" t="s">
+        <v>977</v>
+      </c>
+      <c r="D824" t="s">
+        <v>877</v>
+      </c>
+      <c r="E824" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="825" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A825" t="s">
+        <v>976</v>
+      </c>
+      <c r="B825" t="s">
+        <v>998</v>
+      </c>
+      <c r="C825" t="s">
+        <v>977</v>
+      </c>
+      <c r="D825" t="s">
+        <v>877</v>
+      </c>
+      <c r="E825" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="826" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A826" t="s">
+        <v>976</v>
+      </c>
+      <c r="B826" t="s">
+        <v>989</v>
+      </c>
+      <c r="C826" t="s">
+        <v>977</v>
+      </c>
+      <c r="D826" t="s">
+        <v>877</v>
+      </c>
+      <c r="E826" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="827" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A827" t="s">
+        <v>999</v>
+      </c>
+      <c r="B827" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D827" t="s">
+        <v>877</v>
+      </c>
+      <c r="E827" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="828" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A828" t="s">
+        <v>999</v>
+      </c>
+      <c r="B828" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D828" t="s">
+        <v>877</v>
+      </c>
+      <c r="E828" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="829" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A829" t="s">
+        <v>999</v>
+      </c>
+      <c r="B829" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D829" t="s">
+        <v>877</v>
+      </c>
+      <c r="E829" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="830" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A830" t="s">
+        <v>999</v>
+      </c>
+      <c r="B830" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D830" t="s">
+        <v>877</v>
+      </c>
+      <c r="E830" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="831" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A831" t="s">
+        <v>999</v>
+      </c>
+      <c r="B831" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D831" t="s">
+        <v>877</v>
+      </c>
+      <c r="E831" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="832" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A832" t="s">
+        <v>999</v>
+      </c>
+      <c r="B832" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D832" t="s">
+        <v>877</v>
+      </c>
+      <c r="E832" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="833" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A833" t="s">
+        <v>999</v>
+      </c>
+      <c r="B833" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D833" t="s">
+        <v>877</v>
+      </c>
+      <c r="E833" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="834" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A834" t="s">
+        <v>999</v>
+      </c>
+      <c r="B834" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D834" t="s">
+        <v>877</v>
+      </c>
+      <c r="E834" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="835" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A835" t="s">
+        <v>999</v>
+      </c>
+      <c r="B835" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D835" t="s">
+        <v>877</v>
+      </c>
+      <c r="E835" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="836" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A836" t="s">
+        <v>999</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D836" t="s">
+        <v>877</v>
+      </c>
+      <c r="E836" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="837" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A837" t="s">
+        <v>999</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D837" t="s">
+        <v>877</v>
+      </c>
+      <c r="E837" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="838" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A838" t="s">
+        <v>999</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D838" t="s">
+        <v>877</v>
+      </c>
+      <c r="E838" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="839" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A839" t="s">
+        <v>999</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D839" t="s">
+        <v>877</v>
+      </c>
+      <c r="E839" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="840" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A840" t="s">
+        <v>999</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D840" t="s">
+        <v>877</v>
+      </c>
+      <c r="E840" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="841" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A841" t="s">
+        <v>999</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D841" t="s">
+        <v>877</v>
+      </c>
+      <c r="E841" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="842" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A842" t="s">
+        <v>999</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D842" t="s">
+        <v>877</v>
+      </c>
+      <c r="E842" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="843" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A843" t="s">
+        <v>999</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D843" t="s">
+        <v>877</v>
+      </c>
+      <c r="E843" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="844" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A844" t="s">
+        <v>999</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D844" t="s">
+        <v>877</v>
+      </c>
+      <c r="E844" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="845" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A845" t="s">
+        <v>999</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D845" t="s">
+        <v>877</v>
+      </c>
+      <c r="E845" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="846" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A846" t="s">
+        <v>999</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D846" t="s">
+        <v>877</v>
+      </c>
+      <c r="E846" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="847" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A847" t="s">
+        <v>999</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D847" t="s">
+        <v>877</v>
+      </c>
+      <c r="E847" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="848" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A848" t="s">
+        <v>999</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D848" t="s">
+        <v>877</v>
+      </c>
+      <c r="E848" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="849" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A849" t="s">
+        <v>999</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D849" t="s">
+        <v>877</v>
+      </c>
+      <c r="E849" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="850" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A850" t="s">
+        <v>999</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D850" t="s">
+        <v>877</v>
+      </c>
+      <c r="E850" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="851" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A851" t="s">
+        <v>999</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D851" t="s">
+        <v>877</v>
+      </c>
+      <c r="E851" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="852" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A852" t="s">
+        <v>999</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C852" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D852" t="s">
+        <v>877</v>
+      </c>
+      <c r="E852" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="853" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A853" t="s">
+        <v>999</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C853" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D853" t="s">
+        <v>877</v>
+      </c>
+      <c r="E853" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="854" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A854" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C854" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D854" t="s">
+        <v>877</v>
+      </c>
+      <c r="E854" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="855" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A855" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C855" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D855" t="s">
+        <v>877</v>
+      </c>
+      <c r="E855" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="856" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A856" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C856" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D856" t="s">
+        <v>877</v>
+      </c>
+      <c r="E856" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="857" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A857" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C857" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D857" t="s">
+        <v>877</v>
+      </c>
+      <c r="E857" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="858" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A858" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C858" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D858" t="s">
+        <v>877</v>
+      </c>
+      <c r="E858" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="859" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A859" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C859" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D859" t="s">
+        <v>877</v>
+      </c>
+      <c r="E859" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="860" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A860" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C860" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D860" t="s">
+        <v>877</v>
+      </c>
+      <c r="E860" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="861" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A861" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C861" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D861" t="s">
+        <v>877</v>
+      </c>
+      <c r="E861" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="862" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A862" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C862" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D862" t="s">
+        <v>877</v>
+      </c>
+      <c r="E862" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="863" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A863" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C863" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D863" t="s">
+        <v>877</v>
+      </c>
+      <c r="E863" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="864" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A864" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C864" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D864" t="s">
+        <v>877</v>
+      </c>
+      <c r="E864" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="865" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A865" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C865" t="s">
+        <v>876</v>
+      </c>
+      <c r="D865" t="s">
+        <v>877</v>
+      </c>
+      <c r="E865" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="866" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A866" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C866" t="s">
+        <v>876</v>
+      </c>
+      <c r="D866" t="s">
+        <v>877</v>
+      </c>
+      <c r="E866" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="867" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A867" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C867" t="s">
+        <v>876</v>
+      </c>
+      <c r="D867" t="s">
+        <v>877</v>
+      </c>
+      <c r="E867" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="868" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A868" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C868" t="s">
+        <v>876</v>
+      </c>
+      <c r="D868" t="s">
+        <v>877</v>
+      </c>
+      <c r="E868" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="869" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A869" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C869" t="s">
+        <v>876</v>
+      </c>
+      <c r="D869" t="s">
+        <v>877</v>
+      </c>
+      <c r="E869" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="870" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A870" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="871" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A871" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="872" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A872" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="873" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A873" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="874" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A874" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="875" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A875" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="876" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A876" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="877" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A877" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="878" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A878" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="879" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A879" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="880" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A880" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1057</v>
       </c>
     </row>
   </sheetData>

--- a/album_list.xlsx
+++ b/album_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Coding\Play\Rap_Lyrics\lyricsNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E115D4CA-FFE2-4E38-97F3-3AED5EC15C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F90F178-D165-4D0C-8480-CB7416C57DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4347" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5353" uniqueCount="1280">
   <si>
     <t>Artist</t>
   </si>
@@ -3210,6 +3210,672 @@
   </si>
   <si>
     <t>DJ Quik</t>
+  </si>
+  <si>
+    <t>Mos Def</t>
+  </si>
+  <si>
+    <t>Talib Kweli</t>
+  </si>
+  <si>
+    <t>Arrested Development</t>
+  </si>
+  <si>
+    <t>Coast Contra</t>
+  </si>
+  <si>
+    <t>Afroman</t>
+  </si>
+  <si>
+    <t>Childish Gambino</t>
+  </si>
+  <si>
+    <t>Lil Dicky</t>
+  </si>
+  <si>
+    <t>The Cool Kids</t>
+  </si>
+  <si>
+    <t>Del The Funky Homosapien</t>
+  </si>
+  <si>
+    <t>A$AP Rocky</t>
+  </si>
+  <si>
+    <t>Goldlink</t>
+  </si>
+  <si>
+    <t>Action Bronson</t>
+  </si>
+  <si>
+    <t>Jurassic 5</t>
+  </si>
+  <si>
+    <t>Raekwon</t>
+  </si>
+  <si>
+    <t>People Under the Stairs</t>
+  </si>
+  <si>
+    <t>Victory Lap</t>
+  </si>
+  <si>
+    <t>The Marathon</t>
+  </si>
+  <si>
+    <t>The Marathon Continues</t>
+  </si>
+  <si>
+    <t>Crenshaw</t>
+  </si>
+  <si>
+    <t>Mailbox Money</t>
+  </si>
+  <si>
+    <t>Slauson Boy 2</t>
+  </si>
+  <si>
+    <t>Drillmatic – Heart vs. Mind</t>
+  </si>
+  <si>
+    <t>Untold Story</t>
+  </si>
+  <si>
+    <t>The Documentary</t>
+  </si>
+  <si>
+    <t>Doctor's Advocate</t>
+  </si>
+  <si>
+    <t>LAX</t>
+  </si>
+  <si>
+    <t>The R.E.D. Album</t>
+  </si>
+  <si>
+    <t>Jesus Piece</t>
+  </si>
+  <si>
+    <t>The Documentary 2</t>
+  </si>
+  <si>
+    <t>The Documentary 2.5</t>
+  </si>
+  <si>
+    <t>Born 2 Rap</t>
+  </si>
+  <si>
+    <t>Napalm</t>
+  </si>
+  <si>
+    <t>At the Speed of Life</t>
+  </si>
+  <si>
+    <t>40 Dayz &amp; 40 Nightz</t>
+  </si>
+  <si>
+    <t>Restless</t>
+  </si>
+  <si>
+    <t>Man vs. Machine</t>
+  </si>
+  <si>
+    <t>Weapons of Mass Destruction</t>
+  </si>
+  <si>
+    <t>Full Circle</t>
+  </si>
+  <si>
+    <t>High Maintenance</t>
+  </si>
+  <si>
+    <t>Icy</t>
+  </si>
+  <si>
+    <t>Pretty Summer Playlist: Season 1</t>
+  </si>
+  <si>
+    <t>Ramona Park Broke My Heart</t>
+  </si>
+  <si>
+    <t>Summertime '06</t>
+  </si>
+  <si>
+    <t>Big Fish Theory</t>
+  </si>
+  <si>
+    <t>FM!</t>
+  </si>
+  <si>
+    <t>Call Me If You Get Lost</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Wolf</t>
+  </si>
+  <si>
+    <t>Cherry Bomb</t>
+  </si>
+  <si>
+    <t>Flower Boy</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>The G Files</t>
+  </si>
+  <si>
+    <t>Regulate... G Funk Era</t>
+  </si>
+  <si>
+    <t>Take a Look Over Your Shoulder</t>
+  </si>
+  <si>
+    <t>I Want It All</t>
+  </si>
+  <si>
+    <t>The Return of the Regulator</t>
+  </si>
+  <si>
+    <t>In the Mid-Nite Hour</t>
+  </si>
+  <si>
+    <t>Follow Me Home</t>
+  </si>
+  <si>
+    <t>Redemption</t>
+  </si>
+  <si>
+    <t>DanceJamtheMusic</t>
+  </si>
+  <si>
+    <t>Feel My Power</t>
+  </si>
+  <si>
+    <t>Let's Get It Started</t>
+  </si>
+  <si>
+    <t>Please Hammer Don't Hurt 'Em</t>
+  </si>
+  <si>
+    <t>Too Legit to Quit</t>
+  </si>
+  <si>
+    <t>The Funky Headhunter</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Family Affair</t>
+  </si>
+  <si>
+    <t>Active Duty</t>
+  </si>
+  <si>
+    <t>Full Blast</t>
+  </si>
+  <si>
+    <t>Look Look Look</t>
+  </si>
+  <si>
+    <t>Live Life Fast</t>
+  </si>
+  <si>
+    <t>Please Excuse Me for Being Antisocial</t>
+  </si>
+  <si>
+    <t>The Midnight Life</t>
+  </si>
+  <si>
+    <t>Quik Is the Name</t>
+  </si>
+  <si>
+    <t>Way 2 Fonky</t>
+  </si>
+  <si>
+    <t>Safe + Sound</t>
+  </si>
+  <si>
+    <t>Rhythm-al-ism</t>
+  </si>
+  <si>
+    <t>Balance &amp; Options</t>
+  </si>
+  <si>
+    <t>Under tha Influence</t>
+  </si>
+  <si>
+    <t>Trauma</t>
+  </si>
+  <si>
+    <t>The Book of David</t>
+  </si>
+  <si>
+    <t>Crash Talk</t>
+  </si>
+  <si>
+    <t>Setbacks</t>
+  </si>
+  <si>
+    <t>Habits &amp; Contradictions</t>
+  </si>
+  <si>
+    <t>Oxymoron</t>
+  </si>
+  <si>
+    <t>Blank Face LP</t>
+  </si>
+  <si>
+    <t>The Ecstatic</t>
+  </si>
+  <si>
+    <t>Black on Both Sides</t>
+  </si>
+  <si>
+    <t>The New Danger</t>
+  </si>
+  <si>
+    <t>True Magic</t>
+  </si>
+  <si>
+    <t>Radio Silence</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>The Beautiful Struggle</t>
+  </si>
+  <si>
+    <t>Eardrum</t>
+  </si>
+  <si>
+    <t>Gutter Rainbows</t>
+  </si>
+  <si>
+    <t>Prisoner of Conscious</t>
+  </si>
+  <si>
+    <t>Gravitas</t>
+  </si>
+  <si>
+    <t>Fuck the Money</t>
+  </si>
+  <si>
+    <t>When Fish Ride Bicycles</t>
+  </si>
+  <si>
+    <t>Special Edition Grand Master Deluxe</t>
+  </si>
+  <si>
+    <t>Volumes</t>
+  </si>
+  <si>
+    <t>Before Shit Got Weird</t>
+  </si>
+  <si>
+    <t>The Bake Sale</t>
+  </si>
+  <si>
+    <t>3 Years, 5 Months and 2 Days in the Life Of…</t>
+  </si>
+  <si>
+    <t>Unplugged</t>
+  </si>
+  <si>
+    <t>Zingalamaduni</t>
+  </si>
+  <si>
+    <t>Da Feelin' EP</t>
+  </si>
+  <si>
+    <t>Heroes of the Harvest</t>
+  </si>
+  <si>
+    <t>Extended Revolution</t>
+  </si>
+  <si>
+    <t>Among the Trees</t>
+  </si>
+  <si>
+    <t>Since the Last Time</t>
+  </si>
+  <si>
+    <t>Strong</t>
+  </si>
+  <si>
+    <t>Standing at the Crossroads</t>
+  </si>
+  <si>
+    <t>Changing The Narrative</t>
+  </si>
+  <si>
+    <t>This Was Never Home</t>
+  </si>
+  <si>
+    <t>Craft &amp; Optics</t>
+  </si>
+  <si>
+    <t>Don't Fight Your Demons</t>
+  </si>
+  <si>
+    <t>For the Fkn Love</t>
+  </si>
+  <si>
+    <t>Apt. 505</t>
+  </si>
+  <si>
+    <t>Palmdale</t>
+  </si>
+  <si>
+    <t>Lemon Pound Cake</t>
+  </si>
+  <si>
+    <t>My Fro-losophy</t>
+  </si>
+  <si>
+    <t>Because I Got High</t>
+  </si>
+  <si>
+    <t>Sell Your Dope</t>
+  </si>
+  <si>
+    <t>The Good Times</t>
+  </si>
+  <si>
+    <t>Afroholic... The Even Better Times</t>
+  </si>
+  <si>
+    <t>Jobe Bells</t>
+  </si>
+  <si>
+    <t>4R0:20</t>
+  </si>
+  <si>
+    <t>The Hungry Hustlerz: Starvation Is Motivation</t>
+  </si>
+  <si>
+    <t>Drunk 'n' High</t>
+  </si>
+  <si>
+    <t>A Colt 45 Christmas</t>
+  </si>
+  <si>
+    <t>Waiting to Inhale</t>
+  </si>
+  <si>
+    <t>Frobama: Head of State</t>
+  </si>
+  <si>
+    <t>Marijuana Music</t>
+  </si>
+  <si>
+    <t>The Frorider</t>
+  </si>
+  <si>
+    <t>Happy to Be Alive</t>
+  </si>
+  <si>
+    <t>Cold Fro-T-5 and Two Frigg Fraggs</t>
+  </si>
+  <si>
+    <t>Save a Cadillac, Ride a Homeboy</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Because the Internet</t>
+  </si>
+  <si>
+    <t>"Awaken, My Love!"</t>
+  </si>
+  <si>
+    <t>3.15.20</t>
+  </si>
+  <si>
+    <t>Summer Pack</t>
+  </si>
+  <si>
+    <t>STN MTN / Kauai</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>Professional Rapper</t>
+  </si>
+  <si>
+    <t>So Hard</t>
+  </si>
+  <si>
+    <t>Hump Days</t>
+  </si>
+  <si>
+    <t>Souls of Mischief</t>
+  </si>
+  <si>
+    <t>Iller Than Most</t>
+  </si>
+  <si>
+    <t>I Wish My Brother George Was Here</t>
+  </si>
+  <si>
+    <t>No Need for Alarm</t>
+  </si>
+  <si>
+    <t>Future Development</t>
+  </si>
+  <si>
+    <t>Both Sides of the Brain</t>
+  </si>
+  <si>
+    <t>Eleventh Hour</t>
+  </si>
+  <si>
+    <t>Funk Man (The Stimulus Package)</t>
+  </si>
+  <si>
+    <t>Automatik Statik</t>
+  </si>
+  <si>
+    <t>It Ain't Illegal Yet</t>
+  </si>
+  <si>
+    <t>Golden Era</t>
+  </si>
+  <si>
+    <t>Root Stimulation</t>
+  </si>
+  <si>
+    <t>Cypress Hill</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Long. Live. A$AP</t>
+  </si>
+  <si>
+    <t>At. Long. Last. A$AP</t>
+  </si>
+  <si>
+    <t>At What Cost</t>
+  </si>
+  <si>
+    <t>Diaspora</t>
+  </si>
+  <si>
+    <t>Haram!</t>
+  </si>
+  <si>
+    <t>Dr. Lecter</t>
+  </si>
+  <si>
+    <t>Mr. Wonderful</t>
+  </si>
+  <si>
+    <t>Blue Chips 7000</t>
+  </si>
+  <si>
+    <t>White Bronco</t>
+  </si>
+  <si>
+    <t>Only for Dolphins</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>Power in Numbers</t>
+  </si>
+  <si>
+    <t>Feedback</t>
+  </si>
+  <si>
+    <t>Jurassic 6</t>
+  </si>
+  <si>
+    <t>Jurassic 7</t>
+  </si>
+  <si>
+    <t>Jurassic 8</t>
+  </si>
+  <si>
+    <t>The Wild</t>
+  </si>
+  <si>
+    <t>Only Built 4 Cuban Linx…</t>
+  </si>
+  <si>
+    <t>Immobilarity</t>
+  </si>
+  <si>
+    <t>The Lex Diamond Story</t>
+  </si>
+  <si>
+    <t>Only Built 4 Cuban Linx... Pt. II</t>
+  </si>
+  <si>
+    <t>Shaolin vs. Wu-Tang</t>
+  </si>
+  <si>
+    <t>Fly International Luxurious Art</t>
+  </si>
+  <si>
+    <t>Anderson .Paak</t>
+  </si>
+  <si>
+    <t>Oxnard</t>
+  </si>
+  <si>
+    <t>Ventura</t>
+  </si>
+  <si>
+    <t>Venice</t>
+  </si>
+  <si>
+    <t>Malibu</t>
+  </si>
+  <si>
+    <t>12 Step Program</t>
+  </si>
+  <si>
+    <t>Sincerely, The P</t>
+  </si>
+  <si>
+    <t>The Next Step</t>
+  </si>
+  <si>
+    <t>Question in the Form of an Answer</t>
+  </si>
+  <si>
+    <t>O.S.T.</t>
+  </si>
+  <si>
+    <t>...Or Stay Tuned</t>
+  </si>
+  <si>
+    <t>Stepfather</t>
+  </si>
+  <si>
+    <t>Fun DMC</t>
+  </si>
+  <si>
+    <t>Carried Away</t>
+  </si>
+  <si>
+    <t>Highlighter</t>
+  </si>
+  <si>
+    <t>The Gettin' Off Stage, Step 1</t>
+  </si>
+  <si>
+    <t>The Gettin' Off Stage, Step 2</t>
+  </si>
+  <si>
+    <t>The Pharcyde</t>
+  </si>
+  <si>
+    <t>Bizarre Ride II the Pharcyde</t>
+  </si>
+  <si>
+    <t>Labcabincalifornia</t>
+  </si>
+  <si>
+    <t>Plain Rap</t>
+  </si>
+  <si>
+    <t>Humboldt Beginnings</t>
+  </si>
+  <si>
+    <t>93 'til Infinity</t>
+  </si>
+  <si>
+    <t>No Man's Land</t>
+  </si>
+  <si>
+    <t>Focus</t>
+  </si>
+  <si>
+    <t>Trilogy: Conflict, Climax, Resolution</t>
+  </si>
+  <si>
+    <t>Montezuma's Revenge</t>
+  </si>
+  <si>
+    <t>There Is Only Now</t>
+  </si>
+  <si>
+    <t>South Gate</t>
+  </si>
+  <si>
+    <t>Back in Black</t>
+  </si>
+  <si>
+    <t>Black Sunday</t>
+  </si>
+  <si>
+    <t>III: Temples of Boom</t>
+  </si>
+  <si>
+    <t>IV</t>
+  </si>
+  <si>
+    <t>Skull &amp; Bones</t>
+  </si>
+  <si>
+    <t>Stoned Raiders</t>
+  </si>
+  <si>
+    <t>Rise Up</t>
+  </si>
+  <si>
+    <t>Elephants on Acid</t>
   </si>
 </sst>
 </file>
@@ -3604,10 +4270,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19CDE-E3DD-497E-8468-EF613F78BA90}">
-  <dimension ref="A1:E881"/>
+  <dimension ref="A1:E1073"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A861" workbookViewId="0">
-      <selection activeCell="A882" sqref="A882"/>
+    <sheetView tabSelected="1" topLeftCell="A1051" workbookViewId="0">
+      <selection activeCell="G1067" sqref="G1067"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16621,7 +17287,7 @@
         <v>933</v>
       </c>
       <c r="C766" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D766" t="s">
         <v>877</v>
@@ -16638,7 +17304,7 @@
         <v>932</v>
       </c>
       <c r="C767" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D767" t="s">
         <v>877</v>
@@ -16825,7 +17491,7 @@
         <v>947</v>
       </c>
       <c r="C778" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D778" t="s">
         <v>877</v>
@@ -16842,7 +17508,7 @@
         <v>2001</v>
       </c>
       <c r="C779" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D779" t="s">
         <v>877</v>
@@ -16859,7 +17525,7 @@
         <v>946</v>
       </c>
       <c r="C780" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D780" t="s">
         <v>877</v>
@@ -18304,7 +18970,7 @@
         <v>1042</v>
       </c>
       <c r="C865" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D865" t="s">
         <v>877</v>
@@ -18321,7 +18987,7 @@
         <v>1043</v>
       </c>
       <c r="C866" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D866" t="s">
         <v>877</v>
@@ -18338,7 +19004,7 @@
         <v>1044</v>
       </c>
       <c r="C867" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D867" t="s">
         <v>877</v>
@@ -18355,7 +19021,7 @@
         <v>1045</v>
       </c>
       <c r="C868" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D868" t="s">
         <v>877</v>
@@ -18372,7 +19038,7 @@
         <v>1041</v>
       </c>
       <c r="C869" t="s">
-        <v>876</v>
+        <v>946</v>
       </c>
       <c r="D869" t="s">
         <v>877</v>
@@ -18385,60 +19051,3468 @@
       <c r="A870" t="s">
         <v>1046</v>
       </c>
+      <c r="B870" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C870" t="s">
+        <v>876</v>
+      </c>
+      <c r="D870" t="s">
+        <v>877</v>
+      </c>
+      <c r="E870" t="s">
+        <v>878</v>
+      </c>
     </row>
     <row r="871" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A871" t="s">
-        <v>1047</v>
+        <v>1046</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C871" t="s">
+        <v>876</v>
+      </c>
+      <c r="D871" t="s">
+        <v>877</v>
+      </c>
+      <c r="E871" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="872" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A872" t="s">
-        <v>1048</v>
+        <v>1046</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C872" t="s">
+        <v>876</v>
+      </c>
+      <c r="D872" t="s">
+        <v>877</v>
+      </c>
+      <c r="E872" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="873" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A873" t="s">
-        <v>1049</v>
+        <v>1046</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C873" t="s">
+        <v>876</v>
+      </c>
+      <c r="D873" t="s">
+        <v>877</v>
+      </c>
+      <c r="E873" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="874" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A874" t="s">
-        <v>1050</v>
+        <v>1046</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C874" t="s">
+        <v>876</v>
+      </c>
+      <c r="D874" t="s">
+        <v>877</v>
+      </c>
+      <c r="E874" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="875" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A875" t="s">
-        <v>1051</v>
+        <v>1046</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C875" t="s">
+        <v>876</v>
+      </c>
+      <c r="D875" t="s">
+        <v>877</v>
+      </c>
+      <c r="E875" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="876" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A876" t="s">
-        <v>1052</v>
+        <v>1047</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C876" t="s">
+        <v>946</v>
+      </c>
+      <c r="D876" t="s">
+        <v>877</v>
+      </c>
+      <c r="E876" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="877" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A877" t="s">
-        <v>1053</v>
+        <v>1047</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C877" t="s">
+        <v>946</v>
+      </c>
+      <c r="D877" t="s">
+        <v>877</v>
+      </c>
+      <c r="E877" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="878" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A878" t="s">
-        <v>1054</v>
+        <v>1047</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C878" t="s">
+        <v>946</v>
+      </c>
+      <c r="D878" t="s">
+        <v>877</v>
+      </c>
+      <c r="E878" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="879" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A879" t="s">
-        <v>1055</v>
+        <v>1047</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C879" t="s">
+        <v>946</v>
+      </c>
+      <c r="D879" t="s">
+        <v>877</v>
+      </c>
+      <c r="E879" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="880" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A880" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C880" t="s">
+        <v>946</v>
+      </c>
+      <c r="D880" t="s">
+        <v>877</v>
+      </c>
+      <c r="E880" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="881" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A881" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C881" t="s">
+        <v>946</v>
+      </c>
+      <c r="D881" t="s">
+        <v>877</v>
+      </c>
+      <c r="E881" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="882" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A882" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C882" t="s">
+        <v>946</v>
+      </c>
+      <c r="D882" t="s">
+        <v>877</v>
+      </c>
+      <c r="E882" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="883" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A883" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C883" t="s">
+        <v>946</v>
+      </c>
+      <c r="D883" t="s">
+        <v>877</v>
+      </c>
+      <c r="E883" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="884" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A884" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B884" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C884" t="s">
+        <v>946</v>
+      </c>
+      <c r="D884" t="s">
+        <v>877</v>
+      </c>
+      <c r="E884" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="885" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A885" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C885" t="s">
+        <v>946</v>
+      </c>
+      <c r="D885" t="s">
+        <v>877</v>
+      </c>
+      <c r="E885" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="886" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A886" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C886" t="s">
+        <v>946</v>
+      </c>
+      <c r="D886" t="s">
+        <v>877</v>
+      </c>
+      <c r="E886" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="887" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A887" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C887" t="s">
+        <v>876</v>
+      </c>
+      <c r="D887" t="s">
+        <v>877</v>
+      </c>
+      <c r="E887" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="888" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A888" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C888" t="s">
+        <v>876</v>
+      </c>
+      <c r="D888" t="s">
+        <v>877</v>
+      </c>
+      <c r="E888" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="889" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A889" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C889" t="s">
+        <v>876</v>
+      </c>
+      <c r="D889" t="s">
+        <v>877</v>
+      </c>
+      <c r="E889" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="890" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A890" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C890" t="s">
+        <v>876</v>
+      </c>
+      <c r="D890" t="s">
+        <v>877</v>
+      </c>
+      <c r="E890" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="891" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A891" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C891" t="s">
+        <v>876</v>
+      </c>
+      <c r="D891" t="s">
+        <v>877</v>
+      </c>
+      <c r="E891" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="892" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A892" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C892" t="s">
+        <v>876</v>
+      </c>
+      <c r="D892" t="s">
+        <v>877</v>
+      </c>
+      <c r="E892" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="893" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A893" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C893" t="s">
+        <v>876</v>
+      </c>
+      <c r="D893" t="s">
+        <v>877</v>
+      </c>
+      <c r="E893" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="894" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A894" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C894" t="s">
+        <v>876</v>
+      </c>
+      <c r="D894" t="s">
+        <v>877</v>
+      </c>
+      <c r="E894" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="895" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A895" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C895" t="s">
+        <v>876</v>
+      </c>
+      <c r="D895" t="s">
+        <v>877</v>
+      </c>
+      <c r="E895" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="896" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A896" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C896" t="s">
+        <v>876</v>
+      </c>
+      <c r="D896" t="s">
+        <v>877</v>
+      </c>
+      <c r="E896" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="897" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A897" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C897" t="s">
+        <v>968</v>
+      </c>
+      <c r="D897" t="s">
+        <v>877</v>
+      </c>
+      <c r="E897" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="898" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A898" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C898" t="s">
+        <v>968</v>
+      </c>
+      <c r="D898" t="s">
+        <v>877</v>
+      </c>
+      <c r="E898" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="899" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A899" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C899" t="s">
+        <v>968</v>
+      </c>
+      <c r="D899" t="s">
+        <v>877</v>
+      </c>
+      <c r="E899" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="900" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A900" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C900" t="s">
+        <v>968</v>
+      </c>
+      <c r="D900" t="s">
+        <v>877</v>
+      </c>
+      <c r="E900" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="901" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A901" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C901" t="s">
+        <v>968</v>
+      </c>
+      <c r="D901" t="s">
+        <v>877</v>
+      </c>
+      <c r="E901" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="902" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A902" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C902" t="s">
+        <v>876</v>
+      </c>
+      <c r="D902" t="s">
+        <v>877</v>
+      </c>
+      <c r="E902" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="903" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A903" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C903" t="s">
+        <v>876</v>
+      </c>
+      <c r="D903" t="s">
+        <v>877</v>
+      </c>
+      <c r="E903" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="904" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A904" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C904" t="s">
+        <v>876</v>
+      </c>
+      <c r="D904" t="s">
+        <v>877</v>
+      </c>
+      <c r="E904" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="905" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A905" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C905" t="s">
+        <v>876</v>
+      </c>
+      <c r="D905" t="s">
+        <v>877</v>
+      </c>
+      <c r="E905" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="906" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A906" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C906" t="s">
+        <v>876</v>
+      </c>
+      <c r="D906" t="s">
+        <v>877</v>
+      </c>
+      <c r="E906" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="907" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A907" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C907" t="s">
+        <v>876</v>
+      </c>
+      <c r="D907" t="s">
+        <v>877</v>
+      </c>
+      <c r="E907" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A908" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C908" t="s">
+        <v>968</v>
+      </c>
+      <c r="D908" t="s">
+        <v>877</v>
+      </c>
+      <c r="E908" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A909" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C909" t="s">
+        <v>968</v>
+      </c>
+      <c r="D909" t="s">
+        <v>877</v>
+      </c>
+      <c r="E909" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A910" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C910" t="s">
+        <v>968</v>
+      </c>
+      <c r="D910" t="s">
+        <v>877</v>
+      </c>
+      <c r="E910" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A911" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C911" t="s">
+        <v>968</v>
+      </c>
+      <c r="D911" t="s">
+        <v>877</v>
+      </c>
+      <c r="E911" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A912" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C912" t="s">
+        <v>968</v>
+      </c>
+      <c r="D912" t="s">
+        <v>877</v>
+      </c>
+      <c r="E912" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A913" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C913" t="s">
+        <v>968</v>
+      </c>
+      <c r="D913" t="s">
+        <v>877</v>
+      </c>
+      <c r="E913" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A914" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C914" t="s">
+        <v>876</v>
+      </c>
+      <c r="D914" t="s">
+        <v>877</v>
+      </c>
+      <c r="E914" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A915" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B915" s="3">
+        <v>90059</v>
+      </c>
+      <c r="C915" t="s">
+        <v>876</v>
+      </c>
+      <c r="D915" t="s">
+        <v>877</v>
+      </c>
+      <c r="E915" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A916" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C916" t="s">
+        <v>876</v>
+      </c>
+      <c r="D916" t="s">
+        <v>877</v>
+      </c>
+      <c r="E916" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A917" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C917" t="s">
+        <v>977</v>
+      </c>
+      <c r="D917" t="s">
+        <v>877</v>
+      </c>
+      <c r="E917" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A918" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C918" t="s">
+        <v>977</v>
+      </c>
+      <c r="D918" t="s">
+        <v>877</v>
+      </c>
+      <c r="E918" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A919" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C919" t="s">
+        <v>977</v>
+      </c>
+      <c r="D919" t="s">
+        <v>877</v>
+      </c>
+      <c r="E919" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A920" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C920" t="s">
+        <v>977</v>
+      </c>
+      <c r="D920" t="s">
+        <v>877</v>
+      </c>
+      <c r="E920" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A921" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C921" t="s">
+        <v>977</v>
+      </c>
+      <c r="D921" t="s">
+        <v>877</v>
+      </c>
+      <c r="E921" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A922" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C922" t="s">
+        <v>977</v>
+      </c>
+      <c r="D922" t="s">
+        <v>877</v>
+      </c>
+      <c r="E922" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A923" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C923" t="s">
+        <v>977</v>
+      </c>
+      <c r="D923" t="s">
+        <v>877</v>
+      </c>
+      <c r="E923" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A924" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C924" t="s">
+        <v>977</v>
+      </c>
+      <c r="D924" t="s">
+        <v>877</v>
+      </c>
+      <c r="E924" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A925" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C925" t="s">
+        <v>977</v>
+      </c>
+      <c r="D925" t="s">
+        <v>877</v>
+      </c>
+      <c r="E925" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A926" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C926" t="s">
+        <v>977</v>
+      </c>
+      <c r="D926" t="s">
+        <v>877</v>
+      </c>
+      <c r="E926" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A927" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C927" t="s">
+        <v>977</v>
+      </c>
+      <c r="D927" t="s">
+        <v>877</v>
+      </c>
+      <c r="E927" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A928" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C928" t="s">
+        <v>946</v>
+      </c>
+      <c r="D928" t="s">
+        <v>877</v>
+      </c>
+      <c r="E928" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A929" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C929" t="s">
+        <v>946</v>
+      </c>
+      <c r="D929" t="s">
+        <v>877</v>
+      </c>
+      <c r="E929" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A930" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C930" t="s">
+        <v>946</v>
+      </c>
+      <c r="D930" t="s">
+        <v>877</v>
+      </c>
+      <c r="E930" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A931" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C931" t="s">
+        <v>946</v>
+      </c>
+      <c r="D931" t="s">
+        <v>877</v>
+      </c>
+      <c r="E931" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A932" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C932" t="s">
+        <v>946</v>
+      </c>
+      <c r="D932" t="s">
+        <v>877</v>
+      </c>
+      <c r="E932" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A933" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C933" t="s">
+        <v>946</v>
+      </c>
+      <c r="D933" t="s">
+        <v>877</v>
+      </c>
+      <c r="E933" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A934" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C934" t="s">
+        <v>946</v>
+      </c>
+      <c r="D934" t="s">
+        <v>877</v>
+      </c>
+      <c r="E934" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A935" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C935" t="s">
+        <v>946</v>
+      </c>
+      <c r="D935" t="s">
+        <v>877</v>
+      </c>
+      <c r="E935" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A936" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C936" t="s">
+        <v>946</v>
+      </c>
+      <c r="D936" t="s">
+        <v>877</v>
+      </c>
+      <c r="E936" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A937" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C937" t="s">
+        <v>946</v>
+      </c>
+      <c r="D937" t="s">
+        <v>877</v>
+      </c>
+      <c r="E937" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A938" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C938" t="s">
+        <v>946</v>
+      </c>
+      <c r="D938" t="s">
+        <v>877</v>
+      </c>
+      <c r="E938" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A939" t="s">
         <v>1056</v>
       </c>
-    </row>
-    <row r="881" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A881" t="s">
-        <v>1057</v>
+      <c r="B939" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C939" t="s">
+        <v>876</v>
+      </c>
+      <c r="D939" t="s">
+        <v>877</v>
+      </c>
+      <c r="E939" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A940" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C940" t="s">
+        <v>876</v>
+      </c>
+      <c r="D940" t="s">
+        <v>877</v>
+      </c>
+      <c r="E940" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A941" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C941" t="s">
+        <v>876</v>
+      </c>
+      <c r="D941" t="s">
+        <v>877</v>
+      </c>
+      <c r="E941" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A942" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C942" t="s">
+        <v>876</v>
+      </c>
+      <c r="D942" t="s">
+        <v>877</v>
+      </c>
+      <c r="E942" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A943" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C943" t="s">
+        <v>876</v>
+      </c>
+      <c r="D943" t="s">
+        <v>877</v>
+      </c>
+      <c r="E943" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A944" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C944" t="s">
+        <v>350</v>
+      </c>
+      <c r="D944" t="s">
+        <v>340</v>
+      </c>
+      <c r="E944" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A945" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C945" t="s">
+        <v>350</v>
+      </c>
+      <c r="D945" t="s">
+        <v>340</v>
+      </c>
+      <c r="E945" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A946" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C946" t="s">
+        <v>350</v>
+      </c>
+      <c r="D946" t="s">
+        <v>340</v>
+      </c>
+      <c r="E946" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A947" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C947" t="s">
+        <v>350</v>
+      </c>
+      <c r="D947" t="s">
+        <v>340</v>
+      </c>
+      <c r="E947" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A948" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C948" t="s">
+        <v>350</v>
+      </c>
+      <c r="D948" t="s">
+        <v>340</v>
+      </c>
+      <c r="E948" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A949" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C949" t="s">
+        <v>350</v>
+      </c>
+      <c r="D949" t="s">
+        <v>340</v>
+      </c>
+      <c r="E949" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A950" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C950" t="s">
+        <v>350</v>
+      </c>
+      <c r="D950" t="s">
+        <v>340</v>
+      </c>
+      <c r="E950" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A951" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C951" t="s">
+        <v>350</v>
+      </c>
+      <c r="D951" t="s">
+        <v>340</v>
+      </c>
+      <c r="E951" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A952" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C952" t="s">
+        <v>350</v>
+      </c>
+      <c r="D952" t="s">
+        <v>340</v>
+      </c>
+      <c r="E952" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A953" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C953" t="s">
+        <v>350</v>
+      </c>
+      <c r="D953" t="s">
+        <v>340</v>
+      </c>
+      <c r="E953" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A954" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C954" t="s">
+        <v>350</v>
+      </c>
+      <c r="D954" t="s">
+        <v>340</v>
+      </c>
+      <c r="E954" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A955" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C955" t="s">
+        <v>350</v>
+      </c>
+      <c r="D955" t="s">
+        <v>340</v>
+      </c>
+      <c r="E955" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A956" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C956" t="s">
+        <v>664</v>
+      </c>
+      <c r="D956" t="s">
+        <v>665</v>
+      </c>
+      <c r="E956" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A957" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C957" t="s">
+        <v>664</v>
+      </c>
+      <c r="D957" t="s">
+        <v>665</v>
+      </c>
+      <c r="E957" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A958" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C958" t="s">
+        <v>664</v>
+      </c>
+      <c r="D958" t="s">
+        <v>665</v>
+      </c>
+      <c r="E958" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A959" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C959" t="s">
+        <v>664</v>
+      </c>
+      <c r="D959" t="s">
+        <v>665</v>
+      </c>
+      <c r="E959" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A960" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C960" t="s">
+        <v>664</v>
+      </c>
+      <c r="D960" t="s">
+        <v>665</v>
+      </c>
+      <c r="E960" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A961" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C961" t="s">
+        <v>263</v>
+      </c>
+      <c r="D961" t="s">
+        <v>264</v>
+      </c>
+      <c r="E961" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A962" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C962" t="s">
+        <v>263</v>
+      </c>
+      <c r="D962" t="s">
+        <v>264</v>
+      </c>
+      <c r="E962" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A963" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C963" t="s">
+        <v>263</v>
+      </c>
+      <c r="D963" t="s">
+        <v>264</v>
+      </c>
+      <c r="E963" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A964" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C964" t="s">
+        <v>263</v>
+      </c>
+      <c r="D964" t="s">
+        <v>264</v>
+      </c>
+      <c r="E964" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A965" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C965" t="s">
+        <v>263</v>
+      </c>
+      <c r="D965" t="s">
+        <v>264</v>
+      </c>
+      <c r="E965" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A966" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C966" t="s">
+        <v>263</v>
+      </c>
+      <c r="D966" t="s">
+        <v>264</v>
+      </c>
+      <c r="E966" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A967" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C967" t="s">
+        <v>263</v>
+      </c>
+      <c r="D967" t="s">
+        <v>264</v>
+      </c>
+      <c r="E967" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A968" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1168</v>
+      </c>
+      <c r="C968" t="s">
+        <v>263</v>
+      </c>
+      <c r="D968" t="s">
+        <v>264</v>
+      </c>
+      <c r="E968" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A969" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C969" t="s">
+        <v>263</v>
+      </c>
+      <c r="D969" t="s">
+        <v>264</v>
+      </c>
+      <c r="E969" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A970" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C970" t="s">
+        <v>263</v>
+      </c>
+      <c r="D970" t="s">
+        <v>264</v>
+      </c>
+      <c r="E970" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A971" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C971" t="s">
+        <v>263</v>
+      </c>
+      <c r="D971" t="s">
+        <v>264</v>
+      </c>
+      <c r="E971" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A972" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1172</v>
+      </c>
+      <c r="C972" t="s">
+        <v>263</v>
+      </c>
+      <c r="D972" t="s">
+        <v>264</v>
+      </c>
+      <c r="E972" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A973" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C973" t="s">
+        <v>263</v>
+      </c>
+      <c r="D973" t="s">
+        <v>264</v>
+      </c>
+      <c r="E973" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A974" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1174</v>
+      </c>
+      <c r="C974" t="s">
+        <v>263</v>
+      </c>
+      <c r="D974" t="s">
+        <v>264</v>
+      </c>
+      <c r="E974" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A975" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C975" t="s">
+        <v>263</v>
+      </c>
+      <c r="D975" t="s">
+        <v>264</v>
+      </c>
+      <c r="E975" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A976" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C976" t="s">
+        <v>876</v>
+      </c>
+      <c r="D976" t="s">
+        <v>877</v>
+      </c>
+      <c r="E976" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A977" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D977" t="s">
+        <v>877</v>
+      </c>
+      <c r="E977" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A978" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D978" t="s">
+        <v>877</v>
+      </c>
+      <c r="E978" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A979" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D979" t="s">
+        <v>877</v>
+      </c>
+      <c r="E979" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A980" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D980" t="s">
+        <v>877</v>
+      </c>
+      <c r="E980" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A981" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D981" t="s">
+        <v>877</v>
+      </c>
+      <c r="E981" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A982" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D982" t="s">
+        <v>877</v>
+      </c>
+      <c r="E982" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A983" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D983" t="s">
+        <v>877</v>
+      </c>
+      <c r="E983" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A984" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D984" t="s">
+        <v>877</v>
+      </c>
+      <c r="E984" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A985" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D985" t="s">
+        <v>877</v>
+      </c>
+      <c r="E985" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A986" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D986" t="s">
+        <v>877</v>
+      </c>
+      <c r="E986" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A987" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D987" t="s">
+        <v>877</v>
+      </c>
+      <c r="E987" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A988" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D988" t="s">
+        <v>877</v>
+      </c>
+      <c r="E988" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A989" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D989" t="s">
+        <v>877</v>
+      </c>
+      <c r="E989" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A990" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D990" t="s">
+        <v>877</v>
+      </c>
+      <c r="E990" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A991" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D991" t="s">
+        <v>877</v>
+      </c>
+      <c r="E991" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A992" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D992" t="s">
+        <v>877</v>
+      </c>
+      <c r="E992" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A993" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D993" t="s">
+        <v>877</v>
+      </c>
+      <c r="E993" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A994" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1177</v>
+      </c>
+      <c r="D994" t="s">
+        <v>877</v>
+      </c>
+      <c r="E994" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A995" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C995" t="s">
+        <v>263</v>
+      </c>
+      <c r="D995" t="s">
+        <v>264</v>
+      </c>
+      <c r="E995" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A996" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C996" t="s">
+        <v>263</v>
+      </c>
+      <c r="D996" t="s">
+        <v>264</v>
+      </c>
+      <c r="E996" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A997" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C997" t="s">
+        <v>263</v>
+      </c>
+      <c r="D997" t="s">
+        <v>264</v>
+      </c>
+      <c r="E997" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A998" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B998" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C998" t="s">
+        <v>263</v>
+      </c>
+      <c r="D998" t="s">
+        <v>264</v>
+      </c>
+      <c r="E998" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A999" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C999" t="s">
+        <v>263</v>
+      </c>
+      <c r="D999" t="s">
+        <v>264</v>
+      </c>
+      <c r="E999" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1000" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1001" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1002" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1003" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1004" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1005" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1006" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1007" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1008" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1009" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1010" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1011" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1012" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1013" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1014" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1015" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1016" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1017" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1018" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1019" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1020" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1021" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>273</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>272</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1022" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1023" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1024" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1025" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1026" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>422</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1027" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1028" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1029" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1030" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1031" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1031" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1032" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1032" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1033" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1033" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1034" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1034" s="6" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1035" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1035" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1036" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1036" s="6" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1037" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B1037" s="6" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1038" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1039" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1040" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1041" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1042" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1043" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1044" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1045" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1046" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1047" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1048" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1049" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1050" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1051" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1052" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1053" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1054" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1055" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1056" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1057" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>876</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1058" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1059" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1060" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1061" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1062" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1063" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>977</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1064" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1065" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1066" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1067" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1068" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1069" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1070" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1071" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1072" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1073" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>877</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/album_list.xlsx
+++ b/album_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Coding\Play\Rap_Lyrics\lyricsNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B6953F-A6CA-4EF6-8653-071F9056FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF1259-D2AD-4287-8E4C-1000DC10887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10005" windowWidth="29040" windowHeight="15720" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5278" uniqueCount="1250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="1300">
   <si>
     <t>Artist</t>
   </si>
@@ -3786,6 +3786,156 @@
   </si>
   <si>
     <t>Michael</t>
+  </si>
+  <si>
+    <t>Jadakiss</t>
+  </si>
+  <si>
+    <t>Ignatius</t>
+  </si>
+  <si>
+    <t>Kiss tha Game Goodbye</t>
+  </si>
+  <si>
+    <t>Kiss of Death</t>
+  </si>
+  <si>
+    <t>The Last Kiss</t>
+  </si>
+  <si>
+    <t>Top 5 Dead or Alive</t>
+  </si>
+  <si>
+    <t>Cordae</t>
+  </si>
+  <si>
+    <t>The Lost Boy</t>
+  </si>
+  <si>
+    <t>From a Birds Eye View</t>
+  </si>
+  <si>
+    <t>Broke With Expensive Taste</t>
+  </si>
+  <si>
+    <t>Azealia Banks</t>
+  </si>
+  <si>
+    <t>Icy Colors Change</t>
+  </si>
+  <si>
+    <t>Fantasea</t>
+  </si>
+  <si>
+    <t>Slay-Z</t>
+  </si>
+  <si>
+    <t>Yung Rapunxel PT. II</t>
+  </si>
+  <si>
+    <t>Danny Brown</t>
+  </si>
+  <si>
+    <t>The Hybrid</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Atrocity Exhibition</t>
+  </si>
+  <si>
+    <t>UKnowWhatImSayin</t>
+  </si>
+  <si>
+    <t>Detroit State of Mind</t>
+  </si>
+  <si>
+    <t>Detroit State of Mind 2</t>
+  </si>
+  <si>
+    <t>Detroit State of Mind 3</t>
+  </si>
+  <si>
+    <t>Detroit State of Mind 4</t>
+  </si>
+  <si>
+    <t>Hot Soup</t>
+  </si>
+  <si>
+    <t>It's a Art</t>
+  </si>
+  <si>
+    <t>Da Brat</t>
+  </si>
+  <si>
+    <t>Funkdafied</t>
+  </si>
+  <si>
+    <t>Anuthatantrum</t>
+  </si>
+  <si>
+    <t>Unrestricted</t>
+  </si>
+  <si>
+    <t>Limelite, Luv &amp; Niteclubz</t>
+  </si>
+  <si>
+    <t>Bow Wow</t>
+  </si>
+  <si>
+    <t>Vic Mensa</t>
+  </si>
+  <si>
+    <t>The Autobiography</t>
+  </si>
+  <si>
+    <t>Innanetape</t>
+  </si>
+  <si>
+    <t>Straight Up</t>
+  </si>
+  <si>
+    <t>The Manuscript</t>
+  </si>
+  <si>
+    <t>There's alot Going On</t>
+  </si>
+  <si>
+    <t>V Tape</t>
+  </si>
+  <si>
+    <t>I Tape</t>
+  </si>
+  <si>
+    <t>Vino Valentino</t>
+  </si>
+  <si>
+    <t>Hooligans</t>
+  </si>
+  <si>
+    <t>New Jack City II</t>
+  </si>
+  <si>
+    <t>Beware of Dog</t>
+  </si>
+  <si>
+    <t>Doggy Bag</t>
+  </si>
+  <si>
+    <t>Unleashed</t>
+  </si>
+  <si>
+    <t>Wanted</t>
+  </si>
+  <si>
+    <t>The Price of Fame</t>
+  </si>
+  <si>
+    <t>Columbus</t>
   </si>
 </sst>
 </file>
@@ -4187,10 +4337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19CDE-E3DD-497E-8468-EF613F78BA90}">
-  <dimension ref="A1:E1058"/>
+  <dimension ref="A1:E1101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G615" sqref="G615"/>
+    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
+      <selection activeCell="C1096" sqref="C1096:E1101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22175,6 +22325,737 @@
       </c>
       <c r="E1058" t="s">
         <v>849</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5">
+      <c r="A1059" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5">
+      <c r="A1060" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5">
+      <c r="A1061" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5">
+      <c r="A1062" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5">
+      <c r="A1063" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>560</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5">
+      <c r="A1064" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5">
+      <c r="A1065" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>267</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>266</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5">
+      <c r="A1066" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5">
+      <c r="A1067" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5">
+      <c r="A1068" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1068" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5">
+      <c r="A1069" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5">
+      <c r="A1070" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5">
+      <c r="A1071" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5">
+      <c r="A1072" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5">
+      <c r="A1073" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5">
+      <c r="A1074" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5">
+      <c r="A1075" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5">
+      <c r="A1076" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5">
+      <c r="A1077" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5">
+      <c r="A1078" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5">
+      <c r="A1079" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5">
+      <c r="A1080" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5">
+      <c r="A1081" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5">
+      <c r="A1082" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5">
+      <c r="A1083" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5">
+      <c r="A1084" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5">
+      <c r="A1085" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5">
+      <c r="A1086" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5">
+      <c r="A1087" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5">
+      <c r="A1088" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5">
+      <c r="A1089" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5">
+      <c r="A1090" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5">
+      <c r="A1091" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5">
+      <c r="A1092" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5">
+      <c r="A1093" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5">
+      <c r="A1094" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5">
+      <c r="A1095" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>650</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5">
+      <c r="A1096" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5">
+      <c r="A1097" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5">
+      <c r="A1098" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5">
+      <c r="A1099" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5">
+      <c r="A1100" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5">
+      <c r="A1101" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/album_list.xlsx
+++ b/album_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP USER\Coding\Play\Rap_Lyrics\lyricsNLP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEF1259-D2AD-4287-8E4C-1000DC10887C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40BE7C4-DB6F-4BD4-A168-735BAB2B8131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4CD478C6-4722-4BC8-838A-CC153C60C18A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5492" uniqueCount="1300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5592" uniqueCount="1325">
   <si>
     <t>Artist</t>
   </si>
@@ -3936,6 +3936,81 @@
   </si>
   <si>
     <t>Columbus</t>
+  </si>
+  <si>
+    <t>Kash Doll</t>
+  </si>
+  <si>
+    <t>Stacked</t>
+  </si>
+  <si>
+    <t>Brat Mail</t>
+  </si>
+  <si>
+    <t>Trapped in the Dollhouse</t>
+  </si>
+  <si>
+    <t>Tierra Whack</t>
+  </si>
+  <si>
+    <t>Whack World</t>
+  </si>
+  <si>
+    <t>Rap?</t>
+  </si>
+  <si>
+    <t>The BX Files</t>
+  </si>
+  <si>
+    <t>I'm Around</t>
+  </si>
+  <si>
+    <t>BlasRemy</t>
+  </si>
+  <si>
+    <t>Coi Leray</t>
+  </si>
+  <si>
+    <t>COI</t>
+  </si>
+  <si>
+    <t>Trendsetter</t>
+  </si>
+  <si>
+    <t>EC2</t>
+  </si>
+  <si>
+    <t>EverythingCoZ</t>
+  </si>
+  <si>
+    <t>Hackensack</t>
+  </si>
+  <si>
+    <t>Foxy Brown</t>
+  </si>
+  <si>
+    <t>Ill Na Na</t>
+  </si>
+  <si>
+    <t>Chyna Doll</t>
+  </si>
+  <si>
+    <t>Broken Silence</t>
+  </si>
+  <si>
+    <t>Make Way for the Motherlode</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>You Better Ask Somebody</t>
+  </si>
+  <si>
+    <t>Total Control</t>
+  </si>
+  <si>
+    <t>Yo-Yo</t>
   </si>
 </sst>
 </file>
@@ -4337,10 +4412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A19CDE-E3DD-497E-8468-EF613F78BA90}">
-  <dimension ref="A1:E1101"/>
+  <dimension ref="A1:E1121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1087" workbookViewId="0">
-      <selection activeCell="C1096" sqref="C1096:E1101"/>
+    <sheetView tabSelected="1" topLeftCell="A1112" workbookViewId="0">
+      <selection activeCell="I1120" sqref="I1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10302,10 +10377,10 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" t="s">
-        <v>855</v>
+        <v>537</v>
       </c>
       <c r="B351" t="s">
-        <v>860</v>
+        <v>1309</v>
       </c>
       <c r="C351" t="s">
         <v>452</v>
@@ -10319,10 +10394,10 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" t="s">
-        <v>855</v>
+        <v>537</v>
       </c>
       <c r="B352" t="s">
-        <v>861</v>
+        <v>1308</v>
       </c>
       <c r="C352" t="s">
         <v>452</v>
@@ -10336,10 +10411,10 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" t="s">
-        <v>855</v>
+        <v>537</v>
       </c>
       <c r="B353" t="s">
-        <v>862</v>
+        <v>1307</v>
       </c>
       <c r="C353" t="s">
         <v>452</v>
@@ -10356,7 +10431,7 @@
         <v>855</v>
       </c>
       <c r="B354" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C354" t="s">
         <v>452</v>
@@ -10370,16 +10445,16 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" t="s">
-        <v>370</v>
+        <v>855</v>
       </c>
       <c r="B355" t="s">
-        <v>372</v>
+        <v>861</v>
       </c>
       <c r="C355" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D355" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E355" t="s">
         <v>262</v>
@@ -10387,16 +10462,16 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" t="s">
-        <v>370</v>
+        <v>855</v>
       </c>
       <c r="B356" t="s">
-        <v>371</v>
+        <v>862</v>
       </c>
       <c r="C356" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D356" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E356" t="s">
         <v>262</v>
@@ -10404,16 +10479,16 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" t="s">
-        <v>348</v>
+        <v>855</v>
       </c>
       <c r="B357" t="s">
-        <v>349</v>
+        <v>859</v>
       </c>
       <c r="C357" t="s">
-        <v>350</v>
+        <v>452</v>
       </c>
       <c r="D357" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="E357" t="s">
         <v>262</v>
@@ -10421,10 +10496,10 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B358" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="C358" t="s">
         <v>350</v>
@@ -10438,10 +10513,10 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" t="s">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="B359" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C359" t="s">
         <v>350</v>
@@ -10455,10 +10530,10 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B360" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="C360" t="s">
         <v>350</v>
@@ -10475,7 +10550,7 @@
         <v>352</v>
       </c>
       <c r="B361" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C361" t="s">
         <v>350</v>
@@ -10492,7 +10567,7 @@
         <v>352</v>
       </c>
       <c r="B362" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C362" t="s">
         <v>350</v>
@@ -10509,7 +10584,7 @@
         <v>352</v>
       </c>
       <c r="B363" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C363" t="s">
         <v>350</v>
@@ -10526,7 +10601,7 @@
         <v>352</v>
       </c>
       <c r="B364" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C364" t="s">
         <v>350</v>
@@ -10540,10 +10615,10 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="B365" t="s">
-        <v>482</v>
+        <v>358</v>
       </c>
       <c r="C365" t="s">
         <v>350</v>
@@ -10557,10 +10632,10 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="B366" t="s">
-        <v>483</v>
+        <v>359</v>
       </c>
       <c r="C366" t="s">
         <v>350</v>
@@ -10574,10 +10649,10 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" t="s">
-        <v>480</v>
+        <v>352</v>
       </c>
       <c r="B367" t="s">
-        <v>484</v>
+        <v>353</v>
       </c>
       <c r="C367" t="s">
         <v>350</v>
@@ -10594,7 +10669,7 @@
         <v>480</v>
       </c>
       <c r="B368" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C368" t="s">
         <v>350</v>
@@ -10611,7 +10686,7 @@
         <v>480</v>
       </c>
       <c r="B369" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C369" t="s">
         <v>350</v>
@@ -10628,7 +10703,7 @@
         <v>480</v>
       </c>
       <c r="B370" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C370" t="s">
         <v>350</v>
@@ -10645,7 +10720,7 @@
         <v>480</v>
       </c>
       <c r="B371" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C371" t="s">
         <v>350</v>
@@ -10659,16 +10734,16 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" t="s">
-        <v>1025</v>
+        <v>480</v>
       </c>
       <c r="B372" t="s">
-        <v>1173</v>
+        <v>486</v>
       </c>
       <c r="C372" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="D372" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="E372" t="s">
         <v>262</v>
@@ -10676,16 +10751,16 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" t="s">
-        <v>1025</v>
+        <v>480</v>
       </c>
       <c r="B373" t="s">
-        <v>1174</v>
+        <v>487</v>
       </c>
       <c r="C373" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="D373" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="E373" t="s">
         <v>262</v>
@@ -10693,16 +10768,16 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" t="s">
-        <v>1025</v>
+        <v>480</v>
       </c>
       <c r="B374" t="s">
-        <v>1175</v>
+        <v>481</v>
       </c>
       <c r="C374" t="s">
-        <v>267</v>
+        <v>350</v>
       </c>
       <c r="D374" t="s">
-        <v>266</v>
+        <v>351</v>
       </c>
       <c r="E374" t="s">
         <v>262</v>
@@ -10710,10 +10785,10 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" t="s">
-        <v>227</v>
+        <v>1025</v>
       </c>
       <c r="B375" t="s">
-        <v>228</v>
+        <v>1173</v>
       </c>
       <c r="C375" t="s">
         <v>267</v>
@@ -10727,10 +10802,10 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" t="s">
-        <v>227</v>
+        <v>1025</v>
       </c>
       <c r="B376" t="s">
-        <v>229</v>
+        <v>1174</v>
       </c>
       <c r="C376" t="s">
         <v>267</v>
@@ -10744,10 +10819,10 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" t="s">
-        <v>227</v>
+        <v>1025</v>
       </c>
       <c r="B377" t="s">
-        <v>230</v>
+        <v>1175</v>
       </c>
       <c r="C377" t="s">
         <v>267</v>
@@ -10764,7 +10839,7 @@
         <v>227</v>
       </c>
       <c r="B378" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C378" t="s">
         <v>267</v>
@@ -10781,7 +10856,7 @@
         <v>227</v>
       </c>
       <c r="B379" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C379" t="s">
         <v>267</v>
@@ -10798,7 +10873,7 @@
         <v>227</v>
       </c>
       <c r="B380" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C380" t="s">
         <v>267</v>
@@ -10815,7 +10890,7 @@
         <v>227</v>
       </c>
       <c r="B381" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C381" t="s">
         <v>267</v>
@@ -10832,7 +10907,7 @@
         <v>227</v>
       </c>
       <c r="B382" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C382" t="s">
         <v>267</v>
@@ -10846,10 +10921,10 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B383" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="C383" t="s">
         <v>267</v>
@@ -10863,10 +10938,10 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B384" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="C384" t="s">
         <v>267</v>
@@ -10880,10 +10955,10 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B385" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="C385" t="s">
         <v>267</v>
@@ -10900,7 +10975,7 @@
         <v>219</v>
       </c>
       <c r="B386" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C386" t="s">
         <v>267</v>
@@ -10917,7 +10992,7 @@
         <v>219</v>
       </c>
       <c r="B387" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C387" t="s">
         <v>267</v>
@@ -10934,7 +11009,7 @@
         <v>219</v>
       </c>
       <c r="B388" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C388" t="s">
         <v>267</v>
@@ -10951,7 +11026,7 @@
         <v>219</v>
       </c>
       <c r="B389" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C389" t="s">
         <v>267</v>
@@ -10965,16 +11040,16 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" t="s">
-        <v>558</v>
+        <v>219</v>
       </c>
       <c r="B390" t="s">
-        <v>561</v>
+        <v>224</v>
       </c>
       <c r="C390" t="s">
-        <v>560</v>
+        <v>267</v>
       </c>
       <c r="D390" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E390" t="s">
         <v>262</v>
@@ -10982,16 +11057,16 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" t="s">
-        <v>558</v>
+        <v>219</v>
       </c>
       <c r="B391" t="s">
-        <v>562</v>
+        <v>225</v>
       </c>
       <c r="C391" t="s">
-        <v>560</v>
+        <v>267</v>
       </c>
       <c r="D391" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E391" t="s">
         <v>262</v>
@@ -10999,16 +11074,16 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" t="s">
-        <v>558</v>
+        <v>219</v>
       </c>
       <c r="B392" t="s">
-        <v>563</v>
+        <v>226</v>
       </c>
       <c r="C392" t="s">
-        <v>560</v>
+        <v>267</v>
       </c>
       <c r="D392" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E392" t="s">
         <v>262</v>
@@ -11019,7 +11094,7 @@
         <v>558</v>
       </c>
       <c r="B393" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="C393" t="s">
         <v>560</v>
@@ -11036,7 +11111,7 @@
         <v>558</v>
       </c>
       <c r="B394" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="C394" t="s">
         <v>560</v>
@@ -11053,7 +11128,7 @@
         <v>558</v>
       </c>
       <c r="B395" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="C395" t="s">
         <v>560</v>
@@ -11070,7 +11145,7 @@
         <v>558</v>
       </c>
       <c r="B396" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C396" t="s">
         <v>560</v>
@@ -11087,7 +11162,7 @@
         <v>558</v>
       </c>
       <c r="B397" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C397" t="s">
         <v>560</v>
@@ -11101,53 +11176,53 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="B398" t="s">
-        <v>753</v>
+        <v>566</v>
       </c>
       <c r="C398" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
       <c r="D398" t="s">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="E398" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="399" spans="1:5">
       <c r="A399" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="B399" t="s">
-        <v>754</v>
+        <v>567</v>
       </c>
       <c r="C399" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
       <c r="D399" t="s">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="E399" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="400" spans="1:5">
       <c r="A400" t="s">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="B400" t="s">
-        <v>755</v>
+        <v>559</v>
       </c>
       <c r="C400" t="s">
-        <v>649</v>
+        <v>560</v>
       </c>
       <c r="D400" t="s">
-        <v>650</v>
+        <v>329</v>
       </c>
       <c r="E400" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="401" spans="1:5">
@@ -11155,7 +11230,7 @@
         <v>637</v>
       </c>
       <c r="B401" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="C401" t="s">
         <v>649</v>
@@ -11169,10 +11244,10 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B402" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C402" t="s">
         <v>649</v>
@@ -11186,10 +11261,10 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B403" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="C403" t="s">
         <v>649</v>
@@ -11203,10 +11278,10 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B404" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C404" t="s">
         <v>649</v>
@@ -11223,7 +11298,7 @@
         <v>638</v>
       </c>
       <c r="B405" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C405" t="s">
         <v>649</v>
@@ -11237,10 +11312,10 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B406" t="s">
-        <v>661</v>
+        <v>759</v>
       </c>
       <c r="C406" t="s">
         <v>649</v>
@@ -11254,10 +11329,10 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B407" t="s">
-        <v>662</v>
+        <v>760</v>
       </c>
       <c r="C407" t="s">
         <v>649</v>
@@ -11271,10 +11346,10 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="B408" t="s">
-        <v>663</v>
+        <v>757</v>
       </c>
       <c r="C408" t="s">
         <v>649</v>
@@ -11291,7 +11366,7 @@
         <v>630</v>
       </c>
       <c r="B409" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="C409" t="s">
         <v>649</v>
@@ -11308,7 +11383,7 @@
         <v>630</v>
       </c>
       <c r="B410" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C410" t="s">
         <v>649</v>
@@ -11325,7 +11400,7 @@
         <v>630</v>
       </c>
       <c r="B411" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C411" t="s">
         <v>649</v>
@@ -11342,7 +11417,7 @@
         <v>630</v>
       </c>
       <c r="B412" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C412" t="s">
         <v>649</v>
@@ -11359,7 +11434,7 @@
         <v>630</v>
       </c>
       <c r="B413" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C413" t="s">
         <v>649</v>
@@ -11376,7 +11451,7 @@
         <v>630</v>
       </c>
       <c r="B414" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C414" t="s">
         <v>649</v>
@@ -11393,7 +11468,7 @@
         <v>630</v>
       </c>
       <c r="B415" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="C415" t="s">
         <v>649</v>
@@ -11410,7 +11485,7 @@
         <v>630</v>
       </c>
       <c r="B416" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C416" t="s">
         <v>649</v>
@@ -11427,7 +11502,7 @@
         <v>630</v>
       </c>
       <c r="B417" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="C417" t="s">
         <v>649</v>
@@ -11444,7 +11519,7 @@
         <v>630</v>
       </c>
       <c r="B418" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C418" t="s">
         <v>649</v>
@@ -11461,7 +11536,7 @@
         <v>630</v>
       </c>
       <c r="B419" t="s">
-        <v>660</v>
+        <v>671</v>
       </c>
       <c r="C419" t="s">
         <v>649</v>
@@ -11475,10 +11550,10 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B420" t="s">
-        <v>639</v>
+        <v>672</v>
       </c>
       <c r="C420" t="s">
         <v>649</v>
@@ -11492,10 +11567,10 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B421" t="s">
-        <v>640</v>
+        <v>673</v>
       </c>
       <c r="C421" t="s">
         <v>649</v>
@@ -11509,10 +11584,10 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B422" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="C422" t="s">
         <v>649</v>
@@ -11529,7 +11604,7 @@
         <v>628</v>
       </c>
       <c r="B423" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="C423" t="s">
         <v>649</v>
@@ -11546,7 +11621,7 @@
         <v>628</v>
       </c>
       <c r="B424" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C424" t="s">
         <v>649</v>
@@ -11563,7 +11638,7 @@
         <v>628</v>
       </c>
       <c r="B425" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="C425" t="s">
         <v>649</v>
@@ -11580,7 +11655,7 @@
         <v>628</v>
       </c>
       <c r="B426" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="C426" t="s">
         <v>649</v>
@@ -11597,7 +11672,7 @@
         <v>628</v>
       </c>
       <c r="B427" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C427" t="s">
         <v>649</v>
@@ -11614,7 +11689,7 @@
         <v>628</v>
       </c>
       <c r="B428" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C428" t="s">
         <v>649</v>
@@ -11631,7 +11706,7 @@
         <v>628</v>
       </c>
       <c r="B429" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="C429" t="s">
         <v>649</v>
@@ -11645,10 +11720,10 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" t="s">
-        <v>771</v>
-      </c>
-      <c r="B430" s="3" t="s">
-        <v>797</v>
+        <v>628</v>
+      </c>
+      <c r="B430" t="s">
+        <v>646</v>
       </c>
       <c r="C430" t="s">
         <v>649</v>
@@ -11662,10 +11737,10 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" t="s">
-        <v>771</v>
-      </c>
-      <c r="B431" s="3" t="s">
-        <v>798</v>
+        <v>628</v>
+      </c>
+      <c r="B431" t="s">
+        <v>647</v>
       </c>
       <c r="C431" t="s">
         <v>649</v>
@@ -11679,10 +11754,10 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" t="s">
-        <v>771</v>
-      </c>
-      <c r="B432" s="3" t="s">
-        <v>799</v>
+        <v>628</v>
+      </c>
+      <c r="B432" t="s">
+        <v>648</v>
       </c>
       <c r="C432" t="s">
         <v>649</v>
@@ -11699,7 +11774,7 @@
         <v>771</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="C433" t="s">
         <v>649</v>
@@ -11716,7 +11791,7 @@
         <v>771</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="C434" t="s">
         <v>649</v>
@@ -11733,7 +11808,7 @@
         <v>771</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="C435" t="s">
         <v>649</v>
@@ -11749,8 +11824,8 @@
       <c r="A436" t="s">
         <v>771</v>
       </c>
-      <c r="B436" s="3">
-        <v>7220</v>
+      <c r="B436" s="3" t="s">
+        <v>800</v>
       </c>
       <c r="C436" t="s">
         <v>649</v>
@@ -11767,7 +11842,7 @@
         <v>771</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C437" t="s">
         <v>649</v>
@@ -11781,10 +11856,10 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" t="s">
-        <v>629</v>
-      </c>
-      <c r="B438" t="s">
-        <v>653</v>
+        <v>771</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>802</v>
       </c>
       <c r="C438" t="s">
         <v>649</v>
@@ -11798,10 +11873,10 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" t="s">
-        <v>629</v>
-      </c>
-      <c r="B439" t="s">
-        <v>654</v>
+        <v>771</v>
+      </c>
+      <c r="B439" s="3">
+        <v>7220</v>
       </c>
       <c r="C439" t="s">
         <v>649</v>
@@ -11815,10 +11890,10 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" t="s">
-        <v>629</v>
-      </c>
-      <c r="B440" t="s">
-        <v>655</v>
+        <v>771</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>803</v>
       </c>
       <c r="C440" t="s">
         <v>649</v>
@@ -11835,7 +11910,7 @@
         <v>629</v>
       </c>
       <c r="B441" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C441" t="s">
         <v>649</v>
@@ -11852,7 +11927,7 @@
         <v>629</v>
       </c>
       <c r="B442" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C442" t="s">
         <v>649</v>
@@ -11869,7 +11944,7 @@
         <v>629</v>
       </c>
       <c r="B443" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="C443" t="s">
         <v>649</v>
@@ -11886,7 +11961,7 @@
         <v>629</v>
       </c>
       <c r="B444" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C444" t="s">
         <v>649</v>
@@ -11903,7 +11978,7 @@
         <v>629</v>
       </c>
       <c r="B445" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="C445" t="s">
         <v>649</v>
@@ -11917,10 +11992,10 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" t="s">
-        <v>772</v>
-      </c>
-      <c r="B446" s="3" t="s">
-        <v>804</v>
+        <v>629</v>
+      </c>
+      <c r="B446" t="s">
+        <v>658</v>
       </c>
       <c r="C446" t="s">
         <v>649</v>
@@ -11934,10 +12009,10 @@
     </row>
     <row r="447" spans="1:5">
       <c r="A447" t="s">
-        <v>772</v>
-      </c>
-      <c r="B447" s="3" t="s">
-        <v>805</v>
+        <v>629</v>
+      </c>
+      <c r="B447" t="s">
+        <v>659</v>
       </c>
       <c r="C447" t="s">
         <v>649</v>
@@ -11951,10 +12026,10 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" t="s">
-        <v>1022</v>
+        <v>629</v>
       </c>
       <c r="B448" t="s">
-        <v>1111</v>
+        <v>652</v>
       </c>
       <c r="C448" t="s">
         <v>649</v>
@@ -11968,10 +12043,10 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1112</v>
+        <v>772</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>804</v>
       </c>
       <c r="C449" t="s">
         <v>649</v>
@@ -11985,10 +12060,10 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1113</v>
+        <v>772</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>805</v>
       </c>
       <c r="C450" t="s">
         <v>649</v>
@@ -12005,7 +12080,7 @@
         <v>1022</v>
       </c>
       <c r="B451" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="C451" t="s">
         <v>649</v>
@@ -12022,7 +12097,7 @@
         <v>1022</v>
       </c>
       <c r="B452" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="C452" t="s">
         <v>649</v>
@@ -12036,10 +12111,10 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" t="s">
-        <v>768</v>
+        <v>1022</v>
       </c>
       <c r="B453" t="s">
-        <v>775</v>
+        <v>1113</v>
       </c>
       <c r="C453" t="s">
         <v>649</v>
@@ -12053,10 +12128,10 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" t="s">
-        <v>768</v>
+        <v>1022</v>
       </c>
       <c r="B454" t="s">
-        <v>662</v>
+        <v>1114</v>
       </c>
       <c r="C454" t="s">
         <v>649</v>
@@ -12070,10 +12145,10 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455" t="s">
-        <v>768</v>
+        <v>1022</v>
       </c>
       <c r="B455" t="s">
-        <v>776</v>
+        <v>1115</v>
       </c>
       <c r="C455" t="s">
         <v>649</v>
@@ -12090,7 +12165,7 @@
         <v>768</v>
       </c>
       <c r="B456" t="s">
-        <v>693</v>
+        <v>775</v>
       </c>
       <c r="C456" t="s">
         <v>649</v>
@@ -12107,7 +12182,7 @@
         <v>768</v>
       </c>
       <c r="B457" t="s">
-        <v>777</v>
+        <v>662</v>
       </c>
       <c r="C457" t="s">
         <v>649</v>
@@ -12124,7 +12199,7 @@
         <v>768</v>
       </c>
       <c r="B458" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C458" t="s">
         <v>649</v>
@@ -12141,7 +12216,7 @@
         <v>768</v>
       </c>
       <c r="B459" t="s">
-        <v>779</v>
+        <v>693</v>
       </c>
       <c r="C459" t="s">
         <v>649</v>
@@ -12158,7 +12233,7 @@
         <v>768</v>
       </c>
       <c r="B460" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="C460" t="s">
         <v>649</v>
@@ -12175,7 +12250,7 @@
         <v>768</v>
       </c>
       <c r="B461" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C461" t="s">
         <v>649</v>
@@ -12192,7 +12267,7 @@
         <v>768</v>
       </c>
       <c r="B462" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="C462" t="s">
         <v>649</v>
@@ -12209,7 +12284,7 @@
         <v>768</v>
       </c>
       <c r="B463" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C463" t="s">
         <v>649</v>
@@ -12223,16 +12298,16 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B464" t="s">
-        <v>814</v>
+        <v>781</v>
       </c>
       <c r="C464" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="D464" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E464" t="s">
         <v>651</v>
@@ -12240,16 +12315,16 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B465" t="s">
-        <v>815</v>
+        <v>782</v>
       </c>
       <c r="C465" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="D465" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E465" t="s">
         <v>651</v>
@@ -12257,16 +12332,16 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B466" t="s">
-        <v>816</v>
+        <v>783</v>
       </c>
       <c r="C466" t="s">
-        <v>682</v>
+        <v>649</v>
       </c>
       <c r="D466" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E466" t="s">
         <v>651</v>
@@ -12277,7 +12352,7 @@
         <v>774</v>
       </c>
       <c r="B467" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="C467" t="s">
         <v>682</v>
@@ -12294,7 +12369,7 @@
         <v>774</v>
       </c>
       <c r="B468" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="C468" t="s">
         <v>682</v>
@@ -12311,7 +12386,7 @@
         <v>774</v>
       </c>
       <c r="B469" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C469" t="s">
         <v>682</v>
@@ -12328,7 +12403,7 @@
         <v>774</v>
       </c>
       <c r="B470" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="C470" t="s">
         <v>682</v>
@@ -12345,7 +12420,7 @@
         <v>774</v>
       </c>
       <c r="B471" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C471" t="s">
         <v>682</v>
@@ -12359,10 +12434,10 @@
     </row>
     <row r="472" spans="1:5">
       <c r="A472" t="s">
-        <v>631</v>
+        <v>774</v>
       </c>
       <c r="B472" t="s">
-        <v>674</v>
+        <v>819</v>
       </c>
       <c r="C472" t="s">
         <v>682</v>
@@ -12376,10 +12451,10 @@
     </row>
     <row r="473" spans="1:5">
       <c r="A473" t="s">
-        <v>631</v>
+        <v>774</v>
       </c>
       <c r="B473" t="s">
-        <v>675</v>
+        <v>820</v>
       </c>
       <c r="C473" t="s">
         <v>682</v>
@@ -12393,10 +12468,10 @@
     </row>
     <row r="474" spans="1:5">
       <c r="A474" t="s">
-        <v>631</v>
+        <v>774</v>
       </c>
       <c r="B474" t="s">
-        <v>676</v>
+        <v>813</v>
       </c>
       <c r="C474" t="s">
         <v>682</v>
@@ -12413,7 +12488,7 @@
         <v>631</v>
       </c>
       <c r="B475" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C475" t="s">
         <v>682</v>
@@ -12430,7 +12505,7 @@
         <v>631</v>
       </c>
       <c r="B476" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="C476" t="s">
         <v>682</v>
@@ -12447,7 +12522,7 @@
         <v>631</v>
       </c>
       <c r="B477" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C477" t="s">
         <v>682</v>
@@ -12464,7 +12539,7 @@
         <v>631</v>
       </c>
       <c r="B478" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="C478" t="s">
         <v>682</v>
@@ -12481,7 +12556,7 @@
         <v>631</v>
       </c>
       <c r="B479" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C479" t="s">
         <v>682</v>
@@ -12495,16 +12570,16 @@
     </row>
     <row r="480" spans="1:5">
       <c r="A480" t="s">
-        <v>769</v>
+        <v>631</v>
       </c>
       <c r="B480" t="s">
-        <v>784</v>
+        <v>679</v>
       </c>
       <c r="C480" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D480" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E480" t="s">
         <v>651</v>
@@ -12512,16 +12587,16 @@
     </row>
     <row r="481" spans="1:5">
       <c r="A481" t="s">
-        <v>769</v>
+        <v>631</v>
       </c>
       <c r="B481" t="s">
-        <v>785</v>
+        <v>680</v>
       </c>
       <c r="C481" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D481" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E481" t="s">
         <v>651</v>
@@ -12529,16 +12604,16 @@
     </row>
     <row r="482" spans="1:5">
       <c r="A482" t="s">
-        <v>769</v>
+        <v>631</v>
       </c>
       <c r="B482" t="s">
-        <v>786</v>
+        <v>681</v>
       </c>
       <c r="C482" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D482" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="E482" t="s">
         <v>651</v>
@@ -12549,7 +12624,7 @@
         <v>769</v>
       </c>
       <c r="B483" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="C483" t="s">
         <v>695</v>
@@ -12566,7 +12641,7 @@
         <v>769</v>
       </c>
       <c r="B484" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="C484" t="s">
         <v>695</v>
@@ -12580,10 +12655,10 @@
     </row>
     <row r="485" spans="1:5">
       <c r="A485" t="s">
-        <v>632</v>
+        <v>769</v>
       </c>
       <c r="B485" t="s">
-        <v>684</v>
+        <v>786</v>
       </c>
       <c r="C485" t="s">
         <v>695</v>
@@ -12597,10 +12672,10 @@
     </row>
     <row r="486" spans="1:5">
       <c r="A486" t="s">
-        <v>632</v>
+        <v>769</v>
       </c>
       <c r="B486" t="s">
-        <v>685</v>
+        <v>787</v>
       </c>
       <c r="C486" t="s">
         <v>695</v>
@@ -12614,10 +12689,10 @@
     </row>
     <row r="487" spans="1:5">
       <c r="A487" t="s">
-        <v>632</v>
+        <v>769</v>
       </c>
       <c r="B487" t="s">
-        <v>686</v>
+        <v>788</v>
       </c>
       <c r="C487" t="s">
         <v>695</v>
@@ -12634,7 +12709,7 @@
         <v>632</v>
       </c>
       <c r="B488" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C488" t="s">
         <v>695</v>
@@ -12651,7 +12726,7 @@
         <v>632</v>
       </c>
       <c r="B489" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="C489" t="s">
         <v>695</v>
@@ -12668,7 +12743,7 @@
         <v>632</v>
       </c>
       <c r="B490" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C490" t="s">
         <v>695</v>
@@ -12685,7 +12760,7 @@
         <v>632</v>
       </c>
       <c r="B491" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="C491" t="s">
         <v>695</v>
@@ -12702,7 +12777,7 @@
         <v>632</v>
       </c>
       <c r="B492" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C492" t="s">
         <v>695</v>
@@ -12719,7 +12794,7 @@
         <v>632</v>
       </c>
       <c r="B493" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="C493" t="s">
         <v>695</v>
@@ -12736,7 +12811,7 @@
         <v>632</v>
       </c>
       <c r="B494" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="C494" t="s">
         <v>695</v>
@@ -12753,7 +12828,7 @@
         <v>632</v>
       </c>
       <c r="B495" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C495" t="s">
         <v>695</v>
@@ -12767,10 +12842,10 @@
     </row>
     <row r="496" spans="1:5">
       <c r="A496" t="s">
-        <v>770</v>
+        <v>632</v>
       </c>
       <c r="B496" t="s">
-        <v>790</v>
+        <v>692</v>
       </c>
       <c r="C496" t="s">
         <v>695</v>
@@ -12784,10 +12859,10 @@
     </row>
     <row r="497" spans="1:5">
       <c r="A497" t="s">
-        <v>770</v>
+        <v>632</v>
       </c>
       <c r="B497" t="s">
-        <v>791</v>
+        <v>693</v>
       </c>
       <c r="C497" t="s">
         <v>695</v>
@@ -12801,10 +12876,10 @@
     </row>
     <row r="498" spans="1:5">
       <c r="A498" t="s">
-        <v>770</v>
+        <v>632</v>
       </c>
       <c r="B498" t="s">
-        <v>792</v>
+        <v>694</v>
       </c>
       <c r="C498" t="s">
         <v>695</v>
@@ -12821,7 +12896,7 @@
         <v>770</v>
       </c>
       <c r="B499" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C499" t="s">
         <v>695</v>
@@ -12838,7 +12913,7 @@
         <v>770</v>
       </c>
       <c r="B500" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="C500" t="s">
         <v>695</v>
@@ -12855,7 +12930,7 @@
         <v>770</v>
       </c>
       <c r="B501" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="C501" t="s">
         <v>695</v>
@@ -12872,7 +12947,7 @@
         <v>770</v>
       </c>
       <c r="B502" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="C502" t="s">
         <v>695</v>
@@ -12889,7 +12964,7 @@
         <v>770</v>
       </c>
       <c r="B503" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C503" t="s">
         <v>695</v>
@@ -12903,10 +12978,10 @@
     </row>
     <row r="504" spans="1:5">
       <c r="A504" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="B504" t="s">
-        <v>761</v>
+        <v>795</v>
       </c>
       <c r="C504" t="s">
         <v>695</v>
@@ -12920,10 +12995,10 @@
     </row>
     <row r="505" spans="1:5">
       <c r="A505" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="B505" t="s">
-        <v>762</v>
+        <v>796</v>
       </c>
       <c r="C505" t="s">
         <v>695</v>
@@ -12937,10 +13012,10 @@
     </row>
     <row r="506" spans="1:5">
       <c r="A506" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="B506" t="s">
-        <v>763</v>
+        <v>789</v>
       </c>
       <c r="C506" t="s">
         <v>695</v>
@@ -12957,7 +13032,7 @@
         <v>697</v>
       </c>
       <c r="B507" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="C507" t="s">
         <v>695</v>
@@ -12974,7 +13049,7 @@
         <v>697</v>
       </c>
       <c r="B508" t="s">
-        <v>697</v>
+        <v>762</v>
       </c>
       <c r="C508" t="s">
         <v>695</v>
@@ -12991,7 +13066,7 @@
         <v>697</v>
       </c>
       <c r="B509" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C509" t="s">
         <v>695</v>
@@ -13008,7 +13083,7 @@
         <v>697</v>
       </c>
       <c r="B510" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C510" t="s">
         <v>695</v>
@@ -13025,7 +13100,7 @@
         <v>697</v>
       </c>
       <c r="B511" t="s">
-        <v>767</v>
+        <v>697</v>
       </c>
       <c r="C511" t="s">
         <v>695</v>
@@ -13039,16 +13114,16 @@
     </row>
     <row r="512" spans="1:5">
       <c r="A512" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="B512" t="s">
-        <v>809</v>
+        <v>765</v>
       </c>
       <c r="C512" t="s">
-        <v>806</v>
+        <v>695</v>
       </c>
       <c r="D512" t="s">
-        <v>807</v>
+        <v>696</v>
       </c>
       <c r="E512" t="s">
         <v>651</v>
@@ -13056,16 +13131,16 @@
     </row>
     <row r="513" spans="1:5">
       <c r="A513" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="B513" t="s">
-        <v>810</v>
+        <v>766</v>
       </c>
       <c r="C513" t="s">
-        <v>806</v>
+        <v>695</v>
       </c>
       <c r="D513" t="s">
-        <v>807</v>
+        <v>696</v>
       </c>
       <c r="E513" t="s">
         <v>651</v>
@@ -13073,16 +13148,16 @@
     </row>
     <row r="514" spans="1:5">
       <c r="A514" t="s">
-        <v>773</v>
+        <v>697</v>
       </c>
       <c r="B514" t="s">
-        <v>811</v>
+        <v>767</v>
       </c>
       <c r="C514" t="s">
-        <v>806</v>
+        <v>695</v>
       </c>
       <c r="D514" t="s">
-        <v>807</v>
+        <v>696</v>
       </c>
       <c r="E514" t="s">
         <v>651</v>
@@ -13093,7 +13168,7 @@
         <v>773</v>
       </c>
       <c r="B515" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="C515" t="s">
         <v>806</v>
@@ -13110,7 +13185,7 @@
         <v>773</v>
       </c>
       <c r="B516" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C516" t="s">
         <v>806</v>
@@ -13124,16 +13199,16 @@
     </row>
     <row r="517" spans="1:5">
       <c r="A517" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="B517" t="s">
-        <v>739</v>
+        <v>811</v>
       </c>
       <c r="C517" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="D517" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="E517" t="s">
         <v>651</v>
@@ -13141,16 +13216,16 @@
     </row>
     <row r="518" spans="1:5">
       <c r="A518" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="B518" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
       <c r="C518" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="D518" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="E518" t="s">
         <v>651</v>
@@ -13158,16 +13233,16 @@
     </row>
     <row r="519" spans="1:5">
       <c r="A519" t="s">
-        <v>636</v>
+        <v>773</v>
       </c>
       <c r="B519" t="s">
-        <v>741</v>
+        <v>808</v>
       </c>
       <c r="C519" t="s">
-        <v>738</v>
+        <v>806</v>
       </c>
       <c r="D519" t="s">
-        <v>728</v>
+        <v>807</v>
       </c>
       <c r="E519" t="s">
         <v>651</v>
@@ -13178,7 +13253,7 @@
         <v>636</v>
       </c>
       <c r="B520" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C520" t="s">
         <v>738</v>
@@ -13195,7 +13270,7 @@
         <v>636</v>
       </c>
       <c r="B521" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="C521" t="s">
         <v>738</v>
@@ -13212,7 +13287,7 @@
         <v>636</v>
       </c>
       <c r="B522" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="C522" t="s">
         <v>738</v>
@@ -13229,7 +13304,7 @@
         <v>636</v>
       </c>
       <c r="B523" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="C523" t="s">
         <v>738</v>
@@ -13246,7 +13321,7 @@
         <v>636</v>
       </c>
       <c r="B524" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="C524" t="s">
         <v>738</v>
@@ -13263,7 +13338,7 @@
         <v>636</v>
       </c>
       <c r="B525" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="C525" t="s">
         <v>738</v>
@@ -13280,7 +13355,7 @@
         <v>636</v>
       </c>
       <c r="B526" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="C526" t="s">
         <v>738</v>
@@ -13297,7 +13372,7 @@
         <v>636</v>
       </c>
       <c r="B527" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="C527" t="s">
         <v>738</v>
@@ -13314,7 +13389,7 @@
         <v>636</v>
       </c>
       <c r="B528" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="C528" t="s">
         <v>738</v>
@@ -13331,7 +13406,7 @@
         <v>636</v>
       </c>
       <c r="B529" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="C529" t="s">
         <v>738</v>
@@ -13348,7 +13423,7 @@
         <v>636</v>
       </c>
       <c r="B530" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="C530" t="s">
         <v>738</v>
@@ -13365,7 +13440,7 @@
         <v>636</v>
       </c>
       <c r="B531" t="s">
-        <v>737</v>
+        <v>750</v>
       </c>
       <c r="C531" t="s">
         <v>738</v>
@@ -13379,16 +13454,16 @@
     </row>
     <row r="532" spans="1:5">
       <c r="A532" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B532" t="s">
-        <v>698</v>
+        <v>751</v>
       </c>
       <c r="C532" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D532" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="E532" t="s">
         <v>651</v>
@@ -13396,16 +13471,16 @@
     </row>
     <row r="533" spans="1:5">
       <c r="A533" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B533" t="s">
-        <v>699</v>
+        <v>752</v>
       </c>
       <c r="C533" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D533" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="E533" t="s">
         <v>651</v>
@@ -13413,16 +13488,16 @@
     </row>
     <row r="534" spans="1:5">
       <c r="A534" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="B534" t="s">
-        <v>700</v>
+        <v>737</v>
       </c>
       <c r="C534" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="D534" t="s">
-        <v>711</v>
+        <v>728</v>
       </c>
       <c r="E534" t="s">
         <v>651</v>
@@ -13433,7 +13508,7 @@
         <v>633</v>
       </c>
       <c r="B535" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="C535" t="s">
         <v>710</v>
@@ -13450,7 +13525,7 @@
         <v>633</v>
       </c>
       <c r="B536" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="C536" t="s">
         <v>710</v>
@@ -13467,7 +13542,7 @@
         <v>633</v>
       </c>
       <c r="B537" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C537" t="s">
         <v>710</v>
@@ -13484,7 +13559,7 @@
         <v>633</v>
       </c>
       <c r="B538" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C538" t="s">
         <v>710</v>
@@ -13501,7 +13576,7 @@
         <v>633</v>
       </c>
       <c r="B539" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C539" t="s">
         <v>710</v>
@@ -13518,7 +13593,7 @@
         <v>633</v>
       </c>
       <c r="B540" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="C540" t="s">
         <v>710</v>
@@ -13535,7 +13610,7 @@
         <v>633</v>
       </c>
       <c r="B541" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C541" t="s">
         <v>710</v>
@@ -13552,7 +13627,7 @@
         <v>633</v>
       </c>
       <c r="B542" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="C542" t="s">
         <v>710</v>
@@ -13569,7 +13644,7 @@
         <v>633</v>
       </c>
       <c r="B543" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C543" t="s">
         <v>710</v>
@@ -13583,10 +13658,10 @@
     </row>
     <row r="544" spans="1:5">
       <c r="A544" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B544" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C544" t="s">
         <v>710</v>
@@ -13600,10 +13675,10 @@
     </row>
     <row r="545" spans="1:5">
       <c r="A545" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B545" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C545" t="s">
         <v>710</v>
@@ -13617,10 +13692,10 @@
     </row>
     <row r="546" spans="1:5">
       <c r="A546" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B546" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C546" t="s">
         <v>710</v>
@@ -13637,7 +13712,7 @@
         <v>634</v>
       </c>
       <c r="B547" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="C547" t="s">
         <v>710</v>
@@ -13654,7 +13729,7 @@
         <v>634</v>
       </c>
       <c r="B548" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C548" t="s">
         <v>710</v>
@@ -13671,7 +13746,7 @@
         <v>634</v>
       </c>
       <c r="B549" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="C549" t="s">
         <v>710</v>
@@ -13688,7 +13763,7 @@
         <v>634</v>
       </c>
       <c r="B550" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="C550" t="s">
         <v>710</v>
@@ -13702,53 +13777,53 @@
     </row>
     <row r="551" spans="1:5">
       <c r="A551" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="B551" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="C551" t="s">
-        <v>257</v>
+        <v>710</v>
       </c>
       <c r="D551" t="s">
-        <v>258</v>
+        <v>711</v>
       </c>
       <c r="E551" t="s">
-        <v>259</v>
+        <v>651</v>
       </c>
     </row>
     <row r="552" spans="1:5">
       <c r="A552" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="B552" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="C552" t="s">
-        <v>257</v>
+        <v>710</v>
       </c>
       <c r="D552" t="s">
-        <v>258</v>
+        <v>711</v>
       </c>
       <c r="E552" t="s">
-        <v>259</v>
+        <v>651</v>
       </c>
     </row>
     <row r="553" spans="1:5">
       <c r="A553" t="s">
-        <v>729</v>
+        <v>634</v>
       </c>
       <c r="B553" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="C553" t="s">
-        <v>257</v>
+        <v>710</v>
       </c>
       <c r="D553" t="s">
-        <v>258</v>
+        <v>711</v>
       </c>
       <c r="E553" t="s">
-        <v>259</v>
+        <v>651</v>
       </c>
     </row>
     <row r="554" spans="1:5">
@@ -13756,7 +13831,7 @@
         <v>729</v>
       </c>
       <c r="B554" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="C554" t="s">
         <v>257</v>
@@ -13773,7 +13848,7 @@
         <v>729</v>
       </c>
       <c r="B555" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="C555" t="s">
         <v>257</v>
@@ -13790,7 +13865,7 @@
         <v>729</v>
       </c>
       <c r="B556" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="C556" t="s">
         <v>257</v>
@@ -13807,7 +13882,7 @@
         <v>729</v>
       </c>
       <c r="B557" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="C557" t="s">
         <v>257</v>
@@ -13821,10 +13896,10 @@
     </row>
     <row r="558" spans="1:5">
       <c r="A558" t="s">
-        <v>1017</v>
+        <v>729</v>
       </c>
       <c r="B558" t="s">
-        <v>1116</v>
+        <v>735</v>
       </c>
       <c r="C558" t="s">
         <v>257</v>
@@ -13838,10 +13913,10 @@
     </row>
     <row r="559" spans="1:5">
       <c r="A559" t="s">
-        <v>1017</v>
+        <v>729</v>
       </c>
       <c r="B559" t="s">
-        <v>1117</v>
+        <v>736</v>
       </c>
       <c r="C559" t="s">
         <v>257</v>
@@ -13855,10 +13930,10 @@
     </row>
     <row r="560" spans="1:5">
       <c r="A560" t="s">
-        <v>1017</v>
+        <v>729</v>
       </c>
       <c r="B560" t="s">
-        <v>1118</v>
+        <v>730</v>
       </c>
       <c r="C560" t="s">
         <v>257</v>
@@ -13875,7 +13950,7 @@
         <v>1017</v>
       </c>
       <c r="B561" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="C561" t="s">
         <v>257</v>
@@ -13892,7 +13967,7 @@
         <v>1017</v>
       </c>
       <c r="B562" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="C562" t="s">
         <v>257</v>
@@ -13909,7 +13984,7 @@
         <v>1017</v>
       </c>
       <c r="B563" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="C563" t="s">
         <v>257</v>
@@ -13926,7 +14001,7 @@
         <v>1017</v>
       </c>
       <c r="B564" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="C564" t="s">
         <v>257</v>
@@ -13943,7 +14018,7 @@
         <v>1017</v>
       </c>
       <c r="B565" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="C565" t="s">
         <v>257</v>
@@ -13960,7 +14035,7 @@
         <v>1017</v>
       </c>
       <c r="B566" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="C566" t="s">
         <v>257</v>
@@ -13977,7 +14052,7 @@
         <v>1017</v>
       </c>
       <c r="B567" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="C567" t="s">
         <v>257</v>
@@ -13994,7 +14069,7 @@
         <v>1017</v>
       </c>
       <c r="B568" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="C568" t="s">
         <v>257</v>
@@ -14011,7 +14086,7 @@
         <v>1017</v>
       </c>
       <c r="B569" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="C569" t="s">
         <v>257</v>
@@ -14028,7 +14103,7 @@
         <v>1017</v>
       </c>
       <c r="B570" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="C570" t="s">
         <v>257</v>
@@ -14045,7 +14120,7 @@
         <v>1017</v>
       </c>
       <c r="B571" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="C571" t="s">
         <v>257</v>
@@ -14062,7 +14137,7 @@
         <v>1017</v>
       </c>
       <c r="B572" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="C572" t="s">
         <v>257</v>
@@ -14076,10 +14151,10 @@
     </row>
     <row r="573" spans="1:5">
       <c r="A573" t="s">
-        <v>23</v>
+        <v>1017</v>
       </c>
       <c r="B573" t="s">
-        <v>24</v>
+        <v>1128</v>
       </c>
       <c r="C573" t="s">
         <v>257</v>
@@ -14093,10 +14168,10 @@
     </row>
     <row r="574" spans="1:5">
       <c r="A574" t="s">
-        <v>23</v>
+        <v>1017</v>
       </c>
       <c r="B574" t="s">
-        <v>25</v>
+        <v>1129</v>
       </c>
       <c r="C574" t="s">
         <v>257</v>
@@ -14110,10 +14185,10 @@
     </row>
     <row r="575" spans="1:5">
       <c r="A575" t="s">
-        <v>23</v>
+        <v>1017</v>
       </c>
       <c r="B575" t="s">
-        <v>26</v>
+        <v>1130</v>
       </c>
       <c r="C575" t="s">
         <v>257</v>
@@ -14127,10 +14202,10 @@
     </row>
     <row r="576" spans="1:5">
       <c r="A576" t="s">
-        <v>1020</v>
+        <v>23</v>
       </c>
       <c r="B576" t="s">
-        <v>1150</v>
+        <v>24</v>
       </c>
       <c r="C576" t="s">
         <v>257</v>
@@ -14144,10 +14219,10 @@
     </row>
     <row r="577" spans="1:5">
       <c r="A577" t="s">
-        <v>1020</v>
+        <v>23</v>
       </c>
       <c r="B577" t="s">
-        <v>1151</v>
+        <v>25</v>
       </c>
       <c r="C577" t="s">
         <v>257</v>
@@ -14161,10 +14236,10 @@
     </row>
     <row r="578" spans="1:5">
       <c r="A578" t="s">
-        <v>1020</v>
+        <v>23</v>
       </c>
       <c r="B578" t="s">
-        <v>1152</v>
+        <v>26</v>
       </c>
       <c r="C578" t="s">
         <v>257</v>
@@ -14180,8 +14255,8 @@
       <c r="A579" t="s">
         <v>1020</v>
       </c>
-      <c r="B579" s="5" t="s">
-        <v>1153</v>
+      <c r="B579" t="s">
+        <v>1150</v>
       </c>
       <c r="C579" t="s">
         <v>257</v>
@@ -14198,7 +14273,7 @@
         <v>1020</v>
       </c>
       <c r="B580" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="C580" t="s">
         <v>257</v>
@@ -14215,7 +14290,7 @@
         <v>1020</v>
       </c>
       <c r="B581" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="C581" t="s">
         <v>257</v>
@@ -14231,8 +14306,8 @@
       <c r="A582" t="s">
         <v>1020</v>
       </c>
-      <c r="B582" t="s">
-        <v>1156</v>
+      <c r="B582" s="5" t="s">
+        <v>1153</v>
       </c>
       <c r="C582" t="s">
         <v>257</v>
@@ -14246,10 +14321,10 @@
     </row>
     <row r="583" spans="1:5">
       <c r="A583" t="s">
-        <v>48</v>
+        <v>1020</v>
       </c>
       <c r="B583" t="s">
-        <v>49</v>
+        <v>1154</v>
       </c>
       <c r="C583" t="s">
         <v>257</v>
@@ -14263,10 +14338,10 @@
     </row>
     <row r="584" spans="1:5">
       <c r="A584" t="s">
-        <v>48</v>
+        <v>1020</v>
       </c>
       <c r="B584" t="s">
-        <v>50</v>
+        <v>1155</v>
       </c>
       <c r="C584" t="s">
         <v>257</v>
@@ -14280,10 +14355,10 @@
     </row>
     <row r="585" spans="1:5">
       <c r="A585" t="s">
-        <v>48</v>
+        <v>1020</v>
       </c>
       <c r="B585" t="s">
-        <v>51</v>
+        <v>1156</v>
       </c>
       <c r="C585" t="s">
         <v>257</v>
@@ -14300,7 +14375,7 @@
         <v>48</v>
       </c>
       <c r="B586" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C586" t="s">
         <v>257</v>
@@ -14317,7 +14392,7 @@
         <v>48</v>
       </c>
       <c r="B587" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C587" t="s">
         <v>257</v>
@@ -14334,7 +14409,7 @@
         <v>48</v>
       </c>
       <c r="B588" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C588" t="s">
         <v>257</v>
@@ -14351,7 +14426,7 @@
         <v>48</v>
       </c>
       <c r="B589" t="s">
-        <v>1229</v>
+        <v>52</v>
       </c>
       <c r="C589" t="s">
         <v>257</v>
@@ -14368,7 +14443,7 @@
         <v>48</v>
       </c>
       <c r="B590" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C590" t="s">
         <v>257</v>
@@ -14385,7 +14460,7 @@
         <v>48</v>
       </c>
       <c r="B591" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C591" t="s">
         <v>257</v>
@@ -14399,10 +14474,10 @@
     </row>
     <row r="592" spans="1:5">
       <c r="A592" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B592" t="s">
-        <v>9</v>
+        <v>1229</v>
       </c>
       <c r="C592" t="s">
         <v>257</v>
@@ -14416,10 +14491,10 @@
     </row>
     <row r="593" spans="1:5">
       <c r="A593" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B593" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="C593" t="s">
         <v>257</v>
@@ -14433,10 +14508,10 @@
     </row>
     <row r="594" spans="1:5">
       <c r="A594" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="B594" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="C594" t="s">
         <v>257</v>
@@ -14453,7 +14528,7 @@
         <v>8</v>
       </c>
       <c r="B595" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C595" t="s">
         <v>257</v>
@@ -14470,7 +14545,7 @@
         <v>8</v>
       </c>
       <c r="B596" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C596" t="s">
         <v>257</v>
@@ -14487,7 +14562,7 @@
         <v>8</v>
       </c>
       <c r="B597" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C597" t="s">
         <v>257</v>
@@ -14504,7 +14579,7 @@
         <v>8</v>
       </c>
       <c r="B598" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C598" t="s">
         <v>257</v>
@@ -14521,7 +14596,7 @@
         <v>8</v>
       </c>
       <c r="B599" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C599" t="s">
         <v>257</v>
@@ -14538,7 +14613,7 @@
         <v>8</v>
       </c>
       <c r="B600" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C600" t="s">
         <v>257</v>
@@ -14555,7 +14630,7 @@
         <v>8</v>
       </c>
       <c r="B601" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C601" t="s">
         <v>257</v>
@@ -14572,7 +14647,7 @@
         <v>8</v>
       </c>
       <c r="B602" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C602" t="s">
         <v>257</v>
@@ -14589,7 +14664,7 @@
         <v>8</v>
       </c>
       <c r="B603" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C603" t="s">
         <v>257</v>
@@ -14606,7 +14681,7 @@
         <v>8</v>
       </c>
       <c r="B604" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C604" t="s">
         <v>257</v>
@@ -14623,7 +14698,7 @@
         <v>8</v>
       </c>
       <c r="B605" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C605" t="s">
         <v>257</v>
@@ -14637,10 +14712,10 @@
     </row>
     <row r="606" spans="1:5">
       <c r="A606" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B606" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="C606" t="s">
         <v>257</v>
@@ -14654,10 +14729,10 @@
     </row>
     <row r="607" spans="1:5">
       <c r="A607" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B607" t="s">
-        <v>122</v>
+        <v>21</v>
       </c>
       <c r="C607" t="s">
         <v>257</v>
@@ -14671,10 +14746,10 @@
     </row>
     <row r="608" spans="1:5">
       <c r="A608" t="s">
-        <v>120</v>
+        <v>8</v>
       </c>
       <c r="B608" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="C608" t="s">
         <v>257</v>
@@ -14691,7 +14766,7 @@
         <v>120</v>
       </c>
       <c r="B609" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C609" t="s">
         <v>257</v>
@@ -14708,7 +14783,7 @@
         <v>120</v>
       </c>
       <c r="B610" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C610" t="s">
         <v>257</v>
@@ -14725,7 +14800,7 @@
         <v>120</v>
       </c>
       <c r="B611" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C611" t="s">
         <v>257</v>
@@ -14742,7 +14817,7 @@
         <v>120</v>
       </c>
       <c r="B612" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C612" t="s">
         <v>257</v>
@@ -14759,7 +14834,7 @@
         <v>120</v>
       </c>
       <c r="B613" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C613" t="s">
         <v>257</v>
@@ -14776,7 +14851,7 @@
         <v>120</v>
       </c>
       <c r="B614" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C614" t="s">
         <v>257</v>
@@ -14790,10 +14865,10 @@
     </row>
     <row r="615" spans="1:5">
       <c r="A615" t="s">
-        <v>1243</v>
+        <v>120</v>
       </c>
       <c r="B615" t="s">
-        <v>1244</v>
+        <v>127</v>
       </c>
       <c r="C615" t="s">
         <v>257</v>
@@ -14807,10 +14882,10 @@
     </row>
     <row r="616" spans="1:5">
       <c r="A616" t="s">
-        <v>1243</v>
+        <v>120</v>
       </c>
       <c r="B616" t="s">
-        <v>1245</v>
+        <v>128</v>
       </c>
       <c r="C616" t="s">
         <v>257</v>
@@ -14824,10 +14899,10 @@
     </row>
     <row r="617" spans="1:5">
       <c r="A617" t="s">
-        <v>1243</v>
+        <v>120</v>
       </c>
       <c r="B617" t="s">
-        <v>1246</v>
+        <v>129</v>
       </c>
       <c r="C617" t="s">
         <v>257</v>
@@ -14844,7 +14919,7 @@
         <v>1243</v>
       </c>
       <c r="B618" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="C618" t="s">
         <v>257</v>
@@ -14861,7 +14936,7 @@
         <v>1243</v>
       </c>
       <c r="B619" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="C619" t="s">
         <v>257</v>
@@ -14878,7 +14953,7 @@
         <v>1243</v>
       </c>
       <c r="B620" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C620" t="s">
         <v>257</v>
@@ -14892,10 +14967,10 @@
     </row>
     <row r="621" spans="1:5">
       <c r="A621" t="s">
-        <v>822</v>
-      </c>
-      <c r="B621" s="3" t="s">
-        <v>821</v>
+        <v>1243</v>
+      </c>
+      <c r="B621" t="s">
+        <v>1247</v>
       </c>
       <c r="C621" t="s">
         <v>257</v>
@@ -14909,10 +14984,10 @@
     </row>
     <row r="622" spans="1:5">
       <c r="A622" t="s">
-        <v>822</v>
-      </c>
-      <c r="B622" s="3">
-        <v>777</v>
+        <v>1243</v>
+      </c>
+      <c r="B622" t="s">
+        <v>1248</v>
       </c>
       <c r="C622" t="s">
         <v>257</v>
@@ -14926,10 +15001,10 @@
     </row>
     <row r="623" spans="1:5">
       <c r="A623" t="s">
-        <v>39</v>
+        <v>1243</v>
       </c>
       <c r="B623" t="s">
-        <v>40</v>
+        <v>1249</v>
       </c>
       <c r="C623" t="s">
         <v>257</v>
@@ -14943,10 +15018,10 @@
     </row>
     <row r="624" spans="1:5">
       <c r="A624" t="s">
-        <v>39</v>
-      </c>
-      <c r="B624" t="s">
-        <v>41</v>
+        <v>822</v>
+      </c>
+      <c r="B624" s="3" t="s">
+        <v>821</v>
       </c>
       <c r="C624" t="s">
         <v>257</v>
@@ -14960,10 +15035,10 @@
     </row>
     <row r="625" spans="1:5">
       <c r="A625" t="s">
-        <v>39</v>
-      </c>
-      <c r="B625" t="s">
-        <v>42</v>
+        <v>822</v>
+      </c>
+      <c r="B625" s="3">
+        <v>777</v>
       </c>
       <c r="C625" t="s">
         <v>257</v>
@@ -14980,7 +15055,7 @@
         <v>39</v>
       </c>
       <c r="B626" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C626" t="s">
         <v>257</v>
@@ -14997,7 +15072,7 @@
         <v>39</v>
       </c>
       <c r="B627" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C627" t="s">
         <v>257</v>
@@ -15014,7 +15089,7 @@
         <v>39</v>
       </c>
       <c r="B628" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C628" t="s">
         <v>257</v>
@@ -15031,7 +15106,7 @@
         <v>39</v>
       </c>
       <c r="B629" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C629" t="s">
         <v>257</v>
@@ -15048,7 +15123,7 @@
         <v>39</v>
       </c>
       <c r="B630" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C630" t="s">
         <v>257</v>
@@ -15062,10 +15137,10 @@
     </row>
     <row r="631" spans="1:5">
       <c r="A631" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B631" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C631" t="s">
         <v>257</v>
@@ -15079,10 +15154,10 @@
     </row>
     <row r="632" spans="1:5">
       <c r="A632" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B632" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C632" t="s">
         <v>257</v>
@@ -15096,10 +15171,10 @@
     </row>
     <row r="633" spans="1:5">
       <c r="A633" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B633" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C633" t="s">
         <v>257</v>
@@ -15116,7 +15191,7 @@
         <v>56</v>
       </c>
       <c r="B634" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C634" t="s">
         <v>257</v>
@@ -15130,10 +15205,10 @@
     </row>
     <row r="635" spans="1:5">
       <c r="A635" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B635" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C635" t="s">
         <v>257</v>
@@ -15147,10 +15222,10 @@
     </row>
     <row r="636" spans="1:5">
       <c r="A636" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B636" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="C636" t="s">
         <v>257</v>
@@ -15164,10 +15239,10 @@
     </row>
     <row r="637" spans="1:5">
       <c r="A637" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="B637" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="C637" t="s">
         <v>257</v>
@@ -15184,7 +15259,7 @@
         <v>2</v>
       </c>
       <c r="B638" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C638" t="s">
         <v>257</v>
@@ -15201,7 +15276,7 @@
         <v>2</v>
       </c>
       <c r="B639" t="s">
-        <v>1228</v>
+        <v>4</v>
       </c>
       <c r="C639" t="s">
         <v>257</v>
@@ -15218,7 +15293,7 @@
         <v>2</v>
       </c>
       <c r="B640" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C640" t="s">
         <v>257</v>
@@ -15232,10 +15307,10 @@
     </row>
     <row r="641" spans="1:5">
       <c r="A641" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B641" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C641" t="s">
         <v>257</v>
@@ -15249,10 +15324,10 @@
     </row>
     <row r="642" spans="1:5">
       <c r="A642" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B642" t="s">
-        <v>30</v>
+        <v>1228</v>
       </c>
       <c r="C642" t="s">
         <v>257</v>
@@ -15266,10 +15341,10 @@
     </row>
     <row r="643" spans="1:5">
       <c r="A643" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B643" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="C643" t="s">
         <v>257</v>
@@ -15286,7 +15361,7 @@
         <v>27</v>
       </c>
       <c r="B644" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C644" t="s">
         <v>257</v>
@@ -15303,7 +15378,7 @@
         <v>27</v>
       </c>
       <c r="B645" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C645" t="s">
         <v>257</v>
@@ -15320,7 +15395,7 @@
         <v>27</v>
       </c>
       <c r="B646" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C646" t="s">
         <v>257</v>
@@ -15337,7 +15412,7 @@
         <v>27</v>
       </c>
       <c r="B647" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C647" t="s">
         <v>257</v>
@@ -15354,7 +15429,7 @@
         <v>27</v>
       </c>
       <c r="B648" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C648" t="s">
         <v>257</v>
@@ -15371,7 +15446,7 @@
         <v>27</v>
       </c>
       <c r="B649" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C649" t="s">
         <v>257</v>
@@ -15388,7 +15463,7 @@
         <v>27</v>
       </c>
       <c r="B650" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C650" t="s">
         <v>257</v>
@@ -15405,7 +15480,7 @@
         <v>27</v>
       </c>
       <c r="B651" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C651" t="s">
         <v>257</v>
@@ -15419,16 +15494,16 @@
     </row>
     <row r="652" spans="1:5">
       <c r="A652" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B652" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="C652" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D652" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E652" t="s">
         <v>259</v>
@@ -15436,16 +15511,16 @@
     </row>
     <row r="653" spans="1:5">
       <c r="A653" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B653" t="s">
-        <v>118</v>
+        <v>37</v>
       </c>
       <c r="C653" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D653" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E653" t="s">
         <v>259</v>
@@ -15453,16 +15528,16 @@
     </row>
     <row r="654" spans="1:5">
       <c r="A654" t="s">
-        <v>116</v>
+        <v>27</v>
       </c>
       <c r="B654" t="s">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="C654" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="D654" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E654" t="s">
         <v>259</v>
@@ -15470,16 +15545,16 @@
     </row>
     <row r="655" spans="1:5">
       <c r="A655" t="s">
-        <v>387</v>
+        <v>116</v>
       </c>
       <c r="B655" t="s">
-        <v>389</v>
+        <v>117</v>
       </c>
       <c r="C655" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="D655" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E655" t="s">
         <v>259</v>
@@ -15487,16 +15562,16 @@
     </row>
     <row r="656" spans="1:5">
       <c r="A656" t="s">
-        <v>387</v>
+        <v>116</v>
       </c>
       <c r="B656" t="s">
-        <v>390</v>
+        <v>118</v>
       </c>
       <c r="C656" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="D656" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E656" t="s">
         <v>259</v>
@@ -15504,16 +15579,16 @@
     </row>
     <row r="657" spans="1:5">
       <c r="A657" t="s">
-        <v>387</v>
+        <v>116</v>
       </c>
       <c r="B657" t="s">
-        <v>391</v>
+        <v>119</v>
       </c>
       <c r="C657" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="D657" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E657" t="s">
         <v>259</v>
@@ -15524,7 +15599,7 @@
         <v>387</v>
       </c>
       <c r="B658" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C658" t="s">
         <v>394</v>
@@ -15541,7 +15616,7 @@
         <v>387</v>
       </c>
       <c r="B659" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C659" t="s">
         <v>394</v>
@@ -15558,7 +15633,7 @@
         <v>387</v>
       </c>
       <c r="B660" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C660" t="s">
         <v>394</v>
@@ -15572,16 +15647,16 @@
     </row>
     <row r="661" spans="1:5">
       <c r="A661" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B661" t="s">
-        <v>138</v>
+        <v>392</v>
       </c>
       <c r="C661" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D661" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E661" t="s">
         <v>259</v>
@@ -15589,16 +15664,16 @@
     </row>
     <row r="662" spans="1:5">
       <c r="A662" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B662" t="s">
-        <v>139</v>
+        <v>393</v>
       </c>
       <c r="C662" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D662" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E662" t="s">
         <v>259</v>
@@ -15606,16 +15681,16 @@
     </row>
     <row r="663" spans="1:5">
       <c r="A663" t="s">
-        <v>137</v>
+        <v>387</v>
       </c>
       <c r="B663" t="s">
-        <v>140</v>
+        <v>388</v>
       </c>
       <c r="C663" t="s">
-        <v>272</v>
+        <v>394</v>
       </c>
       <c r="D663" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E663" t="s">
         <v>259</v>
@@ -15626,7 +15701,7 @@
         <v>137</v>
       </c>
       <c r="B664" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C664" t="s">
         <v>272</v>
@@ -15643,7 +15718,7 @@
         <v>137</v>
       </c>
       <c r="B665" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C665" t="s">
         <v>272</v>
@@ -15660,7 +15735,7 @@
         <v>137</v>
       </c>
       <c r="B666" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C666" t="s">
         <v>272</v>
@@ -15677,7 +15752,7 @@
         <v>137</v>
       </c>
       <c r="B667" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C667" t="s">
         <v>272</v>
@@ -15691,10 +15766,10 @@
     </row>
     <row r="668" spans="1:5">
       <c r="A668" t="s">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="B668" t="s">
-        <v>414</v>
+        <v>142</v>
       </c>
       <c r="C668" t="s">
         <v>272</v>
@@ -15708,10 +15783,10 @@
     </row>
     <row r="669" spans="1:5">
       <c r="A669" t="s">
-        <v>412</v>
+        <v>137</v>
       </c>
       <c r="B669" t="s">
-        <v>413</v>
+        <v>143</v>
       </c>
       <c r="C669" t="s">
         <v>272</v>
@@ -15725,10 +15800,10 @@
     </row>
     <row r="670" spans="1:5">
       <c r="A670" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="B670" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C670" t="s">
         <v>272</v>
@@ -15742,10 +15817,10 @@
     </row>
     <row r="671" spans="1:5">
       <c r="A671" t="s">
-        <v>151</v>
+        <v>412</v>
       </c>
       <c r="B671" t="s">
-        <v>153</v>
+        <v>414</v>
       </c>
       <c r="C671" t="s">
         <v>272</v>
@@ -15759,10 +15834,10 @@
     </row>
     <row r="672" spans="1:5">
       <c r="A672" t="s">
-        <v>151</v>
+        <v>412</v>
       </c>
       <c r="B672" t="s">
-        <v>154</v>
+        <v>413</v>
       </c>
       <c r="C672" t="s">
         <v>272</v>
@@ -15779,7 +15854,7 @@
         <v>151</v>
       </c>
       <c r="B673" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C673" t="s">
         <v>272</v>
@@ -15796,7 +15871,7 @@
         <v>151</v>
       </c>
       <c r="B674" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C674" t="s">
         <v>272</v>
@@ -15813,7 +15888,7 @@
         <v>151</v>
       </c>
       <c r="B675" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C675" t="s">
         <v>272</v>
@@ -15830,7 +15905,7 @@
         <v>151</v>
       </c>
       <c r="B676" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C676" t="s">
         <v>272</v>
@@ -15847,7 +15922,7 @@
         <v>151</v>
       </c>
       <c r="B677" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C677" t="s">
         <v>272</v>
@@ -15864,7 +15939,7 @@
         <v>151</v>
       </c>
       <c r="B678" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C678" t="s">
         <v>272</v>
@@ -15881,7 +15956,7 @@
         <v>151</v>
       </c>
       <c r="B679" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C679" t="s">
         <v>272</v>
@@ -15898,7 +15973,7 @@
         <v>151</v>
       </c>
       <c r="B680" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C680" t="s">
         <v>272</v>
@@ -15915,7 +15990,7 @@
         <v>151</v>
       </c>
       <c r="B681" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C681" t="s">
         <v>272</v>
@@ -15929,16 +16004,16 @@
     </row>
     <row r="682" spans="1:5">
       <c r="A682" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B682" t="s">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="C682" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D682" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E682" t="s">
         <v>259</v>
@@ -15946,16 +16021,16 @@
     </row>
     <row r="683" spans="1:5">
       <c r="A683" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B683" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="C683" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D683" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E683" t="s">
         <v>259</v>
@@ -15963,16 +16038,16 @@
     </row>
     <row r="684" spans="1:5">
       <c r="A684" t="s">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="B684" t="s">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="C684" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D684" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E684" t="s">
         <v>259</v>
@@ -15983,7 +16058,7 @@
         <v>100</v>
       </c>
       <c r="B685" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C685" t="s">
         <v>275</v>
@@ -16000,7 +16075,7 @@
         <v>100</v>
       </c>
       <c r="B686" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C686" t="s">
         <v>275</v>
@@ -16017,7 +16092,7 @@
         <v>100</v>
       </c>
       <c r="B687" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C687" t="s">
         <v>275</v>
@@ -16034,7 +16109,7 @@
         <v>100</v>
       </c>
       <c r="B688" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C688" t="s">
         <v>275</v>
@@ -16051,7 +16126,7 @@
         <v>100</v>
       </c>
       <c r="B689" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C689" t="s">
         <v>275</v>
@@ -16068,7 +16143,7 @@
         <v>100</v>
       </c>
       <c r="B690" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C690" t="s">
         <v>275</v>
@@ -16082,16 +16157,16 @@
     </row>
     <row r="691" spans="1:5">
       <c r="A691" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B691" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C691" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D691" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E691" t="s">
         <v>259</v>
@@ -16099,16 +16174,16 @@
     </row>
     <row r="692" spans="1:5">
       <c r="A692" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B692" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C692" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D692" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E692" t="s">
         <v>259</v>
@@ -16116,16 +16191,16 @@
     </row>
     <row r="693" spans="1:5">
       <c r="A693" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B693" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C693" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D693" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E693" t="s">
         <v>259</v>
@@ -16136,7 +16211,7 @@
         <v>110</v>
       </c>
       <c r="B694" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C694" t="s">
         <v>277</v>
@@ -16153,7 +16228,7 @@
         <v>110</v>
       </c>
       <c r="B695" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C695" t="s">
         <v>277</v>
@@ -16167,16 +16242,16 @@
     </row>
     <row r="696" spans="1:5">
       <c r="A696" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B696" t="s">
-        <v>194</v>
+        <v>113</v>
       </c>
       <c r="C696" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D696" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E696" t="s">
         <v>259</v>
@@ -16184,16 +16259,16 @@
     </row>
     <row r="697" spans="1:5">
       <c r="A697" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B697" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="C697" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D697" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E697" t="s">
         <v>259</v>
@@ -16201,16 +16276,16 @@
     </row>
     <row r="698" spans="1:5">
       <c r="A698" t="s">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="B698" t="s">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="C698" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D698" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E698" t="s">
         <v>259</v>
@@ -16221,7 +16296,7 @@
         <v>192</v>
       </c>
       <c r="B699" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C699" t="s">
         <v>268</v>
@@ -16238,7 +16313,7 @@
         <v>192</v>
       </c>
       <c r="B700" t="s">
-        <v>1231</v>
+        <v>195</v>
       </c>
       <c r="C700" t="s">
         <v>268</v>
@@ -16255,7 +16330,7 @@
         <v>192</v>
       </c>
       <c r="B701" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C701" t="s">
         <v>268</v>
@@ -16272,7 +16347,7 @@
         <v>192</v>
       </c>
       <c r="B702" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C702" t="s">
         <v>268</v>
@@ -16289,7 +16364,7 @@
         <v>192</v>
       </c>
       <c r="B703" t="s">
-        <v>193</v>
+        <v>1231</v>
       </c>
       <c r="C703" t="s">
         <v>268</v>
@@ -16303,10 +16378,10 @@
     </row>
     <row r="704" spans="1:5">
       <c r="A704" t="s">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="B704" t="s">
-        <v>417</v>
+        <v>198</v>
       </c>
       <c r="C704" t="s">
         <v>268</v>
@@ -16320,10 +16395,10 @@
     </row>
     <row r="705" spans="1:5">
       <c r="A705" t="s">
-        <v>415</v>
+        <v>192</v>
       </c>
       <c r="B705" t="s">
-        <v>416</v>
+        <v>199</v>
       </c>
       <c r="C705" t="s">
         <v>268</v>
@@ -16337,10 +16412,10 @@
     </row>
     <row r="706" spans="1:5">
       <c r="A706" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B706" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="C706" t="s">
         <v>268</v>
@@ -16354,10 +16429,10 @@
     </row>
     <row r="707" spans="1:5">
       <c r="A707" t="s">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="B707" t="s">
-        <v>179</v>
+        <v>417</v>
       </c>
       <c r="C707" t="s">
         <v>268</v>
@@ -16371,10 +16446,10 @@
     </row>
     <row r="708" spans="1:5">
       <c r="A708" t="s">
-        <v>176</v>
+        <v>415</v>
       </c>
       <c r="B708" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="C708" t="s">
         <v>268</v>
@@ -16391,7 +16466,7 @@
         <v>176</v>
       </c>
       <c r="B709" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C709" t="s">
         <v>268</v>
@@ -16408,7 +16483,7 @@
         <v>176</v>
       </c>
       <c r="B710" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C710" t="s">
         <v>268</v>
@@ -16422,10 +16497,10 @@
     </row>
     <row r="711" spans="1:5">
       <c r="A711" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B711" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="C711" t="s">
         <v>268</v>
@@ -16439,10 +16514,10 @@
     </row>
     <row r="712" spans="1:5">
       <c r="A712" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B712" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="C712" t="s">
         <v>268</v>
@@ -16456,10 +16531,10 @@
     </row>
     <row r="713" spans="1:5">
       <c r="A713" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B713" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="C713" t="s">
         <v>268</v>
@@ -16476,7 +16551,7 @@
         <v>182</v>
       </c>
       <c r="B714" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C714" t="s">
         <v>268</v>
@@ -16493,7 +16568,7 @@
         <v>182</v>
       </c>
       <c r="B715" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C715" t="s">
         <v>268</v>
@@ -16510,7 +16585,7 @@
         <v>182</v>
       </c>
       <c r="B716" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C716" t="s">
         <v>268</v>
@@ -16527,7 +16602,7 @@
         <v>182</v>
       </c>
       <c r="B717" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C717" t="s">
         <v>268</v>
@@ -16544,7 +16619,7 @@
         <v>182</v>
       </c>
       <c r="B718" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C718" t="s">
         <v>268</v>
@@ -16561,7 +16636,7 @@
         <v>182</v>
       </c>
       <c r="B719" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C719" t="s">
         <v>268</v>
@@ -16578,7 +16653,7 @@
         <v>182</v>
       </c>
       <c r="B720" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C720" t="s">
         <v>268</v>
@@ -16595,7 +16670,7 @@
         <v>182</v>
       </c>
       <c r="B721" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="C721" t="s">
         <v>268</v>
@@ -16609,10 +16684,10 @@
     </row>
     <row r="722" spans="1:5">
       <c r="A722" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B722" t="s">
-        <v>184</v>
+        <v>217</v>
       </c>
       <c r="C722" t="s">
         <v>268</v>
@@ -16626,10 +16701,10 @@
     </row>
     <row r="723" spans="1:5">
       <c r="A723" t="s">
-        <v>183</v>
-      </c>
-      <c r="B723" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
+      </c>
+      <c r="B723" t="s">
+        <v>218</v>
       </c>
       <c r="C723" t="s">
         <v>268</v>
@@ -16643,10 +16718,10 @@
     </row>
     <row r="724" spans="1:5">
       <c r="A724" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B724" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="C724" t="s">
         <v>268</v>
@@ -16663,7 +16738,7 @@
         <v>183</v>
       </c>
       <c r="B725" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C725" t="s">
         <v>268</v>
@@ -16679,8 +16754,8 @@
       <c r="A726" t="s">
         <v>183</v>
       </c>
-      <c r="B726" t="s">
-        <v>188</v>
+      <c r="B726" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="C726" t="s">
         <v>268</v>
@@ -16697,7 +16772,7 @@
         <v>183</v>
       </c>
       <c r="B727" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C727" t="s">
         <v>268</v>
@@ -16714,7 +16789,7 @@
         <v>183</v>
       </c>
       <c r="B728" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C728" t="s">
         <v>268</v>
@@ -16731,7 +16806,7 @@
         <v>183</v>
       </c>
       <c r="B729" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C729" t="s">
         <v>268</v>
@@ -16745,10 +16820,10 @@
     </row>
     <row r="730" spans="1:5">
       <c r="A730" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B730" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C730" t="s">
         <v>268</v>
@@ -16762,10 +16837,10 @@
     </row>
     <row r="731" spans="1:5">
       <c r="A731" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B731" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C731" t="s">
         <v>268</v>
@@ -16779,10 +16854,10 @@
     </row>
     <row r="732" spans="1:5">
       <c r="A732" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="B732" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C732" t="s">
         <v>268</v>
@@ -16799,7 +16874,7 @@
         <v>200</v>
       </c>
       <c r="B733" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C733" t="s">
         <v>268</v>
@@ -16816,7 +16891,7 @@
         <v>200</v>
       </c>
       <c r="B734" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C734" t="s">
         <v>268</v>
@@ -16833,7 +16908,7 @@
         <v>200</v>
       </c>
       <c r="B735" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C735" t="s">
         <v>268</v>
@@ -16850,7 +16925,7 @@
         <v>200</v>
       </c>
       <c r="B736" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C736" t="s">
         <v>268</v>
@@ -16864,16 +16939,16 @@
     </row>
     <row r="737" spans="1:5">
       <c r="A737" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B737" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="C737" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D737" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E737" t="s">
         <v>259</v>
@@ -16881,16 +16956,16 @@
     </row>
     <row r="738" spans="1:5">
       <c r="A738" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B738" t="s">
-        <v>1230</v>
+        <v>207</v>
       </c>
       <c r="C738" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D738" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E738" t="s">
         <v>259</v>
@@ -16898,16 +16973,16 @@
     </row>
     <row r="739" spans="1:5">
       <c r="A739" t="s">
-        <v>91</v>
+        <v>200</v>
       </c>
       <c r="B739" t="s">
-        <v>93</v>
+        <v>201</v>
       </c>
       <c r="C739" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="D739" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="E739" t="s">
         <v>259</v>
@@ -16918,7 +16993,7 @@
         <v>91</v>
       </c>
       <c r="B740" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C740" t="s">
         <v>260</v>
@@ -16935,7 +17010,7 @@
         <v>91</v>
       </c>
       <c r="B741" t="s">
-        <v>95</v>
+        <v>1230</v>
       </c>
       <c r="C741" t="s">
         <v>260</v>
@@ -16949,10 +17024,10 @@
     </row>
     <row r="742" spans="1:5">
       <c r="A742" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B742" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="C742" t="s">
         <v>260</v>
@@ -16966,10 +17041,10 @@
     </row>
     <row r="743" spans="1:5">
       <c r="A743" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B743" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="C743" t="s">
         <v>260</v>
@@ -16983,10 +17058,10 @@
     </row>
     <row r="744" spans="1:5">
       <c r="A744" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="B744" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C744" t="s">
         <v>260</v>
@@ -17000,10 +17075,10 @@
     </row>
     <row r="745" spans="1:5">
       <c r="A745" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B745" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C745" t="s">
         <v>260</v>
@@ -17017,10 +17092,10 @@
     </row>
     <row r="746" spans="1:5">
       <c r="A746" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B746" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C746" t="s">
         <v>260</v>
@@ -17034,10 +17109,10 @@
     </row>
     <row r="747" spans="1:5">
       <c r="A747" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B747" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C747" t="s">
         <v>260</v>
@@ -17054,7 +17129,7 @@
         <v>78</v>
       </c>
       <c r="B748" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C748" t="s">
         <v>260</v>
@@ -17071,7 +17146,7 @@
         <v>78</v>
       </c>
       <c r="B749" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C749" t="s">
         <v>260</v>
@@ -17088,7 +17163,7 @@
         <v>78</v>
       </c>
       <c r="B750" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C750" t="s">
         <v>260</v>
@@ -17105,7 +17180,7 @@
         <v>78</v>
       </c>
       <c r="B751" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C751" t="s">
         <v>260</v>
@@ -17122,7 +17197,7 @@
         <v>78</v>
       </c>
       <c r="B752" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C752" t="s">
         <v>260</v>
@@ -17139,7 +17214,7 @@
         <v>78</v>
       </c>
       <c r="B753" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C753" t="s">
         <v>260</v>
@@ -17156,7 +17231,7 @@
         <v>78</v>
       </c>
       <c r="B754" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C754" t="s">
         <v>260</v>
@@ -17173,7 +17248,7 @@
         <v>78</v>
       </c>
       <c r="B755" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C755" t="s">
         <v>260</v>
@@ -17190,7 +17265,7 @@
         <v>78</v>
       </c>
       <c r="B756" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C756" t="s">
         <v>260</v>
@@ -17204,10 +17279,10 @@
     </row>
     <row r="757" spans="1:5">
       <c r="A757" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B757" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="C757" t="s">
         <v>260</v>
@@ -17221,10 +17296,10 @@
     </row>
     <row r="758" spans="1:5">
       <c r="A758" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B758" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C758" t="s">
         <v>260</v>
@@ -17238,10 +17313,10 @@
     </row>
     <row r="759" spans="1:5">
       <c r="A759" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B759" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="C759" t="s">
         <v>260</v>
@@ -17258,7 +17333,7 @@
         <v>61</v>
       </c>
       <c r="B760" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C760" t="s">
         <v>260</v>
@@ -17275,7 +17350,7 @@
         <v>61</v>
       </c>
       <c r="B761" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C761" t="s">
         <v>260</v>
@@ -17292,7 +17367,7 @@
         <v>61</v>
       </c>
       <c r="B762" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C762" t="s">
         <v>260</v>
@@ -17309,7 +17384,7 @@
         <v>61</v>
       </c>
       <c r="B763" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C763" t="s">
         <v>260</v>
@@ -17326,7 +17401,7 @@
         <v>61</v>
       </c>
       <c r="B764" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C764" t="s">
         <v>260</v>
@@ -17343,7 +17418,7 @@
         <v>61</v>
       </c>
       <c r="B765" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C765" t="s">
         <v>260</v>
@@ -17360,7 +17435,7 @@
         <v>61</v>
       </c>
       <c r="B766" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C766" t="s">
         <v>260</v>
@@ -17377,7 +17452,7 @@
         <v>61</v>
       </c>
       <c r="B767" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C767" t="s">
         <v>260</v>
@@ -17394,7 +17469,7 @@
         <v>61</v>
       </c>
       <c r="B768" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C768" t="s">
         <v>260</v>
@@ -17408,10 +17483,10 @@
     </row>
     <row r="769" spans="1:5">
       <c r="A769" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B769" t="s">
-        <v>145</v>
+        <v>71</v>
       </c>
       <c r="C769" t="s">
         <v>260</v>
@@ -17425,10 +17500,10 @@
     </row>
     <row r="770" spans="1:5">
       <c r="A770" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B770" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="C770" t="s">
         <v>260</v>
@@ -17442,10 +17517,10 @@
     </row>
     <row r="771" spans="1:5">
       <c r="A771" t="s">
-        <v>145</v>
+        <v>61</v>
       </c>
       <c r="B771" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C771" t="s">
         <v>260</v>
@@ -17462,7 +17537,7 @@
         <v>145</v>
       </c>
       <c r="B772" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C772" t="s">
         <v>260</v>
@@ -17479,7 +17554,7 @@
         <v>145</v>
       </c>
       <c r="B773" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C773" t="s">
         <v>260</v>
@@ -17496,7 +17571,7 @@
         <v>145</v>
       </c>
       <c r="B774" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C774" t="s">
         <v>260</v>
@@ -17510,16 +17585,16 @@
     </row>
     <row r="775" spans="1:5">
       <c r="A775" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B775" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="C775" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D775" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E775" t="s">
         <v>259</v>
@@ -17527,16 +17602,16 @@
     </row>
     <row r="776" spans="1:5">
       <c r="A776" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B776" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="C776" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D776" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E776" t="s">
         <v>259</v>
@@ -17544,16 +17619,16 @@
     </row>
     <row r="777" spans="1:5">
       <c r="A777" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="B777" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="C777" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D777" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E777" t="s">
         <v>259</v>
@@ -17564,7 +17639,7 @@
         <v>130</v>
       </c>
       <c r="B778" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C778" t="s">
         <v>274</v>
@@ -17581,7 +17656,7 @@
         <v>130</v>
       </c>
       <c r="B779" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C779" t="s">
         <v>274</v>
@@ -17598,7 +17673,7 @@
         <v>130</v>
       </c>
       <c r="B780" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C780" t="s">
         <v>274</v>
@@ -17612,16 +17687,16 @@
     </row>
     <row r="781" spans="1:5">
       <c r="A781" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B781" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C781" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D781" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E781" t="s">
         <v>259</v>
@@ -17629,16 +17704,16 @@
     </row>
     <row r="782" spans="1:5">
       <c r="A782" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B782" t="s">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="C782" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D782" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E782" t="s">
         <v>259</v>
@@ -17646,16 +17721,16 @@
     </row>
     <row r="783" spans="1:5">
       <c r="A783" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B783" t="s">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="C783" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="D783" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E783" t="s">
         <v>259</v>
@@ -17666,7 +17741,7 @@
         <v>164</v>
       </c>
       <c r="B784" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C784" t="s">
         <v>280</v>
@@ -17683,7 +17758,7 @@
         <v>164</v>
       </c>
       <c r="B785" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C785" t="s">
         <v>280</v>
@@ -17700,7 +17775,7 @@
         <v>164</v>
       </c>
       <c r="B786" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C786" t="s">
         <v>280</v>
@@ -17714,16 +17789,16 @@
     </row>
     <row r="787" spans="1:5">
       <c r="A787" t="s">
-        <v>635</v>
+        <v>164</v>
       </c>
       <c r="B787" t="s">
-        <v>720</v>
+        <v>168</v>
       </c>
       <c r="C787" t="s">
-        <v>727</v>
+        <v>280</v>
       </c>
       <c r="D787" t="s">
-        <v>728</v>
+        <v>271</v>
       </c>
       <c r="E787" t="s">
         <v>259</v>
@@ -17731,16 +17806,16 @@
     </row>
     <row r="788" spans="1:5">
       <c r="A788" t="s">
-        <v>635</v>
+        <v>164</v>
       </c>
       <c r="B788" t="s">
-        <v>721</v>
+        <v>169</v>
       </c>
       <c r="C788" t="s">
-        <v>727</v>
+        <v>280</v>
       </c>
       <c r="D788" t="s">
-        <v>728</v>
+        <v>271</v>
       </c>
       <c r="E788" t="s">
         <v>259</v>
@@ -17748,16 +17823,16 @@
     </row>
     <row r="789" spans="1:5">
       <c r="A789" t="s">
-        <v>635</v>
+        <v>164</v>
       </c>
       <c r="B789" t="s">
-        <v>722</v>
+        <v>170</v>
       </c>
       <c r="C789" t="s">
-        <v>727</v>
+        <v>280</v>
       </c>
       <c r="D789" t="s">
-        <v>728</v>
+        <v>271</v>
       </c>
       <c r="E789" t="s">
         <v>259</v>
@@ -17768,7 +17843,7 @@
         <v>635</v>
       </c>
       <c r="B790" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="C790" t="s">
         <v>727</v>
@@ -17785,7 +17860,7 @@
         <v>635</v>
       </c>
       <c r="B791" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C791" t="s">
         <v>727</v>
@@ -17801,8 +17876,8 @@
       <c r="A792" t="s">
         <v>635</v>
       </c>
-      <c r="B792" s="5" t="s">
-        <v>726</v>
+      <c r="B792" t="s">
+        <v>722</v>
       </c>
       <c r="C792" t="s">
         <v>727</v>
@@ -17819,7 +17894,7 @@
         <v>635</v>
       </c>
       <c r="B793" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C793" t="s">
         <v>727</v>
@@ -17836,7 +17911,7 @@
         <v>635</v>
       </c>
       <c r="B794" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C794" t="s">
         <v>727</v>
@@ -17850,16 +17925,16 @@
     </row>
     <row r="795" spans="1:5">
       <c r="A795" t="s">
-        <v>171</v>
-      </c>
-      <c r="B795" t="s">
-        <v>172</v>
+        <v>635</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>726</v>
       </c>
       <c r="C795" t="s">
-        <v>270</v>
+        <v>727</v>
       </c>
       <c r="D795" t="s">
-        <v>271</v>
+        <v>728</v>
       </c>
       <c r="E795" t="s">
         <v>259</v>
@@ -17867,16 +17942,16 @@
     </row>
     <row r="796" spans="1:5">
       <c r="A796" t="s">
-        <v>171</v>
+        <v>635</v>
       </c>
       <c r="B796" t="s">
-        <v>173</v>
+        <v>725</v>
       </c>
       <c r="C796" t="s">
-        <v>270</v>
+        <v>727</v>
       </c>
       <c r="D796" t="s">
-        <v>271</v>
+        <v>728</v>
       </c>
       <c r="E796" t="s">
         <v>259</v>
@@ -17884,16 +17959,16 @@
     </row>
     <row r="797" spans="1:5">
       <c r="A797" t="s">
-        <v>171</v>
+        <v>635</v>
       </c>
       <c r="B797" t="s">
-        <v>174</v>
+        <v>719</v>
       </c>
       <c r="C797" t="s">
-        <v>270</v>
+        <v>727</v>
       </c>
       <c r="D797" t="s">
-        <v>271</v>
+        <v>728</v>
       </c>
       <c r="E797" t="s">
         <v>259</v>
@@ -17904,7 +17979,7 @@
         <v>171</v>
       </c>
       <c r="B798" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C798" t="s">
         <v>270</v>
@@ -17918,10 +17993,10 @@
     </row>
     <row r="799" spans="1:5">
       <c r="A799" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B799" t="s">
-        <v>287</v>
+        <v>173</v>
       </c>
       <c r="C799" t="s">
         <v>270</v>
@@ -17935,10 +18010,10 @@
     </row>
     <row r="800" spans="1:5">
       <c r="A800" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B800" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
       <c r="C800" t="s">
         <v>270</v>
@@ -17952,10 +18027,10 @@
     </row>
     <row r="801" spans="1:5">
       <c r="A801" t="s">
-        <v>285</v>
+        <v>171</v>
       </c>
       <c r="B801" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="C801" t="s">
         <v>270</v>
@@ -17972,7 +18047,7 @@
         <v>285</v>
       </c>
       <c r="B802" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C802" t="s">
         <v>270</v>
@@ -17986,13 +18061,16 @@
     </row>
     <row r="803" spans="1:5">
       <c r="A803" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="B803" t="s">
-        <v>97</v>
+        <v>288</v>
+      </c>
+      <c r="C803" t="s">
+        <v>270</v>
       </c>
       <c r="D803" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E803" t="s">
         <v>259</v>
@@ -18000,13 +18078,16 @@
     </row>
     <row r="804" spans="1:5">
       <c r="A804" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="B804" t="s">
-        <v>98</v>
+        <v>289</v>
+      </c>
+      <c r="C804" t="s">
+        <v>270</v>
       </c>
       <c r="D804" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E804" t="s">
         <v>259</v>
@@ -18014,13 +18095,16 @@
     </row>
     <row r="805" spans="1:5">
       <c r="A805" t="s">
-        <v>96</v>
+        <v>285</v>
       </c>
       <c r="B805" t="s">
-        <v>99</v>
+        <v>286</v>
+      </c>
+      <c r="C805" t="s">
+        <v>270</v>
       </c>
       <c r="D805" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E805" t="s">
         <v>259</v>
@@ -18028,53 +18112,44 @@
     </row>
     <row r="806" spans="1:5">
       <c r="A806" t="s">
-        <v>1014</v>
+        <v>96</v>
       </c>
       <c r="B806" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C806" t="s">
-        <v>907</v>
+        <v>97</v>
       </c>
       <c r="D806" t="s">
-        <v>848</v>
+        <v>263</v>
       </c>
       <c r="E806" t="s">
-        <v>849</v>
+        <v>259</v>
       </c>
     </row>
     <row r="807" spans="1:5">
       <c r="A807" t="s">
-        <v>1014</v>
+        <v>96</v>
       </c>
       <c r="B807" t="s">
-        <v>1087</v>
-      </c>
-      <c r="C807" t="s">
-        <v>907</v>
+        <v>98</v>
       </c>
       <c r="D807" t="s">
-        <v>848</v>
+        <v>263</v>
       </c>
       <c r="E807" t="s">
-        <v>849</v>
+        <v>259</v>
       </c>
     </row>
     <row r="808" spans="1:5">
       <c r="A808" t="s">
-        <v>1014</v>
+        <v>96</v>
       </c>
       <c r="B808" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C808" t="s">
-        <v>907</v>
+        <v>99</v>
       </c>
       <c r="D808" t="s">
-        <v>848</v>
+        <v>263</v>
       </c>
       <c r="E808" t="s">
-        <v>849</v>
+        <v>259</v>
       </c>
     </row>
     <row r="809" spans="1:5">
@@ -18082,7 +18157,7 @@
         <v>1014</v>
       </c>
       <c r="B809" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="C809" t="s">
         <v>907</v>
@@ -18099,7 +18174,7 @@
         <v>1014</v>
       </c>
       <c r="B810" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C810" t="s">
         <v>907</v>
@@ -18116,7 +18191,7 @@
         <v>1014</v>
       </c>
       <c r="B811" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="C811" t="s">
         <v>907</v>
@@ -18133,7 +18208,7 @@
         <v>1014</v>
       </c>
       <c r="B812" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="C812" t="s">
         <v>907</v>
@@ -18150,7 +18225,7 @@
         <v>1014</v>
       </c>
       <c r="B813" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="C813" t="s">
         <v>907</v>
@@ -18167,7 +18242,7 @@
         <v>1014</v>
       </c>
       <c r="B814" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="C814" t="s">
         <v>907</v>
@@ -18181,10 +18256,10 @@
     </row>
     <row r="815" spans="1:5">
       <c r="A815" t="s">
-        <v>906</v>
+        <v>1014</v>
       </c>
       <c r="B815" t="s">
-        <v>908</v>
+        <v>1092</v>
       </c>
       <c r="C815" t="s">
         <v>907</v>
@@ -18198,10 +18273,10 @@
     </row>
     <row r="816" spans="1:5">
       <c r="A816" t="s">
-        <v>906</v>
-      </c>
-      <c r="B816" s="3">
-        <v>2001</v>
+        <v>1014</v>
+      </c>
+      <c r="B816" t="s">
+        <v>1093</v>
       </c>
       <c r="C816" t="s">
         <v>907</v>
@@ -18215,10 +18290,10 @@
     </row>
     <row r="817" spans="1:5">
       <c r="A817" t="s">
-        <v>906</v>
+        <v>1014</v>
       </c>
       <c r="B817" t="s">
-        <v>907</v>
+        <v>1085</v>
       </c>
       <c r="C817" t="s">
         <v>907</v>
@@ -18232,10 +18307,10 @@
     </row>
     <row r="818" spans="1:5">
       <c r="A818" t="s">
-        <v>998</v>
+        <v>906</v>
       </c>
       <c r="B818" t="s">
-        <v>1000</v>
+        <v>908</v>
       </c>
       <c r="C818" t="s">
         <v>907</v>
@@ -18249,10 +18324,10 @@
     </row>
     <row r="819" spans="1:5">
       <c r="A819" t="s">
-        <v>998</v>
-      </c>
-      <c r="B819" t="s">
-        <v>1001</v>
+        <v>906</v>
+      </c>
+      <c r="B819" s="3">
+        <v>2001</v>
       </c>
       <c r="C819" t="s">
         <v>907</v>
@@ -18266,10 +18341,10 @@
     </row>
     <row r="820" spans="1:5">
       <c r="A820" t="s">
-        <v>998</v>
+        <v>906</v>
       </c>
       <c r="B820" t="s">
-        <v>1002</v>
+        <v>907</v>
       </c>
       <c r="C820" t="s">
         <v>907</v>
@@ -18286,7 +18361,7 @@
         <v>998</v>
       </c>
       <c r="B821" t="s">
-        <v>1238</v>
+        <v>1000</v>
       </c>
       <c r="C821" t="s">
         <v>907</v>
@@ -18303,7 +18378,7 @@
         <v>998</v>
       </c>
       <c r="B822" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="C822" t="s">
         <v>907</v>
@@ -18317,10 +18392,10 @@
     </row>
     <row r="823" spans="1:5">
       <c r="A823" t="s">
-        <v>893</v>
+        <v>998</v>
       </c>
       <c r="B823" t="s">
-        <v>894</v>
+        <v>1002</v>
       </c>
       <c r="C823" t="s">
         <v>907</v>
@@ -18334,10 +18409,10 @@
     </row>
     <row r="824" spans="1:5">
       <c r="A824" t="s">
-        <v>893</v>
+        <v>998</v>
       </c>
       <c r="B824" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="C824" t="s">
         <v>907</v>
@@ -18351,10 +18426,10 @@
     </row>
     <row r="825" spans="1:5">
       <c r="A825" t="s">
-        <v>1012</v>
+        <v>998</v>
       </c>
       <c r="B825" t="s">
-        <v>1084</v>
+        <v>999</v>
       </c>
       <c r="C825" t="s">
         <v>907</v>
@@ -18368,10 +18443,10 @@
     </row>
     <row r="826" spans="1:5">
       <c r="A826" t="s">
-        <v>1012</v>
+        <v>893</v>
       </c>
       <c r="B826" t="s">
-        <v>1083</v>
+        <v>894</v>
       </c>
       <c r="C826" t="s">
         <v>907</v>
@@ -18385,10 +18460,10 @@
     </row>
     <row r="827" spans="1:5">
       <c r="A827" t="s">
-        <v>1004</v>
+        <v>893</v>
       </c>
       <c r="B827" t="s">
-        <v>1037</v>
+        <v>1235</v>
       </c>
       <c r="C827" t="s">
         <v>907</v>
@@ -18402,10 +18477,10 @@
     </row>
     <row r="828" spans="1:5">
       <c r="A828" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="B828" t="s">
-        <v>1038</v>
+        <v>1084</v>
       </c>
       <c r="C828" t="s">
         <v>907</v>
@@ -18419,10 +18494,10 @@
     </row>
     <row r="829" spans="1:5">
       <c r="A829" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="B829" t="s">
-        <v>1039</v>
+        <v>1083</v>
       </c>
       <c r="C829" t="s">
         <v>907</v>
@@ -18439,7 +18514,7 @@
         <v>1004</v>
       </c>
       <c r="B830" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C830" t="s">
         <v>907</v>
@@ -18456,7 +18531,7 @@
         <v>1004</v>
       </c>
       <c r="B831" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C831" t="s">
         <v>907</v>
@@ -18473,7 +18548,7 @@
         <v>1004</v>
       </c>
       <c r="B832" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C832" t="s">
         <v>907</v>
@@ -18490,7 +18565,7 @@
         <v>1004</v>
       </c>
       <c r="B833" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C833" t="s">
         <v>907</v>
@@ -18507,7 +18582,7 @@
         <v>1004</v>
       </c>
       <c r="B834" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C834" t="s">
         <v>907</v>
@@ -18523,8 +18598,8 @@
       <c r="A835" t="s">
         <v>1004</v>
       </c>
-      <c r="B835" s="3">
-        <v>1992</v>
+      <c r="B835" t="s">
+        <v>1042</v>
       </c>
       <c r="C835" t="s">
         <v>907</v>
@@ -18541,7 +18616,7 @@
         <v>1004</v>
       </c>
       <c r="B836" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="C836" t="s">
         <v>907</v>
@@ -18558,7 +18633,7 @@
         <v>1004</v>
       </c>
       <c r="B837" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="C837" t="s">
         <v>907</v>
@@ -18572,13 +18647,13 @@
     </row>
     <row r="838" spans="1:5">
       <c r="A838" t="s">
-        <v>909</v>
-      </c>
-      <c r="B838" t="s">
-        <v>911</v>
+        <v>1004</v>
+      </c>
+      <c r="B838" s="3">
+        <v>1992</v>
       </c>
       <c r="C838" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="D838" t="s">
         <v>848</v>
@@ -18589,13 +18664,13 @@
     </row>
     <row r="839" spans="1:5">
       <c r="A839" t="s">
-        <v>909</v>
+        <v>1004</v>
       </c>
       <c r="B839" t="s">
-        <v>912</v>
+        <v>1045</v>
       </c>
       <c r="C839" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="D839" t="s">
         <v>848</v>
@@ -18606,13 +18681,13 @@
     </row>
     <row r="840" spans="1:5">
       <c r="A840" t="s">
-        <v>909</v>
+        <v>1004</v>
       </c>
       <c r="B840" t="s">
-        <v>913</v>
+        <v>1036</v>
       </c>
       <c r="C840" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="D840" t="s">
         <v>848</v>
@@ -18626,7 +18701,7 @@
         <v>909</v>
       </c>
       <c r="B841" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C841" t="s">
         <v>927</v>
@@ -18643,7 +18718,7 @@
         <v>909</v>
       </c>
       <c r="B842" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="C842" t="s">
         <v>927</v>
@@ -18660,7 +18735,7 @@
         <v>909</v>
       </c>
       <c r="B843" t="s">
-        <v>1236</v>
+        <v>913</v>
       </c>
       <c r="C843" t="s">
         <v>927</v>
@@ -18677,7 +18752,7 @@
         <v>909</v>
       </c>
       <c r="B844" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C844" t="s">
         <v>927</v>
@@ -18694,7 +18769,7 @@
         <v>909</v>
       </c>
       <c r="B845" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C845" t="s">
         <v>927</v>
@@ -18711,7 +18786,7 @@
         <v>909</v>
       </c>
       <c r="B846" t="s">
-        <v>918</v>
+        <v>1236</v>
       </c>
       <c r="C846" t="s">
         <v>927</v>
@@ -18728,7 +18803,7 @@
         <v>909</v>
       </c>
       <c r="B847" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="C847" t="s">
         <v>927</v>
@@ -18745,7 +18820,7 @@
         <v>909</v>
       </c>
       <c r="B848" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="C848" t="s">
         <v>927</v>
@@ -18762,7 +18837,7 @@
         <v>909</v>
       </c>
       <c r="B849" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C849" t="s">
         <v>927</v>
@@ -18779,7 +18854,7 @@
         <v>909</v>
       </c>
       <c r="B850" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="C850" t="s">
         <v>927</v>
@@ -18796,7 +18871,7 @@
         <v>909</v>
       </c>
       <c r="B851" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="C851" t="s">
         <v>927</v>
@@ -18813,7 +18888,7 @@
         <v>909</v>
       </c>
       <c r="B852" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="C852" t="s">
         <v>927</v>
@@ -18830,7 +18905,7 @@
         <v>909</v>
       </c>
       <c r="B853" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C853" t="s">
         <v>927</v>
@@ -18847,7 +18922,7 @@
         <v>909</v>
       </c>
       <c r="B854" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C854" t="s">
         <v>927</v>
@@ -18864,7 +18939,7 @@
         <v>909</v>
       </c>
       <c r="B855" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="C855" t="s">
         <v>927</v>
@@ -18878,10 +18953,10 @@
     </row>
     <row r="856" spans="1:5">
       <c r="A856" t="s">
-        <v>1007</v>
+        <v>909</v>
       </c>
       <c r="B856" t="s">
-        <v>1057</v>
+        <v>925</v>
       </c>
       <c r="C856" t="s">
         <v>927</v>
@@ -18895,10 +18970,10 @@
     </row>
     <row r="857" spans="1:5">
       <c r="A857" t="s">
-        <v>1007</v>
+        <v>909</v>
       </c>
       <c r="B857" t="s">
-        <v>1058</v>
+        <v>926</v>
       </c>
       <c r="C857" t="s">
         <v>927</v>
@@ -18912,10 +18987,10 @@
     </row>
     <row r="858" spans="1:5">
       <c r="A858" t="s">
-        <v>1007</v>
+        <v>909</v>
       </c>
       <c r="B858" t="s">
-        <v>1059</v>
+        <v>910</v>
       </c>
       <c r="C858" t="s">
         <v>927</v>
@@ -18932,7 +19007,7 @@
         <v>1007</v>
       </c>
       <c r="B859" t="s">
-        <v>1007</v>
+        <v>1057</v>
       </c>
       <c r="C859" t="s">
         <v>927</v>
@@ -18949,7 +19024,7 @@
         <v>1007</v>
       </c>
       <c r="B860" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="C860" t="s">
         <v>927</v>
@@ -18963,10 +19038,10 @@
     </row>
     <row r="861" spans="1:5">
       <c r="A861" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B861" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="C861" t="s">
         <v>927</v>
@@ -18980,10 +19055,10 @@
     </row>
     <row r="862" spans="1:5">
       <c r="A862" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B862" t="s">
-        <v>1068</v>
+        <v>1007</v>
       </c>
       <c r="C862" t="s">
         <v>927</v>
@@ -18997,10 +19072,10 @@
     </row>
     <row r="863" spans="1:5">
       <c r="A863" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B863" t="s">
-        <v>1069</v>
+        <v>1056</v>
       </c>
       <c r="C863" t="s">
         <v>927</v>
@@ -19017,7 +19092,7 @@
         <v>1009</v>
       </c>
       <c r="B864" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C864" t="s">
         <v>927</v>
@@ -19034,7 +19109,7 @@
         <v>1009</v>
       </c>
       <c r="B865" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="C865" t="s">
         <v>927</v>
@@ -19051,7 +19126,7 @@
         <v>1009</v>
       </c>
       <c r="B866" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
       <c r="C866" t="s">
         <v>927</v>
@@ -19065,13 +19140,13 @@
     </row>
     <row r="867" spans="1:5">
       <c r="A867" t="s">
-        <v>928</v>
+        <v>1009</v>
       </c>
       <c r="B867" t="s">
-        <v>930</v>
+        <v>1070</v>
       </c>
       <c r="C867" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="D867" t="s">
         <v>848</v>
@@ -19082,13 +19157,13 @@
     </row>
     <row r="868" spans="1:5">
       <c r="A868" t="s">
-        <v>928</v>
+        <v>1009</v>
       </c>
       <c r="B868" t="s">
-        <v>931</v>
+        <v>1071</v>
       </c>
       <c r="C868" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="D868" t="s">
         <v>848</v>
@@ -19099,13 +19174,13 @@
     </row>
     <row r="869" spans="1:5">
       <c r="A869" t="s">
-        <v>928</v>
+        <v>1009</v>
       </c>
       <c r="B869" t="s">
-        <v>932</v>
+        <v>1066</v>
       </c>
       <c r="C869" t="s">
-        <v>847</v>
+        <v>927</v>
       </c>
       <c r="D869" t="s">
         <v>848</v>
@@ -19119,7 +19194,7 @@
         <v>928</v>
       </c>
       <c r="B870" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C870" t="s">
         <v>847</v>
@@ -19136,7 +19211,7 @@
         <v>928</v>
       </c>
       <c r="B871" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C871" t="s">
         <v>847</v>
@@ -19153,7 +19228,7 @@
         <v>928</v>
       </c>
       <c r="B872" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="C872" t="s">
         <v>847</v>
@@ -19167,10 +19242,10 @@
     </row>
     <row r="873" spans="1:5">
       <c r="A873" t="s">
-        <v>1018</v>
+        <v>928</v>
       </c>
       <c r="B873" t="s">
-        <v>1131</v>
+        <v>929</v>
       </c>
       <c r="C873" t="s">
         <v>847</v>
@@ -19184,10 +19259,10 @@
     </row>
     <row r="874" spans="1:5">
       <c r="A874" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="B874" t="s">
-        <v>897</v>
+        <v>933</v>
       </c>
       <c r="C874" t="s">
         <v>847</v>
@@ -19201,10 +19276,10 @@
     </row>
     <row r="875" spans="1:5">
       <c r="A875" t="s">
-        <v>895</v>
+        <v>928</v>
       </c>
       <c r="B875" t="s">
-        <v>898</v>
+        <v>934</v>
       </c>
       <c r="C875" t="s">
         <v>847</v>
@@ -19218,10 +19293,10 @@
     </row>
     <row r="876" spans="1:5">
       <c r="A876" t="s">
-        <v>895</v>
+        <v>1018</v>
       </c>
       <c r="B876" t="s">
-        <v>899</v>
+        <v>1131</v>
       </c>
       <c r="C876" t="s">
         <v>847</v>
@@ -19238,7 +19313,7 @@
         <v>895</v>
       </c>
       <c r="B877" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="C877" t="s">
         <v>847</v>
@@ -19255,7 +19330,7 @@
         <v>895</v>
       </c>
       <c r="B878" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="C878" t="s">
         <v>847</v>
@@ -19272,7 +19347,7 @@
         <v>895</v>
       </c>
       <c r="B879" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="C879" t="s">
         <v>847</v>
@@ -19289,7 +19364,7 @@
         <v>895</v>
       </c>
       <c r="B880" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="C880" t="s">
         <v>847</v>
@@ -19306,7 +19381,7 @@
         <v>895</v>
       </c>
       <c r="B881" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="C881" t="s">
         <v>847</v>
@@ -19323,7 +19398,7 @@
         <v>895</v>
       </c>
       <c r="B882" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="C882" t="s">
         <v>847</v>
@@ -19340,7 +19415,7 @@
         <v>895</v>
       </c>
       <c r="B883" t="s">
-        <v>896</v>
+        <v>903</v>
       </c>
       <c r="C883" t="s">
         <v>847</v>
@@ -19354,10 +19429,10 @@
     </row>
     <row r="884" spans="1:5">
       <c r="A884" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B884" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="C884" t="s">
         <v>847</v>
@@ -19371,10 +19446,10 @@
     </row>
     <row r="885" spans="1:5">
       <c r="A885" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B885" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="C885" t="s">
         <v>847</v>
@@ -19388,10 +19463,10 @@
     </row>
     <row r="886" spans="1:5">
       <c r="A886" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B886" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="C886" t="s">
         <v>847</v>
@@ -19408,7 +19483,7 @@
         <v>892</v>
       </c>
       <c r="B887" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C887" t="s">
         <v>847</v>
@@ -19425,7 +19500,7 @@
         <v>892</v>
       </c>
       <c r="B888" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="C888" t="s">
         <v>847</v>
@@ -19442,7 +19517,7 @@
         <v>892</v>
       </c>
       <c r="B889" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C889" t="s">
         <v>847</v>
@@ -19459,7 +19534,7 @@
         <v>892</v>
       </c>
       <c r="B890" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="C890" t="s">
         <v>847</v>
@@ -19476,7 +19551,7 @@
         <v>892</v>
       </c>
       <c r="B891" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C891" t="s">
         <v>847</v>
@@ -19490,10 +19565,10 @@
     </row>
     <row r="892" spans="1:5">
       <c r="A892" t="s">
-        <v>1010</v>
+        <v>892</v>
       </c>
       <c r="B892" t="s">
-        <v>1072</v>
+        <v>889</v>
       </c>
       <c r="C892" t="s">
         <v>847</v>
@@ -19507,10 +19582,10 @@
     </row>
     <row r="893" spans="1:5">
       <c r="A893" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B893" s="3">
-        <v>90059</v>
+        <v>892</v>
+      </c>
+      <c r="B893" t="s">
+        <v>890</v>
       </c>
       <c r="C893" t="s">
         <v>847</v>
@@ -19524,10 +19599,10 @@
     </row>
     <row r="894" spans="1:5">
       <c r="A894" t="s">
-        <v>1010</v>
+        <v>892</v>
       </c>
       <c r="B894" t="s">
-        <v>1073</v>
+        <v>891</v>
       </c>
       <c r="C894" t="s">
         <v>847</v>
@@ -19541,10 +19616,10 @@
     </row>
     <row r="895" spans="1:5">
       <c r="A895" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B895" t="s">
-        <v>1027</v>
+        <v>1072</v>
       </c>
       <c r="C895" t="s">
         <v>847</v>
@@ -19558,10 +19633,10 @@
     </row>
     <row r="896" spans="1:5">
       <c r="A896" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B896" t="s">
-        <v>1181</v>
+        <v>1010</v>
+      </c>
+      <c r="B896" s="3">
+        <v>90059</v>
       </c>
       <c r="C896" t="s">
         <v>847</v>
@@ -19575,10 +19650,10 @@
     </row>
     <row r="897" spans="1:5">
       <c r="A897" t="s">
-        <v>1027</v>
+        <v>1010</v>
       </c>
       <c r="B897" t="s">
-        <v>1182</v>
+        <v>1073</v>
       </c>
       <c r="C897" t="s">
         <v>847</v>
@@ -19595,7 +19670,7 @@
         <v>1027</v>
       </c>
       <c r="B898" t="s">
-        <v>1183</v>
+        <v>1027</v>
       </c>
       <c r="C898" t="s">
         <v>847</v>
@@ -19609,10 +19684,10 @@
     </row>
     <row r="899" spans="1:5">
       <c r="A899" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="B899" t="s">
-        <v>1030</v>
+        <v>1181</v>
       </c>
       <c r="C899" t="s">
         <v>847</v>
@@ -19626,10 +19701,10 @@
     </row>
     <row r="900" spans="1:5">
       <c r="A900" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="B900" t="s">
-        <v>1031</v>
+        <v>1182</v>
       </c>
       <c r="C900" t="s">
         <v>847</v>
@@ -19643,10 +19718,10 @@
     </row>
     <row r="901" spans="1:5">
       <c r="A901" t="s">
-        <v>1003</v>
+        <v>1027</v>
       </c>
       <c r="B901" t="s">
-        <v>1032</v>
+        <v>1183</v>
       </c>
       <c r="C901" t="s">
         <v>847</v>
@@ -19663,7 +19738,7 @@
         <v>1003</v>
       </c>
       <c r="B902" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C902" t="s">
         <v>847</v>
@@ -19680,7 +19755,7 @@
         <v>1003</v>
       </c>
       <c r="B903" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C903" t="s">
         <v>847</v>
@@ -19697,7 +19772,7 @@
         <v>1003</v>
       </c>
       <c r="B904" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C904" t="s">
         <v>847</v>
@@ -19711,10 +19786,10 @@
     </row>
     <row r="905" spans="1:5">
       <c r="A905" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="B905" t="s">
-        <v>1198</v>
+        <v>1033</v>
       </c>
       <c r="C905" t="s">
         <v>847</v>
@@ -19728,10 +19803,10 @@
     </row>
     <row r="906" spans="1:5">
       <c r="A906" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="B906" t="s">
-        <v>1199</v>
+        <v>1034</v>
       </c>
       <c r="C906" t="s">
         <v>847</v>
@@ -19745,10 +19820,10 @@
     </row>
     <row r="907" spans="1:5">
       <c r="A907" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
       <c r="B907" t="s">
-        <v>1200</v>
+        <v>1035</v>
       </c>
       <c r="C907" t="s">
         <v>847</v>
@@ -19765,7 +19840,7 @@
         <v>1029</v>
       </c>
       <c r="B908" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="C908" t="s">
         <v>847</v>
@@ -19782,7 +19857,7 @@
         <v>1029</v>
       </c>
       <c r="B909" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="C909" t="s">
         <v>847</v>
@@ -19799,7 +19874,7 @@
         <v>1029</v>
       </c>
       <c r="B910" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="C910" t="s">
         <v>847</v>
@@ -19816,7 +19891,7 @@
         <v>1029</v>
       </c>
       <c r="B911" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="C911" t="s">
         <v>847</v>
@@ -19833,7 +19908,7 @@
         <v>1029</v>
       </c>
       <c r="B912" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="C912" t="s">
         <v>847</v>
@@ -19850,7 +19925,7 @@
         <v>1029</v>
       </c>
       <c r="B913" t="s">
-        <v>1196</v>
+        <v>1203</v>
       </c>
       <c r="C913" t="s">
         <v>847</v>
@@ -19867,7 +19942,7 @@
         <v>1029</v>
       </c>
       <c r="B914" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="C914" t="s">
         <v>847</v>
@@ -19884,7 +19959,7 @@
         <v>1029</v>
       </c>
       <c r="B915" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C915" t="s">
         <v>847</v>
@@ -19901,7 +19976,7 @@
         <v>1029</v>
       </c>
       <c r="B916" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="C916" t="s">
         <v>847</v>
@@ -19915,10 +19990,10 @@
     </row>
     <row r="917" spans="1:5">
       <c r="A917" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="B917" t="s">
-        <v>1053</v>
+        <v>1206</v>
       </c>
       <c r="C917" t="s">
         <v>847</v>
@@ -19932,10 +20007,10 @@
     </row>
     <row r="918" spans="1:5">
       <c r="A918" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="B918" t="s">
-        <v>1054</v>
+        <v>1207</v>
       </c>
       <c r="C918" t="s">
         <v>847</v>
@@ -19949,10 +20024,10 @@
     </row>
     <row r="919" spans="1:5">
       <c r="A919" t="s">
-        <v>1006</v>
+        <v>1029</v>
       </c>
       <c r="B919" t="s">
-        <v>1055</v>
+        <v>1197</v>
       </c>
       <c r="C919" t="s">
         <v>847</v>
@@ -19966,10 +20041,10 @@
     </row>
     <row r="920" spans="1:5">
       <c r="A920" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B920" t="s">
-        <v>1095</v>
+        <v>1053</v>
       </c>
       <c r="C920" t="s">
         <v>847</v>
@@ -19983,10 +20058,10 @@
     </row>
     <row r="921" spans="1:5">
       <c r="A921" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B921" t="s">
-        <v>1096</v>
+        <v>1054</v>
       </c>
       <c r="C921" t="s">
         <v>847</v>
@@ -20000,10 +20075,10 @@
     </row>
     <row r="922" spans="1:5">
       <c r="A922" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="B922" t="s">
-        <v>1097</v>
+        <v>1055</v>
       </c>
       <c r="C922" t="s">
         <v>847</v>
@@ -20020,7 +20095,7 @@
         <v>1013</v>
       </c>
       <c r="B923" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="C923" t="s">
         <v>847</v>
@@ -20037,7 +20112,7 @@
         <v>1013</v>
       </c>
       <c r="B924" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="C924" t="s">
         <v>847</v>
@@ -20051,10 +20126,10 @@
     </row>
     <row r="925" spans="1:5">
       <c r="A925" t="s">
-        <v>837</v>
+        <v>1013</v>
       </c>
       <c r="B925" t="s">
-        <v>846</v>
+        <v>1097</v>
       </c>
       <c r="C925" t="s">
         <v>847</v>
@@ -20068,10 +20143,10 @@
     </row>
     <row r="926" spans="1:5">
       <c r="A926" t="s">
-        <v>1208</v>
+        <v>1013</v>
       </c>
       <c r="B926" t="s">
-        <v>1209</v>
+        <v>1098</v>
       </c>
       <c r="C926" t="s">
         <v>847</v>
@@ -20085,10 +20160,10 @@
     </row>
     <row r="927" spans="1:5">
       <c r="A927" t="s">
-        <v>1208</v>
+        <v>1013</v>
       </c>
       <c r="B927" t="s">
-        <v>1210</v>
+        <v>1094</v>
       </c>
       <c r="C927" t="s">
         <v>847</v>
@@ -20102,10 +20177,10 @@
     </row>
     <row r="928" spans="1:5">
       <c r="A928" t="s">
-        <v>1208</v>
+        <v>837</v>
       </c>
       <c r="B928" t="s">
-        <v>1211</v>
+        <v>846</v>
       </c>
       <c r="C928" t="s">
         <v>847</v>
@@ -20122,7 +20197,7 @@
         <v>1208</v>
       </c>
       <c r="B929" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="C929" t="s">
         <v>847</v>
@@ -20136,10 +20211,10 @@
     </row>
     <row r="930" spans="1:5">
       <c r="A930" t="s">
-        <v>1008</v>
+        <v>1208</v>
       </c>
       <c r="B930" t="s">
-        <v>1061</v>
+        <v>1210</v>
       </c>
       <c r="C930" t="s">
         <v>847</v>
@@ -20153,10 +20228,10 @@
     </row>
     <row r="931" spans="1:5">
       <c r="A931" t="s">
-        <v>1008</v>
+        <v>1208</v>
       </c>
       <c r="B931" t="s">
-        <v>1062</v>
+        <v>1211</v>
       </c>
       <c r="C931" t="s">
         <v>847</v>
@@ -20170,10 +20245,10 @@
     </row>
     <row r="932" spans="1:5">
       <c r="A932" t="s">
-        <v>1008</v>
+        <v>1208</v>
       </c>
       <c r="B932" t="s">
-        <v>1063</v>
+        <v>1212</v>
       </c>
       <c r="C932" t="s">
         <v>847</v>
@@ -20190,7 +20265,7 @@
         <v>1008</v>
       </c>
       <c r="B933" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C933" t="s">
         <v>847</v>
@@ -20207,7 +20282,7 @@
         <v>1008</v>
       </c>
       <c r="B934" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="C934" t="s">
         <v>847</v>
@@ -20224,7 +20299,7 @@
         <v>1008</v>
       </c>
       <c r="B935" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="C935" t="s">
         <v>847</v>
@@ -20238,10 +20313,10 @@
     </row>
     <row r="936" spans="1:5">
       <c r="A936" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B936" t="s">
-        <v>1047</v>
+        <v>1064</v>
       </c>
       <c r="C936" t="s">
         <v>847</v>
@@ -20255,10 +20330,10 @@
     </row>
     <row r="937" spans="1:5">
       <c r="A937" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B937" t="s">
-        <v>1048</v>
+        <v>1065</v>
       </c>
       <c r="C937" t="s">
         <v>847</v>
@@ -20272,10 +20347,10 @@
     </row>
     <row r="938" spans="1:5">
       <c r="A938" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
       <c r="B938" t="s">
-        <v>1049</v>
+        <v>1060</v>
       </c>
       <c r="C938" t="s">
         <v>847</v>
@@ -20292,7 +20367,7 @@
         <v>1005</v>
       </c>
       <c r="B939" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="C939" t="s">
         <v>847</v>
@@ -20309,7 +20384,7 @@
         <v>1005</v>
       </c>
       <c r="B940" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C940" t="s">
         <v>847</v>
@@ -20326,7 +20401,7 @@
         <v>1005</v>
       </c>
       <c r="B941" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C941" t="s">
         <v>847</v>
@@ -20343,7 +20418,7 @@
         <v>1005</v>
       </c>
       <c r="B942" t="s">
-        <v>1046</v>
+        <v>1050</v>
       </c>
       <c r="C942" t="s">
         <v>847</v>
@@ -20357,13 +20432,13 @@
     </row>
     <row r="943" spans="1:5">
       <c r="A943" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="B943" t="s">
-        <v>1162</v>
+        <v>1051</v>
       </c>
       <c r="C943" t="s">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="D943" t="s">
         <v>848</v>
@@ -20374,13 +20449,13 @@
     </row>
     <row r="944" spans="1:5">
       <c r="A944" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="B944" t="s">
-        <v>1163</v>
+        <v>1052</v>
       </c>
       <c r="C944" t="s">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="D944" t="s">
         <v>848</v>
@@ -20391,13 +20466,13 @@
     </row>
     <row r="945" spans="1:5">
       <c r="A945" t="s">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="B945" t="s">
-        <v>1164</v>
+        <v>1046</v>
       </c>
       <c r="C945" t="s">
-        <v>936</v>
+        <v>847</v>
       </c>
       <c r="D945" t="s">
         <v>848</v>
@@ -20411,7 +20486,7 @@
         <v>1023</v>
       </c>
       <c r="B946" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="C946" t="s">
         <v>936</v>
@@ -20428,7 +20503,7 @@
         <v>1023</v>
       </c>
       <c r="B947" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="C947" t="s">
         <v>936</v>
@@ -20445,7 +20520,7 @@
         <v>1023</v>
       </c>
       <c r="B948" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="C948" t="s">
         <v>936</v>
@@ -20462,7 +20537,7 @@
         <v>1023</v>
       </c>
       <c r="B949" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="C949" t="s">
         <v>936</v>
@@ -20479,7 +20554,7 @@
         <v>1023</v>
       </c>
       <c r="B950" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="C950" t="s">
         <v>936</v>
@@ -20496,7 +20571,7 @@
         <v>1023</v>
       </c>
       <c r="B951" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="C951" t="s">
         <v>936</v>
@@ -20513,7 +20588,7 @@
         <v>1023</v>
       </c>
       <c r="B952" t="s">
-        <v>1161</v>
+        <v>1168</v>
       </c>
       <c r="C952" t="s">
         <v>936</v>
@@ -20527,10 +20602,10 @@
     </row>
     <row r="953" spans="1:5">
       <c r="A953" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="B953" t="s">
-        <v>1074</v>
+        <v>1169</v>
       </c>
       <c r="C953" t="s">
         <v>936</v>
@@ -20544,10 +20619,10 @@
     </row>
     <row r="954" spans="1:5">
       <c r="A954" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="B954" t="s">
-        <v>1075</v>
+        <v>1170</v>
       </c>
       <c r="C954" t="s">
         <v>936</v>
@@ -20561,10 +20636,10 @@
     </row>
     <row r="955" spans="1:5">
       <c r="A955" t="s">
-        <v>1011</v>
+        <v>1023</v>
       </c>
       <c r="B955" t="s">
-        <v>1076</v>
+        <v>1161</v>
       </c>
       <c r="C955" t="s">
         <v>936</v>
@@ -20581,7 +20656,7 @@
         <v>1011</v>
       </c>
       <c r="B956" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C956" t="s">
         <v>936</v>
@@ -20598,7 +20673,7 @@
         <v>1011</v>
       </c>
       <c r="B957" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="C957" t="s">
         <v>936</v>
@@ -20615,7 +20690,7 @@
         <v>1011</v>
       </c>
       <c r="B958" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C958" t="s">
         <v>936</v>
@@ -20632,7 +20707,7 @@
         <v>1011</v>
       </c>
       <c r="B959" t="s">
-        <v>1239</v>
+        <v>1077</v>
       </c>
       <c r="C959" t="s">
         <v>936</v>
@@ -20649,7 +20724,7 @@
         <v>1011</v>
       </c>
       <c r="B960" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="C960" t="s">
         <v>936</v>
@@ -20666,7 +20741,7 @@
         <v>1011</v>
       </c>
       <c r="B961" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="C961" t="s">
         <v>936</v>
@@ -20683,7 +20758,7 @@
         <v>1011</v>
       </c>
       <c r="B962" t="s">
-        <v>1082</v>
+        <v>1239</v>
       </c>
       <c r="C962" t="s">
         <v>936</v>
@@ -20697,10 +20772,10 @@
     </row>
     <row r="963" spans="1:5">
       <c r="A963" t="s">
-        <v>1160</v>
+        <v>1011</v>
       </c>
       <c r="B963" t="s">
-        <v>1213</v>
+        <v>1080</v>
       </c>
       <c r="C963" t="s">
         <v>936</v>
@@ -20714,10 +20789,10 @@
     </row>
     <row r="964" spans="1:5">
       <c r="A964" t="s">
-        <v>1160</v>
+        <v>1011</v>
       </c>
       <c r="B964" t="s">
-        <v>1214</v>
+        <v>1081</v>
       </c>
       <c r="C964" t="s">
         <v>936</v>
@@ -20731,10 +20806,10 @@
     </row>
     <row r="965" spans="1:5">
       <c r="A965" t="s">
-        <v>1160</v>
+        <v>1011</v>
       </c>
       <c r="B965" t="s">
-        <v>1215</v>
+        <v>1082</v>
       </c>
       <c r="C965" t="s">
         <v>936</v>
@@ -20751,7 +20826,7 @@
         <v>1160</v>
       </c>
       <c r="B966" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="C966" t="s">
         <v>936</v>
@@ -20768,7 +20843,7 @@
         <v>1160</v>
       </c>
       <c r="B967" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="C967" t="s">
         <v>936</v>
@@ -20785,7 +20860,7 @@
         <v>1160</v>
       </c>
       <c r="B968" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C968" t="s">
         <v>936</v>
@@ -20799,10 +20874,10 @@
     </row>
     <row r="969" spans="1:5">
       <c r="A969" t="s">
-        <v>935</v>
+        <v>1160</v>
       </c>
       <c r="B969" t="s">
-        <v>938</v>
+        <v>1216</v>
       </c>
       <c r="C969" t="s">
         <v>936</v>
@@ -20816,10 +20891,10 @@
     </row>
     <row r="970" spans="1:5">
       <c r="A970" t="s">
-        <v>935</v>
+        <v>1160</v>
       </c>
       <c r="B970" t="s">
-        <v>939</v>
+        <v>1217</v>
       </c>
       <c r="C970" t="s">
         <v>936</v>
@@ -20833,10 +20908,10 @@
     </row>
     <row r="971" spans="1:5">
       <c r="A971" t="s">
-        <v>935</v>
+        <v>1160</v>
       </c>
       <c r="B971" t="s">
-        <v>940</v>
+        <v>1218</v>
       </c>
       <c r="C971" t="s">
         <v>936</v>
@@ -20853,7 +20928,7 @@
         <v>935</v>
       </c>
       <c r="B972" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="C972" t="s">
         <v>936</v>
@@ -20870,7 +20945,7 @@
         <v>935</v>
       </c>
       <c r="B973" t="s">
-        <v>1237</v>
+        <v>939</v>
       </c>
       <c r="C973" t="s">
         <v>936</v>
@@ -20887,7 +20962,7 @@
         <v>935</v>
       </c>
       <c r="B974" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C974" t="s">
         <v>936</v>
@@ -20904,7 +20979,7 @@
         <v>935</v>
       </c>
       <c r="B975" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C975" t="s">
         <v>936</v>
@@ -20921,7 +20996,7 @@
         <v>935</v>
       </c>
       <c r="B976" t="s">
-        <v>944</v>
+        <v>1237</v>
       </c>
       <c r="C976" t="s">
         <v>936</v>
@@ -20938,7 +21013,7 @@
         <v>935</v>
       </c>
       <c r="B977" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C977" t="s">
         <v>936</v>
@@ -20955,7 +21030,7 @@
         <v>935</v>
       </c>
       <c r="B978" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C978" t="s">
         <v>936</v>
@@ -20972,7 +21047,7 @@
         <v>935</v>
       </c>
       <c r="B979" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="C979" t="s">
         <v>936</v>
@@ -20989,7 +21064,7 @@
         <v>935</v>
       </c>
       <c r="B980" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C980" t="s">
         <v>936</v>
@@ -21006,7 +21081,7 @@
         <v>935</v>
       </c>
       <c r="B981" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C981" t="s">
         <v>936</v>
@@ -21023,7 +21098,7 @@
         <v>935</v>
       </c>
       <c r="B982" t="s">
-        <v>950</v>
+        <v>937</v>
       </c>
       <c r="C982" t="s">
         <v>936</v>
@@ -21040,7 +21115,7 @@
         <v>935</v>
       </c>
       <c r="B983" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C983" t="s">
         <v>936</v>
@@ -21057,7 +21132,7 @@
         <v>935</v>
       </c>
       <c r="B984" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C984" t="s">
         <v>936</v>
@@ -21074,7 +21149,7 @@
         <v>935</v>
       </c>
       <c r="B985" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C985" t="s">
         <v>936</v>
@@ -21091,7 +21166,7 @@
         <v>935</v>
       </c>
       <c r="B986" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C986" t="s">
         <v>936</v>
@@ -21108,7 +21183,7 @@
         <v>935</v>
       </c>
       <c r="B987" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C987" t="s">
         <v>936</v>
@@ -21125,7 +21200,7 @@
         <v>935</v>
       </c>
       <c r="B988" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C988" t="s">
         <v>936</v>
@@ -21142,7 +21217,7 @@
         <v>935</v>
       </c>
       <c r="B989" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="C989" t="s">
         <v>936</v>
@@ -21156,13 +21231,13 @@
     </row>
     <row r="990" spans="1:5">
       <c r="A990" t="s">
-        <v>1191</v>
+        <v>935</v>
       </c>
       <c r="B990" t="s">
-        <v>1194</v>
+        <v>955</v>
       </c>
       <c r="C990" t="s">
-        <v>1192</v>
+        <v>936</v>
       </c>
       <c r="D990" t="s">
         <v>848</v>
@@ -21173,13 +21248,13 @@
     </row>
     <row r="991" spans="1:5">
       <c r="A991" t="s">
-        <v>1191</v>
+        <v>935</v>
       </c>
       <c r="B991" t="s">
-        <v>1195</v>
+        <v>956</v>
       </c>
       <c r="C991" t="s">
-        <v>1192</v>
+        <v>936</v>
       </c>
       <c r="D991" t="s">
         <v>848</v>
@@ -21190,13 +21265,13 @@
     </row>
     <row r="992" spans="1:5">
       <c r="A992" t="s">
-        <v>1191</v>
+        <v>935</v>
       </c>
       <c r="B992" t="s">
-        <v>1192</v>
+        <v>947</v>
       </c>
       <c r="C992" t="s">
-        <v>1192</v>
+        <v>936</v>
       </c>
       <c r="D992" t="s">
         <v>848</v>
@@ -21210,7 +21285,7 @@
         <v>1191</v>
       </c>
       <c r="B993" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C993" t="s">
         <v>1192</v>
@@ -21224,13 +21299,13 @@
     </row>
     <row r="994" spans="1:5">
       <c r="A994" t="s">
-        <v>1019</v>
+        <v>1191</v>
       </c>
       <c r="B994" t="s">
-        <v>1134</v>
+        <v>1195</v>
       </c>
       <c r="C994" t="s">
-        <v>1132</v>
+        <v>1192</v>
       </c>
       <c r="D994" t="s">
         <v>848</v>
@@ -21241,13 +21316,13 @@
     </row>
     <row r="995" spans="1:5">
       <c r="A995" t="s">
-        <v>1019</v>
+        <v>1191</v>
       </c>
       <c r="B995" t="s">
-        <v>1135</v>
+        <v>1192</v>
       </c>
       <c r="C995" t="s">
-        <v>1132</v>
+        <v>1192</v>
       </c>
       <c r="D995" t="s">
         <v>848</v>
@@ -21258,13 +21333,13 @@
     </row>
     <row r="996" spans="1:5">
       <c r="A996" t="s">
-        <v>1019</v>
+        <v>1191</v>
       </c>
       <c r="B996" t="s">
-        <v>1136</v>
+        <v>1193</v>
       </c>
       <c r="C996" t="s">
-        <v>1132</v>
+        <v>1192</v>
       </c>
       <c r="D996" t="s">
         <v>848</v>
@@ -21278,7 +21353,7 @@
         <v>1019</v>
       </c>
       <c r="B997" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="C997" t="s">
         <v>1132</v>
@@ -21295,7 +21370,7 @@
         <v>1019</v>
       </c>
       <c r="B998" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="C998" t="s">
         <v>1132</v>
@@ -21312,7 +21387,7 @@
         <v>1019</v>
       </c>
       <c r="B999" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="C999" t="s">
         <v>1132</v>
@@ -21329,7 +21404,7 @@
         <v>1019</v>
       </c>
       <c r="B1000" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C1000" t="s">
         <v>1132</v>
@@ -21346,7 +21421,7 @@
         <v>1019</v>
       </c>
       <c r="B1001" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="C1001" t="s">
         <v>1132</v>
@@ -21363,7 +21438,7 @@
         <v>1019</v>
       </c>
       <c r="B1002" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="C1002" t="s">
         <v>1132</v>
@@ -21380,7 +21455,7 @@
         <v>1019</v>
       </c>
       <c r="B1003" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="C1003" t="s">
         <v>1132</v>
@@ -21397,7 +21472,7 @@
         <v>1019</v>
       </c>
       <c r="B1004" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="C1004" t="s">
         <v>1132</v>
@@ -21414,7 +21489,7 @@
         <v>1019</v>
       </c>
       <c r="B1005" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="C1005" t="s">
         <v>1132</v>
@@ -21431,7 +21506,7 @@
         <v>1019</v>
       </c>
       <c r="B1006" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="C1006" t="s">
         <v>1132</v>
@@ -21448,7 +21523,7 @@
         <v>1019</v>
       </c>
       <c r="B1007" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="C1007" t="s">
         <v>1132</v>
@@ -21465,7 +21540,7 @@
         <v>1019</v>
       </c>
       <c r="B1008" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="C1008" t="s">
         <v>1132</v>
@@ -21482,7 +21557,7 @@
         <v>1019</v>
       </c>
       <c r="B1009" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="C1009" t="s">
         <v>1132</v>
@@ -21499,7 +21574,7 @@
         <v>1019</v>
       </c>
       <c r="B1010" t="s">
-        <v>1133</v>
+        <v>1147</v>
       </c>
       <c r="C1010" t="s">
         <v>1132</v>
@@ -21513,13 +21588,13 @@
     </row>
     <row r="1011" spans="1:5">
       <c r="A1011" t="s">
-        <v>1171</v>
+        <v>1019</v>
       </c>
       <c r="B1011" t="s">
-        <v>1171</v>
+        <v>1148</v>
       </c>
       <c r="C1011" t="s">
-        <v>1219</v>
+        <v>1132</v>
       </c>
       <c r="D1011" t="s">
         <v>848</v>
@@ -21530,13 +21605,13 @@
     </row>
     <row r="1012" spans="1:5">
       <c r="A1012" t="s">
-        <v>1171</v>
+        <v>1019</v>
       </c>
       <c r="B1012" t="s">
-        <v>1221</v>
+        <v>1149</v>
       </c>
       <c r="C1012" t="s">
-        <v>1219</v>
+        <v>1132</v>
       </c>
       <c r="D1012" t="s">
         <v>848</v>
@@ -21547,13 +21622,13 @@
     </row>
     <row r="1013" spans="1:5">
       <c r="A1013" t="s">
-        <v>1171</v>
+        <v>1019</v>
       </c>
       <c r="B1013" t="s">
-        <v>1222</v>
+        <v>1133</v>
       </c>
       <c r="C1013" t="s">
-        <v>1219</v>
+        <v>1132</v>
       </c>
       <c r="D1013" t="s">
         <v>848</v>
@@ -21567,7 +21642,7 @@
         <v>1171</v>
       </c>
       <c r="B1014" t="s">
-        <v>1223</v>
+        <v>1171</v>
       </c>
       <c r="C1014" t="s">
         <v>1219</v>
@@ -21584,7 +21659,7 @@
         <v>1171</v>
       </c>
       <c r="B1015" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="C1015" t="s">
         <v>1219</v>
@@ -21601,7 +21676,7 @@
         <v>1171</v>
       </c>
       <c r="B1016" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="C1016" t="s">
         <v>1219</v>
@@ -21618,7 +21693,7 @@
         <v>1171</v>
       </c>
       <c r="B1017" t="s">
-        <v>141</v>
+        <v>1223</v>
       </c>
       <c r="C1017" t="s">
         <v>1219</v>
@@ -21635,7 +21710,7 @@
         <v>1171</v>
       </c>
       <c r="B1018" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C1018" t="s">
         <v>1219</v>
@@ -21652,7 +21727,7 @@
         <v>1171</v>
       </c>
       <c r="B1019" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C1019" t="s">
         <v>1219</v>
@@ -21669,7 +21744,7 @@
         <v>1171</v>
       </c>
       <c r="B1020" t="s">
-        <v>1220</v>
+        <v>141</v>
       </c>
       <c r="C1020" t="s">
         <v>1219</v>
@@ -21683,13 +21758,13 @@
     </row>
     <row r="1021" spans="1:5">
       <c r="A1021" t="s">
-        <v>957</v>
+        <v>1171</v>
       </c>
       <c r="B1021" t="s">
-        <v>960</v>
+        <v>1226</v>
       </c>
       <c r="C1021" t="s">
-        <v>958</v>
+        <v>1219</v>
       </c>
       <c r="D1021" t="s">
         <v>848</v>
@@ -21700,13 +21775,13 @@
     </row>
     <row r="1022" spans="1:5">
       <c r="A1022" t="s">
-        <v>957</v>
+        <v>1171</v>
       </c>
       <c r="B1022" t="s">
-        <v>961</v>
+        <v>1227</v>
       </c>
       <c r="C1022" t="s">
-        <v>958</v>
+        <v>1219</v>
       </c>
       <c r="D1022" t="s">
         <v>848</v>
@@ -21717,13 +21792,13 @@
     </row>
     <row r="1023" spans="1:5">
       <c r="A1023" t="s">
-        <v>957</v>
+        <v>1171</v>
       </c>
       <c r="B1023" t="s">
-        <v>962</v>
+        <v>1220</v>
       </c>
       <c r="C1023" t="s">
-        <v>958</v>
+        <v>1219</v>
       </c>
       <c r="D1023" t="s">
         <v>848</v>
@@ -21737,7 +21812,7 @@
         <v>957</v>
       </c>
       <c r="B1024" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C1024" t="s">
         <v>958</v>
@@ -21754,7 +21829,7 @@
         <v>957</v>
       </c>
       <c r="B1025" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C1025" t="s">
         <v>958</v>
@@ -21771,7 +21846,7 @@
         <v>957</v>
       </c>
       <c r="B1026" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="C1026" t="s">
         <v>958</v>
@@ -21788,7 +21863,7 @@
         <v>957</v>
       </c>
       <c r="B1027" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="C1027" t="s">
         <v>958</v>
@@ -21805,7 +21880,7 @@
         <v>957</v>
       </c>
       <c r="B1028" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C1028" t="s">
         <v>958</v>
@@ -21822,7 +21897,7 @@
         <v>957</v>
       </c>
       <c r="B1029" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="C1029" t="s">
         <v>958</v>
@@ -21839,7 +21914,7 @@
         <v>957</v>
       </c>
       <c r="B1030" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="C1030" t="s">
         <v>958</v>
@@ -21856,7 +21931,7 @@
         <v>957</v>
       </c>
       <c r="B1031" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C1031" t="s">
         <v>958</v>
@@ -21873,7 +21948,7 @@
         <v>957</v>
       </c>
       <c r="B1032" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="C1032" t="s">
         <v>958</v>
@@ -21890,7 +21965,7 @@
         <v>957</v>
       </c>
       <c r="B1033" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="C1033" t="s">
         <v>958</v>
@@ -21907,7 +21982,7 @@
         <v>957</v>
       </c>
       <c r="B1034" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C1034" t="s">
         <v>958</v>
@@ -21924,7 +21999,7 @@
         <v>957</v>
       </c>
       <c r="B1035" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="C1035" t="s">
         <v>958</v>
@@ -21941,7 +22016,7 @@
         <v>957</v>
       </c>
       <c r="B1036" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C1036" t="s">
         <v>958</v>
@@ -21958,7 +22033,7 @@
         <v>957</v>
       </c>
       <c r="B1037" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C1037" t="s">
         <v>958</v>
@@ -21975,7 +22050,7 @@
         <v>957</v>
       </c>
       <c r="B1038" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C1038" t="s">
         <v>958</v>
@@ -21992,7 +22067,7 @@
         <v>957</v>
       </c>
       <c r="B1039" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C1039" t="s">
         <v>958</v>
@@ -22009,7 +22084,7 @@
         <v>957</v>
       </c>
       <c r="B1040" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C1040" t="s">
         <v>958</v>
@@ -22026,7 +22101,7 @@
         <v>957</v>
       </c>
       <c r="B1041" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C1041" t="s">
         <v>958</v>
@@ -22043,7 +22118,7 @@
         <v>957</v>
       </c>
       <c r="B1042" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="C1042" t="s">
         <v>958</v>
@@ -22060,7 +22135,7 @@
         <v>957</v>
       </c>
       <c r="B1043" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C1043" t="s">
         <v>958</v>
@@ -22077,7 +22152,7 @@
         <v>957</v>
       </c>
       <c r="B1044" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C1044" t="s">
         <v>958</v>
@@ -22094,7 +22169,7 @@
         <v>957</v>
       </c>
       <c r="B1045" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="C1045" t="s">
         <v>958</v>
@@ -22111,7 +22186,7 @@
         <v>957</v>
       </c>
       <c r="B1046" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="C1046" t="s">
         <v>958</v>
@@ -22128,7 +22203,7 @@
         <v>957</v>
       </c>
       <c r="B1047" t="s">
-        <v>959</v>
+        <v>982</v>
       </c>
       <c r="C1047" t="s">
         <v>958</v>
@@ -22142,10 +22217,10 @@
     </row>
     <row r="1048" spans="1:5">
       <c r="A1048" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="B1048" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C1048" t="s">
         <v>958</v>
@@ -22159,10 +22234,10 @@
     </row>
     <row r="1049" spans="1:5">
       <c r="A1049" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="B1049" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C1049" t="s">
         <v>958</v>
@@ -22176,10 +22251,10 @@
     </row>
     <row r="1050" spans="1:5">
       <c r="A1050" t="s">
-        <v>986</v>
+        <v>957</v>
       </c>
       <c r="B1050" t="s">
-        <v>990</v>
+        <v>959</v>
       </c>
       <c r="C1050" t="s">
         <v>958</v>
@@ -22196,7 +22271,7 @@
         <v>986</v>
       </c>
       <c r="B1051" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C1051" t="s">
         <v>958</v>
@@ -22213,7 +22288,7 @@
         <v>986</v>
       </c>
       <c r="B1052" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C1052" t="s">
         <v>958</v>
@@ -22230,7 +22305,7 @@
         <v>986</v>
       </c>
       <c r="B1053" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C1053" t="s">
         <v>958</v>
@@ -22247,7 +22322,7 @@
         <v>986</v>
       </c>
       <c r="B1054" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C1054" t="s">
         <v>958</v>
@@ -22264,7 +22339,7 @@
         <v>986</v>
       </c>
       <c r="B1055" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C1055" t="s">
         <v>958</v>
@@ -22281,7 +22356,7 @@
         <v>986</v>
       </c>
       <c r="B1056" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C1056" t="s">
         <v>958</v>
@@ -22298,7 +22373,7 @@
         <v>986</v>
       </c>
       <c r="B1057" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C1057" t="s">
         <v>958</v>
@@ -22315,7 +22390,7 @@
         <v>986</v>
       </c>
       <c r="B1058" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="C1058" t="s">
         <v>958</v>
@@ -22329,53 +22404,53 @@
     </row>
     <row r="1059" spans="1:5">
       <c r="A1059" t="s">
-        <v>1250</v>
+        <v>986</v>
       </c>
       <c r="B1059" t="s">
-        <v>1252</v>
+        <v>996</v>
       </c>
       <c r="C1059" t="s">
-        <v>560</v>
+        <v>958</v>
       </c>
       <c r="D1059" t="s">
-        <v>329</v>
+        <v>848</v>
       </c>
       <c r="E1059" t="s">
-        <v>262</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1060" spans="1:5">
       <c r="A1060" t="s">
-        <v>1250</v>
+        <v>986</v>
       </c>
       <c r="B1060" t="s">
-        <v>1253</v>
+        <v>997</v>
       </c>
       <c r="C1060" t="s">
-        <v>560</v>
+        <v>958</v>
       </c>
       <c r="D1060" t="s">
-        <v>329</v>
+        <v>848</v>
       </c>
       <c r="E1060" t="s">
-        <v>262</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1061" spans="1:5">
       <c r="A1061" t="s">
-        <v>1250</v>
+        <v>986</v>
       </c>
       <c r="B1061" t="s">
-        <v>1254</v>
+        <v>987</v>
       </c>
       <c r="C1061" t="s">
-        <v>560</v>
+        <v>958</v>
       </c>
       <c r="D1061" t="s">
-        <v>329</v>
+        <v>848</v>
       </c>
       <c r="E1061" t="s">
-        <v>262</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1062" spans="1:5">
@@ -22383,7 +22458,7 @@
         <v>1250</v>
       </c>
       <c r="B1062" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C1062" t="s">
         <v>560</v>
@@ -22400,7 +22475,7 @@
         <v>1250</v>
       </c>
       <c r="B1063" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C1063" t="s">
         <v>560</v>
@@ -22414,16 +22489,16 @@
     </row>
     <row r="1064" spans="1:5">
       <c r="A1064" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B1064" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="C1064" t="s">
-        <v>267</v>
+        <v>560</v>
       </c>
       <c r="D1064" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="E1064" t="s">
         <v>262</v>
@@ -22431,16 +22506,16 @@
     </row>
     <row r="1065" spans="1:5">
       <c r="A1065" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="B1065" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C1065" t="s">
-        <v>267</v>
+        <v>560</v>
       </c>
       <c r="D1065" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="E1065" t="s">
         <v>262</v>
@@ -22448,13 +22523,13 @@
     </row>
     <row r="1066" spans="1:5">
       <c r="A1066" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="B1066" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C1066" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="D1066" t="s">
         <v>329</v>
@@ -22465,16 +22540,16 @@
     </row>
     <row r="1067" spans="1:5">
       <c r="A1067" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="B1067" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="C1067" t="s">
-        <v>502</v>
+        <v>267</v>
       </c>
       <c r="D1067" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E1067" t="s">
         <v>262</v>
@@ -22482,16 +22557,16 @@
     </row>
     <row r="1068" spans="1:5">
       <c r="A1068" t="s">
-        <v>1260</v>
-      </c>
-      <c r="B1068" s="3">
-        <v>1991</v>
+        <v>1256</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1258</v>
       </c>
       <c r="C1068" t="s">
-        <v>502</v>
+        <v>267</v>
       </c>
       <c r="D1068" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="E1068" t="s">
         <v>262</v>
@@ -22502,7 +22577,7 @@
         <v>1260</v>
       </c>
       <c r="B1069" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="C1069" t="s">
         <v>502</v>
@@ -22519,7 +22594,7 @@
         <v>1260</v>
       </c>
       <c r="B1070" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C1070" t="s">
         <v>502</v>
@@ -22535,8 +22610,8 @@
       <c r="A1071" t="s">
         <v>1260</v>
       </c>
-      <c r="B1071" t="s">
-        <v>1264</v>
+      <c r="B1071" s="3">
+        <v>1991</v>
       </c>
       <c r="C1071" t="s">
         <v>502</v>
@@ -22550,53 +22625,53 @@
     </row>
     <row r="1072" spans="1:5">
       <c r="A1072" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B1072" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="C1072" t="s">
-        <v>695</v>
+        <v>502</v>
       </c>
       <c r="D1072" t="s">
-        <v>696</v>
+        <v>329</v>
       </c>
       <c r="E1072" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1073" spans="1:5">
       <c r="A1073" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B1073" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="C1073" t="s">
-        <v>695</v>
+        <v>502</v>
       </c>
       <c r="D1073" t="s">
-        <v>696</v>
+        <v>329</v>
       </c>
       <c r="E1073" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1074" spans="1:5">
       <c r="A1074" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="B1074" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="C1074" t="s">
-        <v>695</v>
+        <v>502</v>
       </c>
       <c r="D1074" t="s">
-        <v>696</v>
+        <v>329</v>
       </c>
       <c r="E1074" t="s">
-        <v>651</v>
+        <v>262</v>
       </c>
     </row>
     <row r="1075" spans="1:5">
@@ -22604,7 +22679,7 @@
         <v>1265</v>
       </c>
       <c r="B1075" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="C1075" t="s">
         <v>695</v>
@@ -22621,7 +22696,7 @@
         <v>1265</v>
       </c>
       <c r="B1076" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
       <c r="C1076" t="s">
         <v>695</v>
@@ -22638,7 +22713,7 @@
         <v>1265</v>
       </c>
       <c r="B1077" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C1077" t="s">
         <v>695</v>
@@ -22655,7 +22730,7 @@
         <v>1265</v>
       </c>
       <c r="B1078" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C1078" t="s">
         <v>695</v>
@@ -22672,7 +22747,7 @@
         <v>1265</v>
       </c>
       <c r="B1079" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="C1079" t="s">
         <v>695</v>
@@ -22689,7 +22764,7 @@
         <v>1265</v>
       </c>
       <c r="B1080" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="C1080" t="s">
         <v>695</v>
@@ -22706,7 +22781,7 @@
         <v>1265</v>
       </c>
       <c r="B1081" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="C1081" t="s">
         <v>695</v>
@@ -22723,7 +22798,7 @@
         <v>1265</v>
       </c>
       <c r="B1082" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C1082" t="s">
         <v>695</v>
@@ -22737,16 +22812,16 @@
     </row>
     <row r="1083" spans="1:5">
       <c r="A1083" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B1083" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="C1083" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="D1083" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="E1083" t="s">
         <v>651</v>
@@ -22754,16 +22829,16 @@
     </row>
     <row r="1084" spans="1:5">
       <c r="A1084" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B1084" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="C1084" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="D1084" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="E1084" t="s">
         <v>651</v>
@@ -22771,16 +22846,16 @@
     </row>
     <row r="1085" spans="1:5">
       <c r="A1085" t="s">
-        <v>1277</v>
+        <v>1265</v>
       </c>
       <c r="B1085" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="C1085" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="D1085" t="s">
-        <v>650</v>
+        <v>696</v>
       </c>
       <c r="E1085" t="s">
         <v>651</v>
@@ -22791,7 +22866,7 @@
         <v>1277</v>
       </c>
       <c r="B1086" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="C1086" t="s">
         <v>649</v>
@@ -22805,10 +22880,10 @@
     </row>
     <row r="1087" spans="1:5">
       <c r="A1087" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B1087" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="C1087" t="s">
         <v>649</v>
@@ -22822,10 +22897,10 @@
     </row>
     <row r="1088" spans="1:5">
       <c r="A1088" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B1088" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="C1088" t="s">
         <v>649</v>
@@ -22839,10 +22914,10 @@
     </row>
     <row r="1089" spans="1:5">
       <c r="A1089" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
       <c r="B1089" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="C1089" t="s">
         <v>649</v>
@@ -22859,7 +22934,7 @@
         <v>1283</v>
       </c>
       <c r="B1090" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="C1090" t="s">
         <v>649</v>
@@ -22876,7 +22951,7 @@
         <v>1283</v>
       </c>
       <c r="B1091" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C1091" t="s">
         <v>649</v>
@@ -22893,7 +22968,7 @@
         <v>1283</v>
       </c>
       <c r="B1092" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="C1092" t="s">
         <v>649</v>
@@ -22910,7 +22985,7 @@
         <v>1283</v>
       </c>
       <c r="B1093" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
       <c r="C1093" t="s">
         <v>649</v>
@@ -22927,7 +23002,7 @@
         <v>1283</v>
       </c>
       <c r="B1094" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C1094" t="s">
         <v>649</v>
@@ -22944,7 +23019,7 @@
         <v>1283</v>
       </c>
       <c r="B1095" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="C1095" t="s">
         <v>649</v>
@@ -22958,16 +23033,16 @@
     </row>
     <row r="1096" spans="1:5">
       <c r="A1096" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1096" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="C1096" t="s">
-        <v>1299</v>
+        <v>649</v>
       </c>
       <c r="D1096" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E1096" t="s">
         <v>651</v>
@@ -22975,16 +23050,16 @@
     </row>
     <row r="1097" spans="1:5">
       <c r="A1097" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1097" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C1097" t="s">
-        <v>1299</v>
+        <v>649</v>
       </c>
       <c r="D1097" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E1097" t="s">
         <v>651</v>
@@ -22992,16 +23067,16 @@
     </row>
     <row r="1098" spans="1:5">
       <c r="A1098" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B1098" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C1098" t="s">
-        <v>1299</v>
+        <v>649</v>
       </c>
       <c r="D1098" t="s">
-        <v>683</v>
+        <v>650</v>
       </c>
       <c r="E1098" t="s">
         <v>651</v>
@@ -23012,7 +23087,7 @@
         <v>1282</v>
       </c>
       <c r="B1099" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C1099" t="s">
         <v>1299</v>
@@ -23029,7 +23104,7 @@
         <v>1282</v>
       </c>
       <c r="B1100" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="C1100" t="s">
         <v>1299</v>
@@ -23046,7 +23121,7 @@
         <v>1282</v>
       </c>
       <c r="B1101" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C1101" t="s">
         <v>1299</v>
@@ -23058,15 +23133,355 @@
         <v>651</v>
       </c>
     </row>
+    <row r="1102" spans="1:5">
+      <c r="A1102" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5">
+      <c r="A1103" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5">
+      <c r="A1104" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>683</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5">
+      <c r="A1105" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5">
+      <c r="A1106" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>947</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5">
+      <c r="A1107" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5">
+      <c r="A1108" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>695</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>696</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5">
+      <c r="A1109" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5">
+      <c r="A1110" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>265</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5">
+      <c r="A1111" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5">
+      <c r="A1112" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5">
+      <c r="A1113" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5">
+      <c r="A1114" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5">
+      <c r="A1115" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5">
+      <c r="A1116" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5">
+      <c r="A1117" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>329</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5">
+      <c r="A1118" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1320</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5">
+      <c r="A1119" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5">
+      <c r="A1120" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5">
+      <c r="A1121" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>847</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>848</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>849</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1058">
-    <sortCondition ref="E2:E1058"/>
-    <sortCondition ref="C2:C1058"/>
-    <sortCondition ref="A2:A1058"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1061">
+    <sortCondition ref="E2:E1061"/>
+    <sortCondition ref="C2:C1061"/>
+    <sortCondition ref="A2:A1061"/>
   </sortState>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B723" r:id="rId1" xr:uid="{07CB8EF2-FB31-45D1-B6CD-94D34A0DF0CC}"/>
+    <hyperlink ref="B726" r:id="rId1" xr:uid="{07CB8EF2-FB31-45D1-B6CD-94D34A0DF0CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
